--- a/TTH2SP/database.xlsx
+++ b/TTH2SP/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Videos\TTH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2D0B26-11B8-4B25-9FEC-C374E8276132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C893DC-EA26-4002-AB5F-4A226691EED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2386,7 +2386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F743"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A700" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>

--- a/TTH2SP/database.xlsx
+++ b/TTH2SP/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Videos\TTH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB74BFF-F8B4-4524-BB31-29B7324EB584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916484C2-16E6-4F95-ACFE-03030FBF199D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TTH2SP.exe" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="669">
   <si>
     <t>0x0</t>
   </si>
@@ -2019,6 +2019,86 @@
   </si>
   <si>
     <t>靴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樟腦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>川烏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大蒜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>當歸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬蟲夏草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人蔘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜈蚣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洋金花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛黃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒲黃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硼砂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃蓮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃芩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酢漿草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿茸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百花朝露</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2388,10 +2468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F743"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G743"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
-      <selection activeCell="C332" sqref="C332"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C392" sqref="C392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2424,7 +2505,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" hidden="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2444,7 +2525,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2464,7 +2545,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2484,7 +2565,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" hidden="1">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2504,7 +2585,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -2524,7 +2605,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" hidden="1">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -2544,7 +2625,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" hidden="1">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -2564,7 +2645,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" hidden="1">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -2584,7 +2665,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" hidden="1">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -2604,7 +2685,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -2624,7 +2705,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -2644,7 +2725,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" hidden="1">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -2664,7 +2745,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" hidden="1">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -2684,7 +2765,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" hidden="1">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -2704,7 +2785,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" hidden="1">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -2724,7 +2805,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" hidden="1">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -2744,7 +2825,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" hidden="1">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -2764,7 +2845,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" hidden="1">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -2784,7 +2865,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" hidden="1">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -2804,7 +2885,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" hidden="1">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -2824,7 +2905,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" hidden="1">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -2844,7 +2925,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" hidden="1">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -2864,7 +2945,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" hidden="1">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -2884,7 +2965,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" hidden="1">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -2904,7 +2985,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" hidden="1">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -2924,7 +3005,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" hidden="1">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -2944,7 +3025,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" hidden="1">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -2964,7 +3045,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" hidden="1">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -2984,7 +3065,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" hidden="1">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -3004,7 +3085,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" hidden="1">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -3024,7 +3105,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" hidden="1">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -3044,7 +3125,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" hidden="1">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -3064,7 +3145,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" hidden="1">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -3084,7 +3165,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" hidden="1">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -3104,7 +3185,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" hidden="1">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -3124,7 +3205,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" hidden="1">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -3144,7 +3225,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" hidden="1">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -3164,7 +3245,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" hidden="1">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -3184,7 +3265,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" hidden="1">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -3204,7 +3285,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" hidden="1">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -3224,7 +3305,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" hidden="1">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -3244,7 +3325,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" hidden="1">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -3264,7 +3345,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" hidden="1">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -3284,7 +3365,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" hidden="1">
       <c r="A45" s="1">
         <v>1</v>
       </c>
@@ -3304,7 +3385,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" hidden="1">
       <c r="A46" s="1">
         <v>1</v>
       </c>
@@ -3324,7 +3405,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" hidden="1">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -3344,7 +3425,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" hidden="1">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -3364,7 +3445,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" hidden="1">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -3384,7 +3465,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" hidden="1">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -3404,7 +3485,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" hidden="1">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -3424,7 +3505,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" hidden="1">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -3444,7 +3525,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" hidden="1">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -3464,7 +3545,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" hidden="1">
       <c r="A54" s="1">
         <v>1</v>
       </c>
@@ -3484,7 +3565,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" hidden="1">
       <c r="A55" s="1">
         <v>1</v>
       </c>
@@ -3504,7 +3585,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" hidden="1">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -3524,7 +3605,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" hidden="1">
       <c r="A57" s="1">
         <v>1</v>
       </c>
@@ -3544,7 +3625,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" hidden="1">
       <c r="A58" s="1">
         <v>1</v>
       </c>
@@ -3564,7 +3645,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" hidden="1">
       <c r="A59" s="1">
         <v>1</v>
       </c>
@@ -3584,7 +3665,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" hidden="1">
       <c r="A60" s="1">
         <v>1</v>
       </c>
@@ -3604,7 +3685,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" hidden="1">
       <c r="A61" s="1">
         <v>1</v>
       </c>
@@ -3624,7 +3705,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" hidden="1">
       <c r="A62" s="1">
         <v>1</v>
       </c>
@@ -3644,7 +3725,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" hidden="1">
       <c r="A63" s="1">
         <v>1</v>
       </c>
@@ -3664,7 +3745,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" hidden="1">
       <c r="A64" s="1">
         <v>1</v>
       </c>
@@ -3684,7 +3765,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" hidden="1">
       <c r="A65" s="1">
         <v>1</v>
       </c>
@@ -3704,7 +3785,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" hidden="1">
       <c r="A66" s="1">
         <v>1</v>
       </c>
@@ -3724,7 +3805,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" hidden="1">
       <c r="A67" s="1">
         <v>1</v>
       </c>
@@ -3744,7 +3825,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" hidden="1">
       <c r="A68" s="1">
         <v>1</v>
       </c>
@@ -3764,7 +3845,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" hidden="1">
       <c r="A69" s="1">
         <v>1</v>
       </c>
@@ -3784,7 +3865,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" hidden="1">
       <c r="A70" s="1">
         <v>1</v>
       </c>
@@ -3804,7 +3885,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" hidden="1">
       <c r="A71" s="1">
         <v>1</v>
       </c>
@@ -3824,7 +3905,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" hidden="1">
       <c r="A72" s="1">
         <v>1</v>
       </c>
@@ -3844,7 +3925,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" hidden="1">
       <c r="A73" s="1">
         <v>1</v>
       </c>
@@ -3864,7 +3945,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" hidden="1">
       <c r="A74" s="1">
         <v>1</v>
       </c>
@@ -3884,7 +3965,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" hidden="1">
       <c r="A75" s="1">
         <v>1</v>
       </c>
@@ -3904,7 +3985,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" hidden="1">
       <c r="A76" s="1">
         <v>1</v>
       </c>
@@ -3924,7 +4005,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" hidden="1">
       <c r="A77" s="1">
         <v>1</v>
       </c>
@@ -3944,7 +4025,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" hidden="1">
       <c r="A78" s="1">
         <v>1</v>
       </c>
@@ -3964,7 +4045,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" hidden="1">
       <c r="A79" s="1">
         <v>1</v>
       </c>
@@ -3984,7 +4065,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" hidden="1">
       <c r="A80" s="1">
         <v>1</v>
       </c>
@@ -4004,7 +4085,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" hidden="1">
       <c r="A81" s="1">
         <v>1</v>
       </c>
@@ -4024,7 +4105,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" hidden="1">
       <c r="A82" s="1">
         <v>1</v>
       </c>
@@ -4044,7 +4125,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" hidden="1">
       <c r="A83" s="1">
         <v>1</v>
       </c>
@@ -4064,7 +4145,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" hidden="1">
       <c r="A84" s="1">
         <v>1</v>
       </c>
@@ -4084,7 +4165,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" hidden="1">
       <c r="A85" s="1">
         <v>1</v>
       </c>
@@ -4104,7 +4185,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" hidden="1">
       <c r="A86" s="1">
         <v>1</v>
       </c>
@@ -4124,7 +4205,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" hidden="1">
       <c r="A87" s="1">
         <v>1</v>
       </c>
@@ -4144,7 +4225,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" hidden="1">
       <c r="A88" s="1">
         <v>1</v>
       </c>
@@ -4164,7 +4245,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" hidden="1">
       <c r="A89" s="1">
         <v>1</v>
       </c>
@@ -4184,7 +4265,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" hidden="1">
       <c r="A90" s="1">
         <v>1</v>
       </c>
@@ -4204,7 +4285,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" hidden="1">
       <c r="A91" s="1">
         <v>1</v>
       </c>
@@ -4224,7 +4305,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" hidden="1">
       <c r="A92" s="1">
         <v>1</v>
       </c>
@@ -4244,7 +4325,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" hidden="1">
       <c r="A93" s="1">
         <v>1</v>
       </c>
@@ -4264,7 +4345,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" hidden="1">
       <c r="A94" s="1">
         <v>1</v>
       </c>
@@ -4284,7 +4365,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" hidden="1">
       <c r="A95" s="1">
         <v>1</v>
       </c>
@@ -4304,7 +4385,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" hidden="1">
       <c r="A96" s="1">
         <v>1</v>
       </c>
@@ -4324,7 +4405,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" hidden="1">
       <c r="A97" s="1">
         <v>1</v>
       </c>
@@ -4344,7 +4425,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" hidden="1">
       <c r="A98" s="1">
         <v>1</v>
       </c>
@@ -4364,7 +4445,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" hidden="1">
       <c r="A99" s="1">
         <v>1</v>
       </c>
@@ -4384,7 +4465,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" hidden="1">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -4404,7 +4485,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" hidden="1">
       <c r="A101" s="1">
         <v>1</v>
       </c>
@@ -4424,7 +4505,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" hidden="1">
       <c r="A102" s="1">
         <v>1</v>
       </c>
@@ -4444,7 +4525,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" hidden="1">
       <c r="A103" s="1">
         <v>1</v>
       </c>
@@ -4464,7 +4545,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" hidden="1">
       <c r="A104" s="1">
         <v>1</v>
       </c>
@@ -4484,7 +4565,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" hidden="1">
       <c r="A105" s="1">
         <v>1</v>
       </c>
@@ -4504,7 +4585,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" hidden="1">
       <c r="A106" s="1">
         <v>1</v>
       </c>
@@ -4524,7 +4605,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" hidden="1">
       <c r="A107" s="1">
         <v>1</v>
       </c>
@@ -4544,7 +4625,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" hidden="1">
       <c r="A108" s="1">
         <v>1</v>
       </c>
@@ -4564,7 +4645,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" hidden="1">
       <c r="A109" s="1">
         <v>1</v>
       </c>
@@ -4584,7 +4665,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" hidden="1">
       <c r="A110" s="1">
         <v>1</v>
       </c>
@@ -4604,7 +4685,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" hidden="1">
       <c r="A111" s="1">
         <v>1</v>
       </c>
@@ -4624,7 +4705,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" hidden="1">
       <c r="A112" s="1">
         <v>1</v>
       </c>
@@ -4644,7 +4725,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" hidden="1">
       <c r="A113" s="1">
         <v>1</v>
       </c>
@@ -4664,7 +4745,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" hidden="1">
       <c r="A114" s="1">
         <v>1</v>
       </c>
@@ -4684,7 +4765,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" hidden="1">
       <c r="A115" s="1">
         <v>1</v>
       </c>
@@ -4704,7 +4785,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" hidden="1">
       <c r="A116" s="1">
         <v>1</v>
       </c>
@@ -4724,7 +4805,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" hidden="1">
       <c r="A117" s="1">
         <v>1</v>
       </c>
@@ -4744,7 +4825,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" hidden="1">
       <c r="A118" s="1">
         <v>1</v>
       </c>
@@ -4764,7 +4845,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" hidden="1">
       <c r="A119" s="1">
         <v>1</v>
       </c>
@@ -4784,7 +4865,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" hidden="1">
       <c r="A120" s="1">
         <v>1</v>
       </c>
@@ -4804,7 +4885,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" hidden="1">
       <c r="A121" s="1">
         <v>1</v>
       </c>
@@ -4824,7 +4905,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" hidden="1">
       <c r="A122" s="1">
         <v>1</v>
       </c>
@@ -4844,7 +4925,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" hidden="1">
       <c r="A123" s="1">
         <v>1</v>
       </c>
@@ -4864,7 +4945,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" hidden="1">
       <c r="A124" s="1">
         <v>1</v>
       </c>
@@ -4884,7 +4965,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" hidden="1">
       <c r="A125" s="1">
         <v>1</v>
       </c>
@@ -4904,7 +4985,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" hidden="1">
       <c r="A126" s="1">
         <v>1</v>
       </c>
@@ -4924,7 +5005,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" hidden="1">
       <c r="A127" s="1">
         <v>1</v>
       </c>
@@ -4944,7 +5025,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" hidden="1">
       <c r="A128" s="1">
         <v>1</v>
       </c>
@@ -4964,7 +5045,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" hidden="1">
       <c r="A129" s="1">
         <v>1</v>
       </c>
@@ -4984,7 +5065,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" hidden="1">
       <c r="A130" s="1">
         <v>1</v>
       </c>
@@ -5004,7 +5085,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" hidden="1">
       <c r="A131" s="1">
         <v>1</v>
       </c>
@@ -5024,7 +5105,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" hidden="1">
       <c r="A132" s="1">
         <v>1</v>
       </c>
@@ -5044,7 +5125,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" hidden="1">
       <c r="A133" s="1">
         <v>1</v>
       </c>
@@ -5064,7 +5145,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" hidden="1">
       <c r="A134" s="1">
         <v>1</v>
       </c>
@@ -5084,7 +5165,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" hidden="1">
       <c r="A135" s="1">
         <v>1</v>
       </c>
@@ -5104,7 +5185,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" hidden="1">
       <c r="A136" s="1">
         <v>1</v>
       </c>
@@ -5124,7 +5205,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" hidden="1">
       <c r="A137" s="1">
         <v>1</v>
       </c>
@@ -5144,7 +5225,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" hidden="1">
       <c r="A138" s="1">
         <v>1</v>
       </c>
@@ -5164,7 +5245,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" hidden="1">
       <c r="A139" s="1">
         <v>1</v>
       </c>
@@ -5184,7 +5265,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" hidden="1">
       <c r="A140" s="1">
         <v>1</v>
       </c>
@@ -5204,7 +5285,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" hidden="1">
       <c r="A141" s="1">
         <v>1</v>
       </c>
@@ -5224,7 +5305,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" hidden="1">
       <c r="A142" s="1">
         <v>1</v>
       </c>
@@ -5244,7 +5325,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" hidden="1">
       <c r="A143" s="1">
         <v>1</v>
       </c>
@@ -5264,7 +5345,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" hidden="1">
       <c r="A144" s="1">
         <v>1</v>
       </c>
@@ -5284,7 +5365,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" hidden="1">
       <c r="A145" s="1">
         <v>1</v>
       </c>
@@ -5304,7 +5385,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" hidden="1">
       <c r="A146" s="1">
         <v>1</v>
       </c>
@@ -5324,7 +5405,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" hidden="1">
       <c r="A147" s="1">
         <v>1</v>
       </c>
@@ -5344,7 +5425,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" hidden="1">
       <c r="A148" s="1">
         <v>1</v>
       </c>
@@ -5364,7 +5445,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" hidden="1">
       <c r="A149" s="1">
         <v>1</v>
       </c>
@@ -5384,7 +5465,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" hidden="1">
       <c r="A150" s="1">
         <v>1</v>
       </c>
@@ -5404,7 +5485,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" hidden="1">
       <c r="A151" s="1">
         <v>1</v>
       </c>
@@ -5424,7 +5505,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" hidden="1">
       <c r="A152" s="1">
         <v>1</v>
       </c>
@@ -5444,7 +5525,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" hidden="1">
       <c r="A153" s="1">
         <v>1</v>
       </c>
@@ -5464,7 +5545,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" hidden="1">
       <c r="A154" s="1">
         <v>1</v>
       </c>
@@ -5484,7 +5565,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" hidden="1">
       <c r="A155" s="1">
         <v>1</v>
       </c>
@@ -5504,7 +5585,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" hidden="1">
       <c r="A156" s="1">
         <v>1</v>
       </c>
@@ -5524,7 +5605,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" hidden="1">
       <c r="A157" s="1">
         <v>1</v>
       </c>
@@ -5544,7 +5625,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" hidden="1">
       <c r="A158" s="1">
         <v>1</v>
       </c>
@@ -5564,7 +5645,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" hidden="1">
       <c r="A159" s="1">
         <v>1</v>
       </c>
@@ -5584,7 +5665,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" hidden="1">
       <c r="A160" s="1">
         <v>1</v>
       </c>
@@ -5604,7 +5685,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:7" hidden="1">
       <c r="A161" s="1">
         <v>1</v>
       </c>
@@ -5624,7 +5705,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:7" hidden="1">
       <c r="A162" s="1">
         <v>1</v>
       </c>
@@ -5644,7 +5725,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:7" hidden="1">
       <c r="A163" s="1">
         <v>1</v>
       </c>
@@ -5664,7 +5745,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:7" hidden="1">
       <c r="A164" s="1">
         <v>1</v>
       </c>
@@ -5684,7 +5765,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:7" hidden="1">
       <c r="A165" s="1">
         <v>1</v>
       </c>
@@ -5704,7 +5785,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:7" hidden="1">
       <c r="A166" s="1">
         <v>1</v>
       </c>
@@ -5724,7 +5805,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:7" hidden="1">
       <c r="A167" s="1">
         <v>1</v>
       </c>
@@ -5744,7 +5825,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:7" hidden="1">
       <c r="A168" s="1">
         <v>1</v>
       </c>
@@ -5764,7 +5845,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:7" hidden="1">
       <c r="A169" s="1">
         <v>1</v>
       </c>
@@ -5784,7 +5865,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:7" hidden="1">
       <c r="A170" s="1">
         <v>1</v>
       </c>
@@ -5804,7 +5885,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:7" hidden="1">
       <c r="A171" s="1">
         <v>1</v>
       </c>
@@ -5824,7 +5905,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:7" hidden="1">
       <c r="A172" s="1">
         <v>1</v>
       </c>
@@ -5844,7 +5925,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:7" hidden="1">
       <c r="A173" s="1">
         <v>1</v>
       </c>
@@ -5863,8 +5944,11 @@
       <c r="F173" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:6">
+      <c r="G173" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" hidden="1">
       <c r="A174" s="1">
         <v>1</v>
       </c>
@@ -5880,8 +5964,11 @@
       <c r="F174" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:6">
+      <c r="G174" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" hidden="1">
       <c r="A175" s="1">
         <v>1</v>
       </c>
@@ -5897,8 +5984,11 @@
       <c r="F175" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="176" spans="1:6">
+      <c r="G175" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" hidden="1">
       <c r="A176" s="1">
         <v>1</v>
       </c>
@@ -5914,8 +6004,11 @@
       <c r="F176" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="177" spans="1:6">
+      <c r="G176" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" hidden="1">
       <c r="A177" s="1">
         <v>1</v>
       </c>
@@ -5931,8 +6024,11 @@
       <c r="F177" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="1:6">
+      <c r="G177" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" hidden="1">
       <c r="A178" s="1">
         <v>1</v>
       </c>
@@ -5948,8 +6044,11 @@
       <c r="F178" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="179" spans="1:6">
+      <c r="G178" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" hidden="1">
       <c r="A179" s="1">
         <v>1</v>
       </c>
@@ -5965,8 +6064,11 @@
       <c r="F179" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="180" spans="1:6">
+      <c r="G179" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" hidden="1">
       <c r="A180" s="1">
         <v>1</v>
       </c>
@@ -5982,8 +6084,11 @@
       <c r="F180" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="181" spans="1:6">
+      <c r="G180" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" hidden="1">
       <c r="A181" s="1">
         <v>1</v>
       </c>
@@ -5999,8 +6104,11 @@
       <c r="F181" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="182" spans="1:6">
+      <c r="G181" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" hidden="1">
       <c r="A182" s="1">
         <v>1</v>
       </c>
@@ -6016,8 +6124,11 @@
       <c r="F182" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="183" spans="1:6">
+      <c r="G182" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" hidden="1">
       <c r="A183" s="1">
         <v>1</v>
       </c>
@@ -6033,8 +6144,11 @@
       <c r="F183" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="184" spans="1:6">
+      <c r="G183" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" hidden="1">
       <c r="A184" s="1">
         <v>1</v>
       </c>
@@ -6050,8 +6164,11 @@
       <c r="F184" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="185" spans="1:6">
+      <c r="G184" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" hidden="1">
       <c r="A185" s="1">
         <v>1</v>
       </c>
@@ -6067,8 +6184,11 @@
       <c r="F185" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="186" spans="1:6">
+      <c r="G185" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" hidden="1">
       <c r="A186" s="1">
         <v>1</v>
       </c>
@@ -6084,8 +6204,11 @@
       <c r="F186" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="187" spans="1:6">
+      <c r="G186" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" hidden="1">
       <c r="A187" s="1">
         <v>1</v>
       </c>
@@ -6101,8 +6224,11 @@
       <c r="F187" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="188" spans="1:6">
+      <c r="G187" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" hidden="1">
       <c r="A188" s="1">
         <v>1</v>
       </c>
@@ -6118,8 +6244,11 @@
       <c r="F188" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="189" spans="1:6">
+      <c r="G188" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" hidden="1">
       <c r="A189" s="1">
         <v>1</v>
       </c>
@@ -6135,8 +6264,11 @@
       <c r="F189" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="190" spans="1:6">
+      <c r="G189" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" hidden="1">
       <c r="A190" s="1">
         <v>1</v>
       </c>
@@ -6152,8 +6284,11 @@
       <c r="F190" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="191" spans="1:6">
+      <c r="G190" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" hidden="1">
       <c r="A191" s="1">
         <v>1</v>
       </c>
@@ -6169,8 +6304,11 @@
       <c r="F191" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="192" spans="1:6">
+      <c r="G191" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" hidden="1">
       <c r="A192" s="1">
         <v>1</v>
       </c>
@@ -6186,8 +6324,11 @@
       <c r="F192" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="193" spans="1:6">
+      <c r="G192" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" hidden="1">
       <c r="A193" s="1">
         <v>1</v>
       </c>
@@ -6203,8 +6344,11 @@
       <c r="F193" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="194" spans="1:6">
+      <c r="G193" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" hidden="1">
       <c r="A194" s="1">
         <v>1</v>
       </c>
@@ -6220,8 +6364,11 @@
       <c r="F194" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="195" spans="1:6">
+      <c r="G194" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" hidden="1">
       <c r="A195" s="1">
         <v>1</v>
       </c>
@@ -6237,8 +6384,11 @@
       <c r="F195" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="196" spans="1:6">
+      <c r="G195" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" hidden="1">
       <c r="A196" s="1">
         <v>1</v>
       </c>
@@ -6254,8 +6404,11 @@
       <c r="F196" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="197" spans="1:6">
+      <c r="G196" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" hidden="1">
       <c r="A197" s="1">
         <v>1</v>
       </c>
@@ -6271,8 +6424,11 @@
       <c r="F197" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="198" spans="1:6">
+      <c r="G197" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" hidden="1">
       <c r="A198" s="1">
         <v>1</v>
       </c>
@@ -6288,8 +6444,11 @@
       <c r="F198" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="199" spans="1:6">
+      <c r="G198" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" hidden="1">
       <c r="A199" s="1">
         <v>1</v>
       </c>
@@ -6305,8 +6464,11 @@
       <c r="F199" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="200" spans="1:6">
+      <c r="G199" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" hidden="1">
       <c r="A200" s="1">
         <v>1</v>
       </c>
@@ -6322,8 +6484,11 @@
       <c r="F200" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="201" spans="1:6">
+      <c r="G200" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" hidden="1">
       <c r="A201" s="1">
         <v>1</v>
       </c>
@@ -6339,8 +6504,11 @@
       <c r="F201" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="202" spans="1:6">
+      <c r="G201" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" hidden="1">
       <c r="A202" s="1">
         <v>1</v>
       </c>
@@ -6356,8 +6524,11 @@
       <c r="F202" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="203" spans="1:6">
+      <c r="G202" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" hidden="1">
       <c r="A203" s="1">
         <v>1</v>
       </c>
@@ -6373,8 +6544,11 @@
       <c r="F203" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="204" spans="1:6">
+      <c r="G203" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" hidden="1">
       <c r="A204" s="1">
         <v>1</v>
       </c>
@@ -6390,8 +6564,11 @@
       <c r="F204" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="205" spans="1:6">
+      <c r="G204" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" hidden="1">
       <c r="A205" s="1">
         <v>1</v>
       </c>
@@ -6407,8 +6584,11 @@
       <c r="F205" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="206" spans="1:6">
+      <c r="G205" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" hidden="1">
       <c r="A206" s="1">
         <v>1</v>
       </c>
@@ -6424,8 +6604,11 @@
       <c r="F206" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="207" spans="1:6">
+      <c r="G206" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" hidden="1">
       <c r="A207" s="1">
         <v>1</v>
       </c>
@@ -6441,8 +6624,11 @@
       <c r="F207" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="208" spans="1:6">
+      <c r="G207" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" hidden="1">
       <c r="A208" s="1">
         <v>1</v>
       </c>
@@ -6458,8 +6644,11 @@
       <c r="F208" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="209" spans="1:6">
+      <c r="G208" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" hidden="1">
       <c r="A209" s="1">
         <v>1</v>
       </c>
@@ -6475,8 +6664,11 @@
       <c r="F209" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="210" spans="1:6">
+      <c r="G209" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" hidden="1">
       <c r="A210" s="1">
         <v>1</v>
       </c>
@@ -6492,8 +6684,11 @@
       <c r="F210" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="211" spans="1:6">
+      <c r="G210" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" hidden="1">
       <c r="A211" s="1">
         <v>1</v>
       </c>
@@ -6509,8 +6704,11 @@
       <c r="F211" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="212" spans="1:6">
+      <c r="G211" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" hidden="1">
       <c r="A212" s="1">
         <v>1</v>
       </c>
@@ -6526,8 +6724,11 @@
       <c r="F212" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="213" spans="1:6">
+      <c r="G212" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" hidden="1">
       <c r="A213" s="1">
         <v>1</v>
       </c>
@@ -6543,8 +6744,11 @@
       <c r="F213" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="214" spans="1:6">
+      <c r="G213" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" hidden="1">
       <c r="A214" s="1">
         <v>1</v>
       </c>
@@ -6560,8 +6764,11 @@
       <c r="F214" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="215" spans="1:6">
+      <c r="G214" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" hidden="1">
       <c r="A215" s="1">
         <v>1</v>
       </c>
@@ -6577,8 +6784,11 @@
       <c r="F215" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="216" spans="1:6">
+      <c r="G215" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" hidden="1">
       <c r="A216" s="1">
         <v>1</v>
       </c>
@@ -6594,8 +6804,11 @@
       <c r="F216" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="217" spans="1:6">
+      <c r="G216" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" hidden="1">
       <c r="A217" s="1">
         <v>1</v>
       </c>
@@ -6611,8 +6824,11 @@
       <c r="F217" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="218" spans="1:6">
+      <c r="G217" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" hidden="1">
       <c r="A218" s="1">
         <v>1</v>
       </c>
@@ -6628,8 +6844,11 @@
       <c r="F218" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="219" spans="1:6">
+      <c r="G218" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" hidden="1">
       <c r="A219" s="1">
         <v>1</v>
       </c>
@@ -6645,8 +6864,11 @@
       <c r="F219" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="220" spans="1:6">
+      <c r="G219" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" hidden="1">
       <c r="A220" s="1">
         <v>1</v>
       </c>
@@ -6662,8 +6884,11 @@
       <c r="F220" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="221" spans="1:6">
+      <c r="G220" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" hidden="1">
       <c r="A221" s="1">
         <v>1</v>
       </c>
@@ -6679,8 +6904,11 @@
       <c r="F221" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="222" spans="1:6">
+      <c r="G221" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" hidden="1">
       <c r="A222" s="1">
         <v>1</v>
       </c>
@@ -6696,8 +6924,11 @@
       <c r="F222" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="223" spans="1:6">
+      <c r="G222" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" hidden="1">
       <c r="A223" s="1">
         <v>1</v>
       </c>
@@ -6713,8 +6944,11 @@
       <c r="F223" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="224" spans="1:6">
+      <c r="G223" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" hidden="1">
       <c r="A224" s="1">
         <v>1</v>
       </c>
@@ -6730,8 +6964,11 @@
       <c r="F224" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="225" spans="1:6">
+      <c r="G224" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" hidden="1">
       <c r="A225" s="1">
         <v>1</v>
       </c>
@@ -6747,8 +6984,11 @@
       <c r="F225" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="226" spans="1:6">
+      <c r="G225" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" hidden="1">
       <c r="A226" s="1">
         <v>1</v>
       </c>
@@ -6764,8 +7004,11 @@
       <c r="F226" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="227" spans="1:6">
+      <c r="G226" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" hidden="1">
       <c r="A227" s="1">
         <v>1</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="F227" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="228" spans="1:6">
+      <c r="G227" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" hidden="1">
       <c r="A228" s="1">
         <v>1</v>
       </c>
@@ -6798,8 +7044,11 @@
       <c r="F228" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="229" spans="1:6">
+      <c r="G228" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" hidden="1">
       <c r="A229" s="1">
         <v>1</v>
       </c>
@@ -6815,8 +7064,11 @@
       <c r="F229" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="230" spans="1:6">
+      <c r="G229" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" hidden="1">
       <c r="A230" s="1">
         <v>1</v>
       </c>
@@ -6832,8 +7084,11 @@
       <c r="F230" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="231" spans="1:6">
+      <c r="G230" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" hidden="1">
       <c r="A231" s="1">
         <v>1</v>
       </c>
@@ -6849,8 +7104,11 @@
       <c r="F231" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="232" spans="1:6">
+      <c r="G231" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" hidden="1">
       <c r="A232" s="1">
         <v>1</v>
       </c>
@@ -6866,8 +7124,11 @@
       <c r="F232" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="233" spans="1:6">
+      <c r="G232" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" hidden="1">
       <c r="A233" s="1">
         <v>1</v>
       </c>
@@ -6883,8 +7144,11 @@
       <c r="F233" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="234" spans="1:6">
+      <c r="G233" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" hidden="1">
       <c r="A234" s="1">
         <v>1</v>
       </c>
@@ -6900,8 +7164,11 @@
       <c r="F234" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="235" spans="1:6">
+      <c r="G234" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" hidden="1">
       <c r="A235" s="1">
         <v>1</v>
       </c>
@@ -6917,8 +7184,11 @@
       <c r="F235" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="236" spans="1:6">
+      <c r="G235" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" hidden="1">
       <c r="A236" s="1">
         <v>1</v>
       </c>
@@ -6934,8 +7204,11 @@
       <c r="F236" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="237" spans="1:6">
+      <c r="G236" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" hidden="1">
       <c r="A237" s="1">
         <v>1</v>
       </c>
@@ -6951,8 +7224,11 @@
       <c r="F237" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="238" spans="1:6">
+      <c r="G237" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" hidden="1">
       <c r="A238" s="1">
         <v>1</v>
       </c>
@@ -6968,8 +7244,11 @@
       <c r="F238" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="239" spans="1:6">
+      <c r="G238" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" hidden="1">
       <c r="A239" s="1">
         <v>1</v>
       </c>
@@ -6985,8 +7264,11 @@
       <c r="F239" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="240" spans="1:6">
+      <c r="G239" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" hidden="1">
       <c r="A240" s="1">
         <v>1</v>
       </c>
@@ -7002,8 +7284,11 @@
       <c r="F240" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="241" spans="1:6">
+      <c r="G240" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" hidden="1">
       <c r="A241" s="1">
         <v>1</v>
       </c>
@@ -7019,8 +7304,11 @@
       <c r="F241" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="242" spans="1:6">
+      <c r="G241" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" hidden="1">
       <c r="A242" s="1">
         <v>1</v>
       </c>
@@ -7036,8 +7324,11 @@
       <c r="F242" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="243" spans="1:6">
+      <c r="G242" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" hidden="1">
       <c r="A243" s="1">
         <v>1</v>
       </c>
@@ -7053,8 +7344,11 @@
       <c r="F243" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="244" spans="1:6">
+      <c r="G243" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" hidden="1">
       <c r="A244" s="1">
         <v>1</v>
       </c>
@@ -7070,8 +7364,11 @@
       <c r="F244" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="245" spans="1:6">
+      <c r="G244" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" hidden="1">
       <c r="A245" s="1">
         <v>1</v>
       </c>
@@ -7087,8 +7384,11 @@
       <c r="F245" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="246" spans="1:6">
+      <c r="G245" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" hidden="1">
       <c r="A246" s="1">
         <v>1</v>
       </c>
@@ -7104,8 +7404,11 @@
       <c r="F246" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="247" spans="1:6">
+      <c r="G246" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" hidden="1">
       <c r="A247" s="1">
         <v>1</v>
       </c>
@@ -7121,8 +7424,11 @@
       <c r="F247" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="248" spans="1:6">
+      <c r="G247" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" hidden="1">
       <c r="A248" s="1">
         <v>1</v>
       </c>
@@ -7138,8 +7444,11 @@
       <c r="F248" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="249" spans="1:6">
+      <c r="G248" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" hidden="1">
       <c r="A249" s="1">
         <v>1</v>
       </c>
@@ -7155,8 +7464,11 @@
       <c r="F249" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="250" spans="1:6">
+      <c r="G249" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" hidden="1">
       <c r="A250" s="1">
         <v>1</v>
       </c>
@@ -7172,8 +7484,11 @@
       <c r="F250" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="251" spans="1:6">
+      <c r="G250" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" hidden="1">
       <c r="A251" s="1">
         <v>1</v>
       </c>
@@ -7189,8 +7504,11 @@
       <c r="F251" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="252" spans="1:6">
+      <c r="G251" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" hidden="1">
       <c r="A252" s="1">
         <v>1</v>
       </c>
@@ -7206,8 +7524,11 @@
       <c r="F252" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="253" spans="1:6">
+      <c r="G252" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" hidden="1">
       <c r="A253" s="1">
         <v>1</v>
       </c>
@@ -7223,8 +7544,11 @@
       <c r="F253" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="254" spans="1:6">
+      <c r="G253" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" hidden="1">
       <c r="A254" s="1">
         <v>1</v>
       </c>
@@ -7240,8 +7564,11 @@
       <c r="F254" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="255" spans="1:6">
+      <c r="G254" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" hidden="1">
       <c r="A255" s="1">
         <v>1</v>
       </c>
@@ -7257,8 +7584,11 @@
       <c r="F255" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="256" spans="1:6">
+      <c r="G255" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" hidden="1">
       <c r="A256" s="1">
         <v>1</v>
       </c>
@@ -7274,8 +7604,11 @@
       <c r="F256" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="257" spans="1:6">
+      <c r="G256" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" hidden="1">
       <c r="A257" s="1">
         <v>1</v>
       </c>
@@ -7291,8 +7624,11 @@
       <c r="F257" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="258" spans="1:6">
+      <c r="G257" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" hidden="1">
       <c r="A258" s="1">
         <v>1</v>
       </c>
@@ -7308,8 +7644,11 @@
       <c r="F258" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="259" spans="1:6">
+      <c r="G258" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" hidden="1">
       <c r="A259" s="1">
         <v>1</v>
       </c>
@@ -7325,8 +7664,11 @@
       <c r="F259" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="260" spans="1:6">
+      <c r="G259" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" hidden="1">
       <c r="A260" s="1">
         <v>1</v>
       </c>
@@ -7342,8 +7684,11 @@
       <c r="F260" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="261" spans="1:6">
+      <c r="G260" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" hidden="1">
       <c r="A261" s="1">
         <v>1</v>
       </c>
@@ -7359,8 +7704,11 @@
       <c r="F261" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="262" spans="1:6">
+      <c r="G261" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" hidden="1">
       <c r="A262" s="1">
         <v>1</v>
       </c>
@@ -7376,8 +7724,11 @@
       <c r="F262" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="263" spans="1:6">
+      <c r="G262" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" hidden="1">
       <c r="A263" s="1">
         <v>1</v>
       </c>
@@ -7393,8 +7744,11 @@
       <c r="F263" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="264" spans="1:6">
+      <c r="G263" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" hidden="1">
       <c r="A264" s="1">
         <v>1</v>
       </c>
@@ -7410,8 +7764,11 @@
       <c r="F264" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="265" spans="1:6">
+      <c r="G264" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" hidden="1">
       <c r="A265" s="1">
         <v>1</v>
       </c>
@@ -7427,8 +7784,11 @@
       <c r="F265" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="266" spans="1:6">
+      <c r="G265" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" hidden="1">
       <c r="A266" s="1">
         <v>1</v>
       </c>
@@ -7444,8 +7804,11 @@
       <c r="F266" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="267" spans="1:6">
+      <c r="G266" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" hidden="1">
       <c r="A267" s="1">
         <v>1</v>
       </c>
@@ -7461,8 +7824,11 @@
       <c r="F267" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="268" spans="1:6">
+      <c r="G267" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" hidden="1">
       <c r="A268" s="1">
         <v>1</v>
       </c>
@@ -7478,8 +7844,11 @@
       <c r="F268" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="269" spans="1:6">
+      <c r="G268" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" hidden="1">
       <c r="A269" s="1">
         <v>1</v>
       </c>
@@ -7495,8 +7864,11 @@
       <c r="F269" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="270" spans="1:6">
+      <c r="G269" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" hidden="1">
       <c r="A270" s="1">
         <v>1</v>
       </c>
@@ -7512,8 +7884,11 @@
       <c r="F270" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="271" spans="1:6">
+      <c r="G270" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" hidden="1">
       <c r="A271" s="1">
         <v>1</v>
       </c>
@@ -7529,8 +7904,11 @@
       <c r="F271" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="272" spans="1:6">
+      <c r="G271" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" hidden="1">
       <c r="A272" s="1">
         <v>1</v>
       </c>
@@ -7546,8 +7924,11 @@
       <c r="F272" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="273" spans="1:6">
+      <c r="G272" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" hidden="1">
       <c r="A273" s="1">
         <v>1</v>
       </c>
@@ -7563,8 +7944,11 @@
       <c r="F273" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="274" spans="1:6">
+      <c r="G273" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" hidden="1">
       <c r="A274" s="1">
         <v>1</v>
       </c>
@@ -7580,8 +7964,11 @@
       <c r="F274" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="275" spans="1:6">
+      <c r="G274" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" hidden="1">
       <c r="A275" s="1">
         <v>1</v>
       </c>
@@ -7597,8 +7984,11 @@
       <c r="F275" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="276" spans="1:6">
+      <c r="G275" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" hidden="1">
       <c r="A276" s="1">
         <v>1</v>
       </c>
@@ -7614,8 +8004,11 @@
       <c r="F276" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="277" spans="1:6">
+      <c r="G276" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" hidden="1">
       <c r="A277" s="1">
         <v>1</v>
       </c>
@@ -7631,8 +8024,11 @@
       <c r="F277" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="278" spans="1:6">
+      <c r="G277" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" hidden="1">
       <c r="A278" s="1">
         <v>1</v>
       </c>
@@ -7648,8 +8044,11 @@
       <c r="F278" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="279" spans="1:6">
+      <c r="G278" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" hidden="1">
       <c r="A279" s="1">
         <v>1</v>
       </c>
@@ -7665,8 +8064,11 @@
       <c r="F279" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="280" spans="1:6">
+      <c r="G279" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" hidden="1">
       <c r="A280" s="1">
         <v>1</v>
       </c>
@@ -7682,8 +8084,11 @@
       <c r="F280" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="281" spans="1:6">
+      <c r="G280" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" hidden="1">
       <c r="A281" s="1">
         <v>1</v>
       </c>
@@ -7699,8 +8104,11 @@
       <c r="F281" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="282" spans="1:6">
+      <c r="G281" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" hidden="1">
       <c r="A282" s="1">
         <v>1</v>
       </c>
@@ -7716,8 +8124,11 @@
       <c r="F282" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="283" spans="1:6">
+      <c r="G282" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" hidden="1">
       <c r="A283" s="1">
         <v>1</v>
       </c>
@@ -7733,8 +8144,11 @@
       <c r="F283" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="284" spans="1:6">
+      <c r="G283" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" hidden="1">
       <c r="A284" s="1">
         <v>1</v>
       </c>
@@ -7750,8 +8164,11 @@
       <c r="F284" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="285" spans="1:6">
+      <c r="G284" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" hidden="1">
       <c r="A285" s="1">
         <v>1</v>
       </c>
@@ -7767,8 +8184,11 @@
       <c r="F285" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="286" spans="1:6">
+      <c r="G285" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" hidden="1">
       <c r="A286" s="1">
         <v>1</v>
       </c>
@@ -7784,8 +8204,11 @@
       <c r="F286" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="287" spans="1:6">
+      <c r="G286" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" hidden="1">
       <c r="A287" s="1">
         <v>1</v>
       </c>
@@ -7801,8 +8224,11 @@
       <c r="F287" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="288" spans="1:6">
+      <c r="G287" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" hidden="1">
       <c r="A288" s="1">
         <v>1</v>
       </c>
@@ -7818,8 +8244,11 @@
       <c r="F288" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="289" spans="1:6">
+      <c r="G288" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" hidden="1">
       <c r="A289" s="1">
         <v>1</v>
       </c>
@@ -7835,8 +8264,11 @@
       <c r="F289" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="290" spans="1:6">
+      <c r="G289" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" hidden="1">
       <c r="A290" s="1">
         <v>1</v>
       </c>
@@ -7852,8 +8284,11 @@
       <c r="F290" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="291" spans="1:6">
+      <c r="G290" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" hidden="1">
       <c r="A291" s="1">
         <v>1</v>
       </c>
@@ -7869,8 +8304,11 @@
       <c r="F291" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="292" spans="1:6">
+      <c r="G291" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" hidden="1">
       <c r="A292" s="1">
         <v>1</v>
       </c>
@@ -7886,8 +8324,11 @@
       <c r="F292" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="293" spans="1:6">
+      <c r="G292" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" hidden="1">
       <c r="A293" s="1">
         <v>1</v>
       </c>
@@ -7903,8 +8344,11 @@
       <c r="F293" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="294" spans="1:6">
+      <c r="G293" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" hidden="1">
       <c r="A294" s="1">
         <v>1</v>
       </c>
@@ -7920,8 +8364,11 @@
       <c r="F294" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="295" spans="1:6">
+      <c r="G294" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" hidden="1">
       <c r="A295" s="1">
         <v>1</v>
       </c>
@@ -7937,8 +8384,11 @@
       <c r="F295" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="296" spans="1:6">
+      <c r="G295" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" hidden="1">
       <c r="A296" s="1">
         <v>1</v>
       </c>
@@ -7954,8 +8404,11 @@
       <c r="F296" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="297" spans="1:6">
+      <c r="G296" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" hidden="1">
       <c r="A297" s="1">
         <v>1</v>
       </c>
@@ -7971,8 +8424,11 @@
       <c r="F297" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="298" spans="1:6">
+      <c r="G297" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" hidden="1">
       <c r="A298" s="1">
         <v>1</v>
       </c>
@@ -7988,8 +8444,11 @@
       <c r="F298" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="299" spans="1:6">
+      <c r="G298" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" hidden="1">
       <c r="A299" s="1">
         <v>1</v>
       </c>
@@ -8005,8 +8464,11 @@
       <c r="F299" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="300" spans="1:6">
+      <c r="G299" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" hidden="1">
       <c r="A300" s="1">
         <v>1</v>
       </c>
@@ -8022,8 +8484,11 @@
       <c r="F300" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="301" spans="1:6">
+      <c r="G300" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" hidden="1">
       <c r="A301" s="1">
         <v>1</v>
       </c>
@@ -8039,8 +8504,11 @@
       <c r="F301" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="302" spans="1:6">
+      <c r="G301" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" hidden="1">
       <c r="A302" s="1">
         <v>1</v>
       </c>
@@ -8056,8 +8524,11 @@
       <c r="F302" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="303" spans="1:6">
+      <c r="G302" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" hidden="1">
       <c r="A303" s="1">
         <v>1</v>
       </c>
@@ -8073,8 +8544,11 @@
       <c r="F303" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="304" spans="1:6">
+      <c r="G303" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" hidden="1">
       <c r="A304" s="1">
         <v>1</v>
       </c>
@@ -8090,8 +8564,11 @@
       <c r="F304" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="305" spans="1:6">
+      <c r="G304" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" hidden="1">
       <c r="A305" s="1">
         <v>1</v>
       </c>
@@ -8107,8 +8584,11 @@
       <c r="F305" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="306" spans="1:6">
+      <c r="G305" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" hidden="1">
       <c r="A306" s="1">
         <v>1</v>
       </c>
@@ -8124,8 +8604,11 @@
       <c r="F306" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="307" spans="1:6">
+      <c r="G306" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" hidden="1">
       <c r="A307" s="1">
         <v>1</v>
       </c>
@@ -8141,8 +8624,11 @@
       <c r="F307" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="308" spans="1:6">
+      <c r="G307" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" hidden="1">
       <c r="A308" s="1">
         <v>1</v>
       </c>
@@ -8158,8 +8644,11 @@
       <c r="F308" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="309" spans="1:6">
+      <c r="G308" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" hidden="1">
       <c r="A309" s="1">
         <v>1</v>
       </c>
@@ -8175,8 +8664,11 @@
       <c r="F309" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="310" spans="1:6">
+      <c r="G309" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" hidden="1">
       <c r="A310" s="1">
         <v>1</v>
       </c>
@@ -8192,8 +8684,11 @@
       <c r="F310" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="311" spans="1:6">
+      <c r="G310" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" hidden="1">
       <c r="A311" s="1">
         <v>1</v>
       </c>
@@ -8209,8 +8704,11 @@
       <c r="F311" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="312" spans="1:6">
+      <c r="G311" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" hidden="1">
       <c r="A312" s="1">
         <v>1</v>
       </c>
@@ -8226,8 +8724,11 @@
       <c r="F312" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="313" spans="1:6">
+      <c r="G312" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" hidden="1">
       <c r="A313" s="1">
         <v>1</v>
       </c>
@@ -8243,8 +8744,11 @@
       <c r="F313" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="314" spans="1:6">
+      <c r="G313" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" hidden="1">
       <c r="A314" s="1">
         <v>1</v>
       </c>
@@ -8260,8 +8764,11 @@
       <c r="F314" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="315" spans="1:6">
+      <c r="G314" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" hidden="1">
       <c r="A315" s="1">
         <v>1</v>
       </c>
@@ -8277,8 +8784,11 @@
       <c r="F315" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="316" spans="1:6">
+      <c r="G315" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" hidden="1">
       <c r="A316" s="1">
         <v>1</v>
       </c>
@@ -8294,8 +8804,11 @@
       <c r="F316" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="317" spans="1:6">
+      <c r="G316" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" hidden="1">
       <c r="A317" s="1">
         <v>1</v>
       </c>
@@ -8311,8 +8824,11 @@
       <c r="F317" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="318" spans="1:6">
+      <c r="G317" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" hidden="1">
       <c r="A318" s="1">
         <v>1</v>
       </c>
@@ -8328,8 +8844,11 @@
       <c r="F318" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="319" spans="1:6">
+      <c r="G318" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" hidden="1">
       <c r="A319" s="1">
         <v>1</v>
       </c>
@@ -8345,8 +8864,11 @@
       <c r="F319" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="320" spans="1:6">
+      <c r="G319" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" hidden="1">
       <c r="A320" s="1">
         <v>1</v>
       </c>
@@ -8362,8 +8884,11 @@
       <c r="F320" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="321" spans="1:6">
+      <c r="G320" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" hidden="1">
       <c r="A321" s="1">
         <v>1</v>
       </c>
@@ -8379,8 +8904,11 @@
       <c r="F321" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="322" spans="1:6">
+      <c r="G321" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" hidden="1">
       <c r="A322" s="1">
         <v>1</v>
       </c>
@@ -8396,8 +8924,11 @@
       <c r="F322" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="323" spans="1:6">
+      <c r="G322" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" hidden="1">
       <c r="A323" s="1">
         <v>1</v>
       </c>
@@ -8413,8 +8944,11 @@
       <c r="F323" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="324" spans="1:6">
+      <c r="G323" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" hidden="1">
       <c r="A324" s="1">
         <v>1</v>
       </c>
@@ -8430,8 +8964,11 @@
       <c r="F324" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="325" spans="1:6">
+      <c r="G324" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" hidden="1">
       <c r="A325" s="1">
         <v>1</v>
       </c>
@@ -8447,8 +8984,11 @@
       <c r="F325" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="326" spans="1:6">
+      <c r="G325" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" hidden="1">
       <c r="A326" s="1">
         <v>1</v>
       </c>
@@ -8464,8 +9004,11 @@
       <c r="F326" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="327" spans="1:6">
+      <c r="G326" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" hidden="1">
       <c r="A327" s="1">
         <v>1</v>
       </c>
@@ -8481,8 +9024,11 @@
       <c r="F327" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="328" spans="1:6">
+      <c r="G327" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" hidden="1">
       <c r="A328" s="1">
         <v>1</v>
       </c>
@@ -8498,8 +9044,11 @@
       <c r="F328" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="329" spans="1:6">
+      <c r="G328" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" hidden="1">
       <c r="A329" s="1">
         <v>1</v>
       </c>
@@ -8515,8 +9064,11 @@
       <c r="F329" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="330" spans="1:6">
+      <c r="G329" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" hidden="1">
       <c r="A330" s="1">
         <v>1</v>
       </c>
@@ -8532,8 +9084,11 @@
       <c r="F330" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="331" spans="1:6">
+      <c r="G330" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" hidden="1">
       <c r="A331" s="1">
         <v>1</v>
       </c>
@@ -8549,8 +9104,11 @@
       <c r="F331" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="332" spans="1:6">
+      <c r="G331" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" hidden="1">
       <c r="A332" s="1">
         <v>1</v>
       </c>
@@ -8566,8 +9124,11 @@
       <c r="F332" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="333" spans="1:6">
+      <c r="G332" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" hidden="1">
       <c r="A333" s="1">
         <v>1</v>
       </c>
@@ -8583,14 +9144,20 @@
       <c r="F333" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="334" spans="1:6">
+      <c r="G333" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
       <c r="A334" s="1">
         <v>1</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>573</v>
       </c>
+      <c r="C334" s="1" t="s">
+        <v>649</v>
+      </c>
       <c r="D334" s="1" t="s">
         <v>586</v>
       </c>
@@ -8600,14 +9167,20 @@
       <c r="F334" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="335" spans="1:6">
+      <c r="G334" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
       <c r="A335" s="1">
         <v>1</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>573</v>
       </c>
+      <c r="C335" s="1" t="s">
+        <v>650</v>
+      </c>
       <c r="D335" s="1" t="s">
         <v>586</v>
       </c>
@@ -8617,14 +9190,20 @@
       <c r="F335" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="336" spans="1:6">
+      <c r="G335" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
       <c r="A336" s="1">
         <v>1</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>573</v>
       </c>
+      <c r="C336" s="1" t="s">
+        <v>651</v>
+      </c>
       <c r="D336" s="1" t="s">
         <v>586</v>
       </c>
@@ -8634,14 +9213,20 @@
       <c r="F336" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="337" spans="1:6">
+      <c r="G336" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
       <c r="A337" s="1">
         <v>1</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>573</v>
       </c>
+      <c r="C337" s="1" t="s">
+        <v>652</v>
+      </c>
       <c r="D337" s="1" t="s">
         <v>586</v>
       </c>
@@ -8651,14 +9236,20 @@
       <c r="F337" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="338" spans="1:6">
+      <c r="G337" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
       <c r="A338" s="1">
         <v>1</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>573</v>
       </c>
+      <c r="C338" s="1" t="s">
+        <v>653</v>
+      </c>
       <c r="D338" s="1" t="s">
         <v>586</v>
       </c>
@@ -8668,14 +9259,20 @@
       <c r="F338" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="339" spans="1:6">
+      <c r="G338" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
       <c r="A339" s="1">
         <v>1</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>573</v>
       </c>
+      <c r="C339" s="1" t="s">
+        <v>654</v>
+      </c>
       <c r="D339" s="1" t="s">
         <v>586</v>
       </c>
@@ -8685,14 +9282,20 @@
       <c r="F339" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="340" spans="1:6">
+      <c r="G339" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
       <c r="A340" s="1">
         <v>1</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>573</v>
       </c>
+      <c r="C340" s="1" t="s">
+        <v>655</v>
+      </c>
       <c r="D340" s="1" t="s">
         <v>586</v>
       </c>
@@ -8702,14 +9305,20 @@
       <c r="F340" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="341" spans="1:6">
+      <c r="G340" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
       <c r="A341" s="1">
         <v>1</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>573</v>
       </c>
+      <c r="C341" s="1" t="s">
+        <v>656</v>
+      </c>
       <c r="D341" s="1" t="s">
         <v>586</v>
       </c>
@@ -8719,14 +9328,20 @@
       <c r="F341" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="342" spans="1:6">
+      <c r="G341" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
       <c r="A342" s="1">
         <v>1</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>573</v>
       </c>
+      <c r="C342" s="1" t="s">
+        <v>657</v>
+      </c>
       <c r="D342" s="1" t="s">
         <v>586</v>
       </c>
@@ -8736,14 +9351,20 @@
       <c r="F342" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="343" spans="1:6">
+      <c r="G342" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
       <c r="A343" s="1">
         <v>1</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>573</v>
       </c>
+      <c r="C343" s="1" t="s">
+        <v>658</v>
+      </c>
       <c r="D343" s="1" t="s">
         <v>586</v>
       </c>
@@ -8753,14 +9374,20 @@
       <c r="F343" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="344" spans="1:6">
+      <c r="G343" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
       <c r="A344" s="1">
         <v>1</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>573</v>
       </c>
+      <c r="C344" s="1" t="s">
+        <v>659</v>
+      </c>
       <c r="D344" s="1" t="s">
         <v>586</v>
       </c>
@@ -8770,14 +9397,20 @@
       <c r="F344" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="345" spans="1:6">
+      <c r="G344" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
       <c r="A345" s="1">
         <v>1</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>573</v>
       </c>
+      <c r="C345" s="1" t="s">
+        <v>660</v>
+      </c>
       <c r="D345" s="1" t="s">
         <v>586</v>
       </c>
@@ -8787,14 +9420,20 @@
       <c r="F345" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="346" spans="1:6">
+      <c r="G345" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
       <c r="A346" s="1">
         <v>1</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>573</v>
       </c>
+      <c r="C346" s="1" t="s">
+        <v>661</v>
+      </c>
       <c r="D346" s="1" t="s">
         <v>586</v>
       </c>
@@ -8804,14 +9443,20 @@
       <c r="F346" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="347" spans="1:6">
+      <c r="G346" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
       <c r="A347" s="1">
         <v>1</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>573</v>
       </c>
+      <c r="C347" s="1" t="s">
+        <v>662</v>
+      </c>
       <c r="D347" s="1" t="s">
         <v>586</v>
       </c>
@@ -8821,14 +9466,20 @@
       <c r="F347" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="348" spans="1:6">
+      <c r="G347" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
       <c r="A348" s="1">
         <v>1</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>573</v>
       </c>
+      <c r="C348" s="1" t="s">
+        <v>663</v>
+      </c>
       <c r="D348" s="1" t="s">
         <v>586</v>
       </c>
@@ -8838,14 +9489,20 @@
       <c r="F348" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="349" spans="1:6">
+      <c r="G348" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
       <c r="A349" s="1">
         <v>1</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>573</v>
       </c>
+      <c r="C349" s="1" t="s">
+        <v>664</v>
+      </c>
       <c r="D349" s="1" t="s">
         <v>586</v>
       </c>
@@ -8855,14 +9512,20 @@
       <c r="F349" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="350" spans="1:6">
+      <c r="G349" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
       <c r="A350" s="1">
         <v>1</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>573</v>
       </c>
+      <c r="C350" s="1" t="s">
+        <v>665</v>
+      </c>
       <c r="D350" s="1" t="s">
         <v>586</v>
       </c>
@@ -8872,8 +9535,11 @@
       <c r="F350" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="351" spans="1:6">
+      <c r="G350" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" hidden="1">
       <c r="A351" s="1">
         <v>0</v>
       </c>
@@ -8886,8 +9552,11 @@
       <c r="F351" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="352" spans="1:6">
+      <c r="G351" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" hidden="1">
       <c r="A352" s="1">
         <v>1</v>
       </c>
@@ -8903,8 +9572,11 @@
       <c r="F352" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="353" spans="1:6">
+      <c r="G352" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" hidden="1">
       <c r="A353" s="1">
         <v>1</v>
       </c>
@@ -8920,8 +9592,11 @@
       <c r="F353" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="354" spans="1:6">
+      <c r="G353" s="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" hidden="1">
       <c r="A354" s="1">
         <v>1</v>
       </c>
@@ -8937,8 +9612,11 @@
       <c r="F354" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="355" spans="1:6">
+      <c r="G354" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" hidden="1">
       <c r="A355" s="1">
         <v>1</v>
       </c>
@@ -8954,8 +9632,11 @@
       <c r="F355" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="356" spans="1:6">
+      <c r="G355" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" hidden="1">
       <c r="A356" s="1">
         <v>1</v>
       </c>
@@ -8971,8 +9652,11 @@
       <c r="F356" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="357" spans="1:6">
+      <c r="G356" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" hidden="1">
       <c r="A357" s="1">
         <v>1</v>
       </c>
@@ -8988,8 +9672,11 @@
       <c r="F357" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="358" spans="1:6">
+      <c r="G357" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" hidden="1">
       <c r="A358" s="1">
         <v>1</v>
       </c>
@@ -9005,8 +9692,11 @@
       <c r="F358" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="359" spans="1:6">
+      <c r="G358" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" hidden="1">
       <c r="A359" s="1">
         <v>1</v>
       </c>
@@ -9022,8 +9712,11 @@
       <c r="F359" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="360" spans="1:6">
+      <c r="G359" s="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" hidden="1">
       <c r="A360" s="1">
         <v>1</v>
       </c>
@@ -9039,8 +9732,11 @@
       <c r="F360" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="361" spans="1:6">
+      <c r="G360" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" hidden="1">
       <c r="A361" s="1">
         <v>1</v>
       </c>
@@ -9056,8 +9752,11 @@
       <c r="F361" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="362" spans="1:6">
+      <c r="G361" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" hidden="1">
       <c r="A362" s="1">
         <v>1</v>
       </c>
@@ -9073,8 +9772,11 @@
       <c r="F362" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="363" spans="1:6">
+      <c r="G362" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" hidden="1">
       <c r="A363" s="1">
         <v>1</v>
       </c>
@@ -9090,8 +9792,11 @@
       <c r="F363" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="364" spans="1:6">
+      <c r="G363" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" hidden="1">
       <c r="A364" s="1">
         <v>1</v>
       </c>
@@ -9107,8 +9812,11 @@
       <c r="F364" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="365" spans="1:6">
+      <c r="G364" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" hidden="1">
       <c r="A365" s="1">
         <v>1</v>
       </c>
@@ -9124,8 +9832,11 @@
       <c r="F365" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="366" spans="1:6">
+      <c r="G365" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" hidden="1">
       <c r="A366" s="1">
         <v>1</v>
       </c>
@@ -9141,8 +9852,11 @@
       <c r="F366" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="367" spans="1:6">
+      <c r="G366" s="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" hidden="1">
       <c r="A367" s="1">
         <v>1</v>
       </c>
@@ -9158,8 +9872,11 @@
       <c r="F367" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="368" spans="1:6">
+      <c r="G367" s="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" hidden="1">
       <c r="A368" s="1">
         <v>1</v>
       </c>
@@ -9175,8 +9892,11 @@
       <c r="F368" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="369" spans="1:6">
+      <c r="G368" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" hidden="1">
       <c r="A369" s="1">
         <v>1</v>
       </c>
@@ -9192,8 +9912,11 @@
       <c r="F369" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="370" spans="1:6">
+      <c r="G369" s="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" hidden="1">
       <c r="A370" s="1">
         <v>1</v>
       </c>
@@ -9209,8 +9932,11 @@
       <c r="F370" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="371" spans="1:6">
+      <c r="G370" s="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" hidden="1">
       <c r="A371" s="1">
         <v>1</v>
       </c>
@@ -9226,8 +9952,11 @@
       <c r="F371" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="372" spans="1:6">
+      <c r="G371" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" hidden="1">
       <c r="A372" s="1">
         <v>1</v>
       </c>
@@ -9243,8 +9972,11 @@
       <c r="F372" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="373" spans="1:6">
+      <c r="G372" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" hidden="1">
       <c r="A373" s="1">
         <v>1</v>
       </c>
@@ -9260,8 +9992,11 @@
       <c r="F373" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="374" spans="1:6">
+      <c r="G373" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" hidden="1">
       <c r="A374" s="1">
         <v>1</v>
       </c>
@@ -9277,8 +10012,11 @@
       <c r="F374" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="375" spans="1:6">
+      <c r="G374" s="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" hidden="1">
       <c r="A375" s="1">
         <v>1</v>
       </c>
@@ -9294,8 +10032,11 @@
       <c r="F375" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="376" spans="1:6">
+      <c r="G375" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" hidden="1">
       <c r="A376" s="1">
         <v>1</v>
       </c>
@@ -9311,8 +10052,11 @@
       <c r="F376" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="377" spans="1:6">
+      <c r="G376" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" hidden="1">
       <c r="A377" s="1">
         <v>1</v>
       </c>
@@ -9328,8 +10072,11 @@
       <c r="F377" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="378" spans="1:6">
+      <c r="G377" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" hidden="1">
       <c r="A378" s="1">
         <v>1</v>
       </c>
@@ -9345,8 +10092,11 @@
       <c r="F378" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="379" spans="1:6">
+      <c r="G378" s="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" hidden="1">
       <c r="A379" s="1">
         <v>1</v>
       </c>
@@ -9362,8 +10112,11 @@
       <c r="F379" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="380" spans="1:6">
+      <c r="G379" s="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" hidden="1">
       <c r="A380" s="1">
         <v>1</v>
       </c>
@@ -9379,8 +10132,11 @@
       <c r="F380" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="381" spans="1:6">
+      <c r="G380" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" hidden="1">
       <c r="A381" s="1">
         <v>1</v>
       </c>
@@ -9396,8 +10152,11 @@
       <c r="F381" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="382" spans="1:6">
+      <c r="G381" s="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" hidden="1">
       <c r="A382" s="1">
         <v>1</v>
       </c>
@@ -9413,8 +10172,11 @@
       <c r="F382" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="383" spans="1:6">
+      <c r="G382" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" hidden="1">
       <c r="A383" s="1">
         <v>1</v>
       </c>
@@ -9430,8 +10192,11 @@
       <c r="F383" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="384" spans="1:6">
+      <c r="G383" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" hidden="1">
       <c r="A384" s="1">
         <v>1</v>
       </c>
@@ -9447,8 +10212,11 @@
       <c r="F384" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="385" spans="1:6">
+      <c r="G384" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" hidden="1">
       <c r="A385" s="1">
         <v>1</v>
       </c>
@@ -9464,8 +10232,11 @@
       <c r="F385" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="386" spans="1:6">
+      <c r="G385" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" hidden="1">
       <c r="A386" s="1">
         <v>1</v>
       </c>
@@ -9481,8 +10252,11 @@
       <c r="F386" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="387" spans="1:6">
+      <c r="G386" s="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" hidden="1">
       <c r="A387" s="1">
         <v>1</v>
       </c>
@@ -9498,8 +10272,11 @@
       <c r="F387" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="388" spans="1:6">
+      <c r="G387" s="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" hidden="1">
       <c r="A388" s="1">
         <v>1</v>
       </c>
@@ -9515,8 +10292,11 @@
       <c r="F388" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="389" spans="1:6">
+      <c r="G388" s="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" hidden="1">
       <c r="A389" s="1">
         <v>1</v>
       </c>
@@ -9532,14 +10312,20 @@
       <c r="F389" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="390" spans="1:6">
+      <c r="G389" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7">
       <c r="A390" s="1">
         <v>1</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>573</v>
       </c>
+      <c r="C390" s="1" t="s">
+        <v>666</v>
+      </c>
       <c r="D390" s="1" t="s">
         <v>586</v>
       </c>
@@ -9549,14 +10335,20 @@
       <c r="F390" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="391" spans="1:6">
+      <c r="G390" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7">
       <c r="A391" s="1">
         <v>1</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>573</v>
       </c>
+      <c r="C391" s="1" t="s">
+        <v>667</v>
+      </c>
       <c r="D391" s="1" t="s">
         <v>586</v>
       </c>
@@ -9566,14 +10358,20 @@
       <c r="F391" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="392" spans="1:6">
+      <c r="G391" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
       <c r="A392" s="1">
         <v>1</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>573</v>
       </c>
+      <c r="C392" s="1" t="s">
+        <v>668</v>
+      </c>
       <c r="D392" s="1" t="s">
         <v>586</v>
       </c>
@@ -9583,8 +10381,11 @@
       <c r="F392" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="393" spans="1:6">
+      <c r="G392" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" hidden="1">
       <c r="A393" s="1">
         <v>1</v>
       </c>
@@ -9600,8 +10401,11 @@
       <c r="F393" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="394" spans="1:6">
+      <c r="G393" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" hidden="1">
       <c r="A394" s="1">
         <v>1</v>
       </c>
@@ -9617,8 +10421,11 @@
       <c r="F394" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="395" spans="1:6">
+      <c r="G394" s="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" hidden="1">
       <c r="A395" s="1">
         <v>1</v>
       </c>
@@ -9634,8 +10441,11 @@
       <c r="F395" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="396" spans="1:6">
+      <c r="G395" s="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" hidden="1">
       <c r="A396" s="1">
         <v>1</v>
       </c>
@@ -9651,8 +10461,11 @@
       <c r="F396" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="397" spans="1:6">
+      <c r="G396" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" hidden="1">
       <c r="A397" s="1">
         <v>1</v>
       </c>
@@ -9668,8 +10481,11 @@
       <c r="F397" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="398" spans="1:6">
+      <c r="G397" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" hidden="1">
       <c r="A398" s="1">
         <v>1</v>
       </c>
@@ -9685,8 +10501,11 @@
       <c r="F398" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="399" spans="1:6">
+      <c r="G398" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" hidden="1">
       <c r="A399" s="1">
         <v>1</v>
       </c>
@@ -9702,8 +10521,11 @@
       <c r="F399" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="400" spans="1:6">
+      <c r="G399" s="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" hidden="1">
       <c r="A400" s="1">
         <v>1</v>
       </c>
@@ -9719,8 +10541,11 @@
       <c r="F400" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="401" spans="1:6">
+      <c r="G400" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" hidden="1">
       <c r="A401" s="1">
         <v>1</v>
       </c>
@@ -9736,8 +10561,11 @@
       <c r="F401" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="402" spans="1:6">
+      <c r="G401" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" hidden="1">
       <c r="A402" s="1">
         <v>1</v>
       </c>
@@ -9753,8 +10581,11 @@
       <c r="F402" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="403" spans="1:6">
+      <c r="G402" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" hidden="1">
       <c r="A403" s="1">
         <v>1</v>
       </c>
@@ -9770,8 +10601,11 @@
       <c r="F403" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="404" spans="1:6">
+      <c r="G403" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" hidden="1">
       <c r="A404" s="1">
         <v>1</v>
       </c>
@@ -9787,8 +10621,11 @@
       <c r="F404" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="405" spans="1:6">
+      <c r="G404" s="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" hidden="1">
       <c r="A405" s="1">
         <v>1</v>
       </c>
@@ -9804,8 +10641,11 @@
       <c r="F405" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="406" spans="1:6">
+      <c r="G405" s="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" hidden="1">
       <c r="A406" s="1">
         <v>1</v>
       </c>
@@ -9821,8 +10661,11 @@
       <c r="F406" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="407" spans="1:6">
+      <c r="G406" s="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" hidden="1">
       <c r="A407" s="1">
         <v>1</v>
       </c>
@@ -9838,8 +10681,11 @@
       <c r="F407" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="408" spans="1:6">
+      <c r="G407" s="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" hidden="1">
       <c r="A408" s="1">
         <v>1</v>
       </c>
@@ -9855,8 +10701,11 @@
       <c r="F408" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="409" spans="1:6">
+      <c r="G408" s="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" hidden="1">
       <c r="A409" s="1">
         <v>1</v>
       </c>
@@ -9872,8 +10721,11 @@
       <c r="F409" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="410" spans="1:6">
+      <c r="G409" s="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" hidden="1">
       <c r="A410" s="1">
         <v>1</v>
       </c>
@@ -9889,8 +10741,11 @@
       <c r="F410" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="411" spans="1:6">
+      <c r="G410" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" hidden="1">
       <c r="A411" s="1">
         <v>1</v>
       </c>
@@ -9906,8 +10761,11 @@
       <c r="F411" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="412" spans="1:6">
+      <c r="G411" s="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" hidden="1">
       <c r="A412" s="1">
         <v>1</v>
       </c>
@@ -9923,8 +10781,11 @@
       <c r="F412" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="413" spans="1:6">
+      <c r="G412" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" hidden="1">
       <c r="A413" s="1">
         <v>1</v>
       </c>
@@ -9940,8 +10801,11 @@
       <c r="F413" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="414" spans="1:6">
+      <c r="G413" s="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" hidden="1">
       <c r="A414" s="1">
         <v>1</v>
       </c>
@@ -9957,8 +10821,11 @@
       <c r="F414" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="415" spans="1:6">
+      <c r="G414" s="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" hidden="1">
       <c r="A415" s="1">
         <v>1</v>
       </c>
@@ -9974,8 +10841,11 @@
       <c r="F415" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="416" spans="1:6">
+      <c r="G415" s="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" hidden="1">
       <c r="A416" s="1">
         <v>1</v>
       </c>
@@ -9991,8 +10861,11 @@
       <c r="F416" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="417" spans="1:6">
+      <c r="G416" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" hidden="1">
       <c r="A417" s="1">
         <v>1</v>
       </c>
@@ -10008,8 +10881,11 @@
       <c r="F417" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="418" spans="1:6">
+      <c r="G417" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" hidden="1">
       <c r="A418" s="1">
         <v>1</v>
       </c>
@@ -10025,8 +10901,11 @@
       <c r="F418" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="419" spans="1:6">
+      <c r="G418" s="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" hidden="1">
       <c r="A419" s="1">
         <v>1</v>
       </c>
@@ -10042,8 +10921,11 @@
       <c r="F419" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="420" spans="1:6">
+      <c r="G419" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" hidden="1">
       <c r="A420" s="1">
         <v>1</v>
       </c>
@@ -10059,8 +10941,11 @@
       <c r="F420" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="421" spans="1:6">
+      <c r="G420" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" hidden="1">
       <c r="A421" s="1">
         <v>1</v>
       </c>
@@ -10076,8 +10961,11 @@
       <c r="F421" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="422" spans="1:6">
+      <c r="G421" s="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" hidden="1">
       <c r="A422" s="1">
         <v>1</v>
       </c>
@@ -10093,8 +10981,11 @@
       <c r="F422" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="423" spans="1:6">
+      <c r="G422" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" hidden="1">
       <c r="A423" s="1">
         <v>1</v>
       </c>
@@ -10110,8 +11001,11 @@
       <c r="F423" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="424" spans="1:6">
+      <c r="G423" s="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" hidden="1">
       <c r="A424" s="1">
         <v>1</v>
       </c>
@@ -10127,8 +11021,11 @@
       <c r="F424" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="425" spans="1:6">
+      <c r="G424" s="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" hidden="1">
       <c r="A425" s="1">
         <v>1</v>
       </c>
@@ -10144,8 +11041,11 @@
       <c r="F425" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="426" spans="1:6">
+      <c r="G425" s="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" hidden="1">
       <c r="A426" s="1">
         <v>1</v>
       </c>
@@ -10161,8 +11061,11 @@
       <c r="F426" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="427" spans="1:6">
+      <c r="G426" s="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" hidden="1">
       <c r="A427" s="1">
         <v>1</v>
       </c>
@@ -10178,8 +11081,11 @@
       <c r="F427" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="428" spans="1:6">
+      <c r="G427" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" hidden="1">
       <c r="A428" s="1">
         <v>1</v>
       </c>
@@ -10195,8 +11101,11 @@
       <c r="F428" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="429" spans="1:6">
+      <c r="G428" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" hidden="1">
       <c r="A429" s="1">
         <v>1</v>
       </c>
@@ -10212,8 +11121,11 @@
       <c r="F429" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="430" spans="1:6">
+      <c r="G429" s="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" hidden="1">
       <c r="A430" s="1">
         <v>1</v>
       </c>
@@ -10229,8 +11141,11 @@
       <c r="F430" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="431" spans="1:6">
+      <c r="G430" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" hidden="1">
       <c r="A431" s="1">
         <v>1</v>
       </c>
@@ -10246,8 +11161,11 @@
       <c r="F431" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="432" spans="1:6">
+      <c r="G431" s="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" hidden="1">
       <c r="A432" s="1">
         <v>1</v>
       </c>
@@ -10263,8 +11181,11 @@
       <c r="F432" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="433" spans="1:6">
+      <c r="G432" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" hidden="1">
       <c r="A433" s="1">
         <v>1</v>
       </c>
@@ -10280,8 +11201,11 @@
       <c r="F433" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="434" spans="1:6">
+      <c r="G433" s="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" hidden="1">
       <c r="A434" s="1">
         <v>1</v>
       </c>
@@ -10297,8 +11221,11 @@
       <c r="F434" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="435" spans="1:6">
+      <c r="G434" s="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" hidden="1">
       <c r="A435" s="1">
         <v>1</v>
       </c>
@@ -10314,8 +11241,11 @@
       <c r="F435" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="436" spans="1:6">
+      <c r="G435" s="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" hidden="1">
       <c r="A436" s="1">
         <v>1</v>
       </c>
@@ -10331,8 +11261,11 @@
       <c r="F436" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="437" spans="1:6">
+      <c r="G436" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" hidden="1">
       <c r="A437" s="1">
         <v>1</v>
       </c>
@@ -10348,8 +11281,11 @@
       <c r="F437" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="438" spans="1:6">
+      <c r="G437" s="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" hidden="1">
       <c r="A438" s="1">
         <v>1</v>
       </c>
@@ -10365,8 +11301,11 @@
       <c r="F438" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="439" spans="1:6">
+      <c r="G438" s="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" hidden="1">
       <c r="A439" s="1">
         <v>1</v>
       </c>
@@ -10382,8 +11321,11 @@
       <c r="F439" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="440" spans="1:6">
+      <c r="G439" s="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" hidden="1">
       <c r="A440" s="1">
         <v>1</v>
       </c>
@@ -10399,8 +11341,11 @@
       <c r="F440" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="441" spans="1:6">
+      <c r="G440" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" hidden="1">
       <c r="A441" s="1">
         <v>1</v>
       </c>
@@ -10416,8 +11361,11 @@
       <c r="F441" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="442" spans="1:6">
+      <c r="G441" s="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" hidden="1">
       <c r="A442" s="1">
         <v>1</v>
       </c>
@@ -10433,8 +11381,11 @@
       <c r="F442" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="443" spans="1:6">
+      <c r="G442" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" hidden="1">
       <c r="A443" s="1">
         <v>1</v>
       </c>
@@ -10450,8 +11401,11 @@
       <c r="F443" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="444" spans="1:6">
+      <c r="G443" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" hidden="1">
       <c r="A444" s="1">
         <v>1</v>
       </c>
@@ -10467,8 +11421,11 @@
       <c r="F444" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="445" spans="1:6">
+      <c r="G444" s="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" hidden="1">
       <c r="A445" s="1">
         <v>1</v>
       </c>
@@ -10484,8 +11441,11 @@
       <c r="F445" s="1" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="446" spans="1:6">
+      <c r="G445" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" hidden="1">
       <c r="A446" s="1">
         <v>1</v>
       </c>
@@ -10501,8 +11461,11 @@
       <c r="F446" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="447" spans="1:6">
+      <c r="G446" s="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" hidden="1">
       <c r="A447" s="1">
         <v>1</v>
       </c>
@@ -10518,8 +11481,11 @@
       <c r="F447" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="448" spans="1:6">
+      <c r="G447" s="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" hidden="1">
       <c r="A448" s="1">
         <v>1</v>
       </c>
@@ -10535,8 +11501,11 @@
       <c r="F448" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="449" spans="1:6">
+      <c r="G448" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" hidden="1">
       <c r="A449" s="1">
         <v>1</v>
       </c>
@@ -10552,8 +11521,11 @@
       <c r="F449" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="450" spans="1:6">
+      <c r="G449" s="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" hidden="1">
       <c r="A450" s="1">
         <v>1</v>
       </c>
@@ -10569,8 +11541,11 @@
       <c r="F450" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="451" spans="1:6">
+      <c r="G450" s="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" hidden="1">
       <c r="A451" s="1">
         <v>1</v>
       </c>
@@ -10586,8 +11561,11 @@
       <c r="F451" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="452" spans="1:6">
+      <c r="G451" s="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" hidden="1">
       <c r="A452" s="1">
         <v>1</v>
       </c>
@@ -10603,8 +11581,11 @@
       <c r="F452" s="1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="453" spans="1:6">
+      <c r="G452" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" hidden="1">
       <c r="A453" s="1">
         <v>1</v>
       </c>
@@ -10620,8 +11601,11 @@
       <c r="F453" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="454" spans="1:6">
+      <c r="G453" s="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" hidden="1">
       <c r="A454" s="1">
         <v>1</v>
       </c>
@@ -10637,8 +11621,11 @@
       <c r="F454" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="455" spans="1:6">
+      <c r="G454" s="1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" hidden="1">
       <c r="A455" s="1">
         <v>1</v>
       </c>
@@ -10654,8 +11641,11 @@
       <c r="F455" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="456" spans="1:6">
+      <c r="G455" s="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" hidden="1">
       <c r="A456" s="1">
         <v>1</v>
       </c>
@@ -10671,8 +11661,11 @@
       <c r="F456" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="457" spans="1:6">
+      <c r="G456" s="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" hidden="1">
       <c r="A457" s="1">
         <v>1</v>
       </c>
@@ -10688,8 +11681,11 @@
       <c r="F457" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="458" spans="1:6">
+      <c r="G457" s="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" hidden="1">
       <c r="A458" s="1">
         <v>1</v>
       </c>
@@ -10705,8 +11701,11 @@
       <c r="F458" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="459" spans="1:6">
+      <c r="G458" s="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" hidden="1">
       <c r="A459" s="1">
         <v>1</v>
       </c>
@@ -10722,8 +11721,11 @@
       <c r="F459" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="460" spans="1:6">
+      <c r="G459" s="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" hidden="1">
       <c r="A460" s="1">
         <v>1</v>
       </c>
@@ -10739,8 +11741,11 @@
       <c r="F460" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="461" spans="1:6">
+      <c r="G460" s="1">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" hidden="1">
       <c r="A461" s="1">
         <v>1</v>
       </c>
@@ -10756,8 +11761,11 @@
       <c r="F461" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="462" spans="1:6">
+      <c r="G461" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" hidden="1">
       <c r="A462" s="1">
         <v>1</v>
       </c>
@@ -10773,8 +11781,11 @@
       <c r="F462" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="463" spans="1:6">
+      <c r="G462" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" hidden="1">
       <c r="A463" s="1">
         <v>1</v>
       </c>
@@ -10790,8 +11801,11 @@
       <c r="F463" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="464" spans="1:6">
+      <c r="G463" s="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" hidden="1">
       <c r="A464" s="1">
         <v>1</v>
       </c>
@@ -10807,8 +11821,11 @@
       <c r="F464" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="465" spans="1:6">
+      <c r="G464" s="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" hidden="1">
       <c r="A465" s="1">
         <v>1</v>
       </c>
@@ -10824,8 +11841,11 @@
       <c r="F465" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="466" spans="1:6">
+      <c r="G465" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" hidden="1">
       <c r="A466" s="1">
         <v>1</v>
       </c>
@@ -10841,8 +11861,11 @@
       <c r="F466" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="467" spans="1:6">
+      <c r="G466" s="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" hidden="1">
       <c r="A467" s="1">
         <v>1</v>
       </c>
@@ -10858,8 +11881,11 @@
       <c r="F467" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="468" spans="1:6">
+      <c r="G467" s="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" hidden="1">
       <c r="A468" s="1">
         <v>1</v>
       </c>
@@ -10875,8 +11901,11 @@
       <c r="F468" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="469" spans="1:6">
+      <c r="G468" s="1">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" hidden="1">
       <c r="A469" s="1">
         <v>1</v>
       </c>
@@ -10892,8 +11921,11 @@
       <c r="F469" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="470" spans="1:6">
+      <c r="G469" s="1">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" hidden="1">
       <c r="A470" s="1">
         <v>1</v>
       </c>
@@ -10909,8 +11941,11 @@
       <c r="F470" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="471" spans="1:6">
+      <c r="G470" s="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" hidden="1">
       <c r="A471" s="1">
         <v>1</v>
       </c>
@@ -10926,8 +11961,11 @@
       <c r="F471" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="472" spans="1:6">
+      <c r="G471" s="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" hidden="1">
       <c r="A472" s="1">
         <v>1</v>
       </c>
@@ -10943,8 +11981,11 @@
       <c r="F472" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="473" spans="1:6">
+      <c r="G472" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" hidden="1">
       <c r="A473" s="1">
         <v>1</v>
       </c>
@@ -10960,8 +12001,11 @@
       <c r="F473" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="474" spans="1:6">
+      <c r="G473" s="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" hidden="1">
       <c r="A474" s="1">
         <v>1</v>
       </c>
@@ -10977,8 +12021,11 @@
       <c r="F474" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="475" spans="1:6">
+      <c r="G474" s="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" hidden="1">
       <c r="A475" s="1">
         <v>1</v>
       </c>
@@ -10994,8 +12041,11 @@
       <c r="F475" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="476" spans="1:6">
+      <c r="G475" s="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" hidden="1">
       <c r="A476" s="1">
         <v>1</v>
       </c>
@@ -11011,8 +12061,11 @@
       <c r="F476" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="477" spans="1:6">
+      <c r="G476" s="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" hidden="1">
       <c r="A477" s="1">
         <v>1</v>
       </c>
@@ -11028,8 +12081,11 @@
       <c r="F477" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="478" spans="1:6">
+      <c r="G477" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" hidden="1">
       <c r="A478" s="1">
         <v>1</v>
       </c>
@@ -11045,8 +12101,11 @@
       <c r="F478" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="479" spans="1:6">
+      <c r="G478" s="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" hidden="1">
       <c r="A479" s="1">
         <v>1</v>
       </c>
@@ -11062,8 +12121,11 @@
       <c r="F479" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="480" spans="1:6">
+      <c r="G479" s="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" hidden="1">
       <c r="A480" s="1">
         <v>1</v>
       </c>
@@ -11079,8 +12141,11 @@
       <c r="F480" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="481" spans="1:6">
+      <c r="G480" s="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" hidden="1">
       <c r="A481" s="1">
         <v>1</v>
       </c>
@@ -11096,8 +12161,11 @@
       <c r="F481" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="482" spans="1:6">
+      <c r="G481" s="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" hidden="1">
       <c r="A482" s="1">
         <v>1</v>
       </c>
@@ -11113,8 +12181,11 @@
       <c r="F482" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="483" spans="1:6">
+      <c r="G482" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" hidden="1">
       <c r="A483" s="1">
         <v>1</v>
       </c>
@@ -11130,8 +12201,11 @@
       <c r="F483" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="484" spans="1:6">
+      <c r="G483" s="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" hidden="1">
       <c r="A484" s="1">
         <v>1</v>
       </c>
@@ -11147,8 +12221,11 @@
       <c r="F484" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="485" spans="1:6">
+      <c r="G484" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" hidden="1">
       <c r="A485" s="1">
         <v>1</v>
       </c>
@@ -11164,8 +12241,11 @@
       <c r="F485" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="486" spans="1:6">
+      <c r="G485" s="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" hidden="1">
       <c r="A486" s="1">
         <v>1</v>
       </c>
@@ -11181,8 +12261,11 @@
       <c r="F486" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="487" spans="1:6">
+      <c r="G486" s="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" hidden="1">
       <c r="A487" s="1">
         <v>1</v>
       </c>
@@ -11198,8 +12281,11 @@
       <c r="F487" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="488" spans="1:6">
+      <c r="G487" s="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" hidden="1">
       <c r="A488" s="1">
         <v>1</v>
       </c>
@@ -11215,8 +12301,11 @@
       <c r="F488" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="489" spans="1:6">
+      <c r="G488" s="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" hidden="1">
       <c r="A489" s="1">
         <v>1</v>
       </c>
@@ -11232,8 +12321,11 @@
       <c r="F489" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="490" spans="1:6">
+      <c r="G489" s="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" hidden="1">
       <c r="A490" s="1">
         <v>1</v>
       </c>
@@ -11249,8 +12341,11 @@
       <c r="F490" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="491" spans="1:6">
+      <c r="G490" s="1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" hidden="1">
       <c r="A491" s="1">
         <v>1</v>
       </c>
@@ -11266,8 +12361,11 @@
       <c r="F491" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="492" spans="1:6">
+      <c r="G491" s="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" hidden="1">
       <c r="A492" s="1">
         <v>1</v>
       </c>
@@ -11283,8 +12381,11 @@
       <c r="F492" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="493" spans="1:6">
+      <c r="G492" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" hidden="1">
       <c r="A493" s="1">
         <v>1</v>
       </c>
@@ -11300,8 +12401,11 @@
       <c r="F493" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="494" spans="1:6">
+      <c r="G493" s="1">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" hidden="1">
       <c r="A494" s="1">
         <v>1</v>
       </c>
@@ -11317,8 +12421,11 @@
       <c r="F494" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="495" spans="1:6">
+      <c r="G494" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" hidden="1">
       <c r="A495" s="1">
         <v>1</v>
       </c>
@@ -11334,8 +12441,11 @@
       <c r="F495" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="496" spans="1:6">
+      <c r="G495" s="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" hidden="1">
       <c r="A496" s="1">
         <v>1</v>
       </c>
@@ -11351,8 +12461,11 @@
       <c r="F496" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="497" spans="1:6">
+      <c r="G496" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" hidden="1">
       <c r="A497" s="1">
         <v>1</v>
       </c>
@@ -11368,8 +12481,11 @@
       <c r="F497" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="498" spans="1:6">
+      <c r="G497" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" hidden="1">
       <c r="A498" s="1">
         <v>1</v>
       </c>
@@ -11385,8 +12501,11 @@
       <c r="F498" s="1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="499" spans="1:6">
+      <c r="G498" s="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" hidden="1">
       <c r="A499" s="1">
         <v>1</v>
       </c>
@@ -11402,8 +12521,11 @@
       <c r="F499" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="500" spans="1:6">
+      <c r="G499" s="1">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" hidden="1">
       <c r="A500" s="1">
         <v>1</v>
       </c>
@@ -11419,8 +12541,11 @@
       <c r="F500" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="501" spans="1:6">
+      <c r="G500" s="1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" hidden="1">
       <c r="A501" s="1">
         <v>1</v>
       </c>
@@ -11436,8 +12561,11 @@
       <c r="F501" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="502" spans="1:6">
+      <c r="G501" s="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" hidden="1">
       <c r="A502" s="1">
         <v>1</v>
       </c>
@@ -11453,8 +12581,11 @@
       <c r="F502" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="503" spans="1:6">
+      <c r="G502" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" hidden="1">
       <c r="A503" s="1">
         <v>1</v>
       </c>
@@ -11470,8 +12601,11 @@
       <c r="F503" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="504" spans="1:6">
+      <c r="G503" s="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" hidden="1">
       <c r="A504" s="1">
         <v>1</v>
       </c>
@@ -11487,8 +12621,11 @@
       <c r="F504" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="505" spans="1:6">
+      <c r="G504" s="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" hidden="1">
       <c r="A505" s="1">
         <v>1</v>
       </c>
@@ -11504,8 +12641,11 @@
       <c r="F505" s="1" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="506" spans="1:6">
+      <c r="G505" s="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" hidden="1">
       <c r="A506" s="1">
         <v>1</v>
       </c>
@@ -11521,8 +12661,11 @@
       <c r="F506" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="507" spans="1:6">
+      <c r="G506" s="1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" hidden="1">
       <c r="A507" s="1">
         <v>1</v>
       </c>
@@ -11538,8 +12681,11 @@
       <c r="F507" s="1" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="508" spans="1:6">
+      <c r="G507" s="1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" hidden="1">
       <c r="A508" s="1">
         <v>1</v>
       </c>
@@ -11555,8 +12701,11 @@
       <c r="F508" s="1" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="509" spans="1:6">
+      <c r="G508" s="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" hidden="1">
       <c r="A509" s="1">
         <v>1</v>
       </c>
@@ -11572,8 +12721,11 @@
       <c r="F509" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="510" spans="1:6">
+      <c r="G509" s="1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" hidden="1">
       <c r="A510" s="1">
         <v>1</v>
       </c>
@@ -11589,8 +12741,11 @@
       <c r="F510" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="511" spans="1:6">
+      <c r="G510" s="1">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" hidden="1">
       <c r="A511" s="1">
         <v>1</v>
       </c>
@@ -11606,8 +12761,11 @@
       <c r="F511" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="512" spans="1:6">
+      <c r="G511" s="1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" hidden="1">
       <c r="A512" s="1">
         <v>1</v>
       </c>
@@ -11623,8 +12781,11 @@
       <c r="F512" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="513" spans="1:6">
+      <c r="G512" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" hidden="1">
       <c r="A513" s="1">
         <v>1</v>
       </c>
@@ -11640,8 +12801,11 @@
       <c r="F513" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="514" spans="1:6">
+      <c r="G513" s="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" hidden="1">
       <c r="A514" s="1">
         <v>1</v>
       </c>
@@ -11657,8 +12821,11 @@
       <c r="F514" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="515" spans="1:6">
+      <c r="G514" s="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" hidden="1">
       <c r="A515" s="1">
         <v>1</v>
       </c>
@@ -11674,8 +12841,11 @@
       <c r="F515" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="516" spans="1:6">
+      <c r="G515" s="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" hidden="1">
       <c r="A516" s="1">
         <v>1</v>
       </c>
@@ -11691,8 +12861,11 @@
       <c r="F516" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="517" spans="1:6">
+      <c r="G516" s="1">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" hidden="1">
       <c r="A517" s="1">
         <v>1</v>
       </c>
@@ -11708,8 +12881,11 @@
       <c r="F517" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="518" spans="1:6">
+      <c r="G517" s="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" hidden="1">
       <c r="A518" s="1">
         <v>1</v>
       </c>
@@ -11725,8 +12901,11 @@
       <c r="F518" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="519" spans="1:6">
+      <c r="G518" s="1">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" hidden="1">
       <c r="A519" s="1">
         <v>1</v>
       </c>
@@ -11742,8 +12921,11 @@
       <c r="F519" s="1" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="520" spans="1:6">
+      <c r="G519" s="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" hidden="1">
       <c r="A520" s="1">
         <v>1</v>
       </c>
@@ -11759,8 +12941,11 @@
       <c r="F520" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="521" spans="1:6">
+      <c r="G520" s="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" hidden="1">
       <c r="A521" s="1">
         <v>1</v>
       </c>
@@ -11776,8 +12961,11 @@
       <c r="F521" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="522" spans="1:6">
+      <c r="G521" s="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" hidden="1">
       <c r="A522" s="1">
         <v>1</v>
       </c>
@@ -11793,8 +12981,11 @@
       <c r="F522" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="523" spans="1:6">
+      <c r="G522" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" hidden="1">
       <c r="A523" s="1">
         <v>1</v>
       </c>
@@ -11810,8 +13001,11 @@
       <c r="F523" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="524" spans="1:6">
+      <c r="G523" s="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" hidden="1">
       <c r="A524" s="1">
         <v>1</v>
       </c>
@@ -11827,8 +13021,11 @@
       <c r="F524" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="525" spans="1:6">
+      <c r="G524" s="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" hidden="1">
       <c r="A525" s="1">
         <v>1</v>
       </c>
@@ -11844,8 +13041,11 @@
       <c r="F525" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="526" spans="1:6">
+      <c r="G525" s="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" hidden="1">
       <c r="A526" s="1">
         <v>1</v>
       </c>
@@ -11861,8 +13061,11 @@
       <c r="F526" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="527" spans="1:6">
+      <c r="G526" s="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" hidden="1">
       <c r="A527" s="1">
         <v>1</v>
       </c>
@@ -11878,8 +13081,11 @@
       <c r="F527" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="528" spans="1:6">
+      <c r="G527" s="1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" hidden="1">
       <c r="A528" s="1">
         <v>1</v>
       </c>
@@ -11895,8 +13101,11 @@
       <c r="F528" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="529" spans="1:6">
+      <c r="G528" s="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" hidden="1">
       <c r="A529" s="1">
         <v>1</v>
       </c>
@@ -11912,8 +13121,11 @@
       <c r="F529" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="530" spans="1:6">
+      <c r="G529" s="1">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" hidden="1">
       <c r="A530" s="1">
         <v>1</v>
       </c>
@@ -11929,8 +13141,11 @@
       <c r="F530" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="531" spans="1:6">
+      <c r="G530" s="1">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" hidden="1">
       <c r="A531" s="1">
         <v>1</v>
       </c>
@@ -11946,8 +13161,11 @@
       <c r="F531" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="532" spans="1:6">
+      <c r="G531" s="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" hidden="1">
       <c r="A532" s="1">
         <v>1</v>
       </c>
@@ -11963,8 +13181,11 @@
       <c r="F532" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="533" spans="1:6">
+      <c r="G532" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" hidden="1">
       <c r="A533" s="1">
         <v>1</v>
       </c>
@@ -11980,8 +13201,11 @@
       <c r="F533" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="534" spans="1:6">
+      <c r="G533" s="1">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" hidden="1">
       <c r="A534" s="1">
         <v>1</v>
       </c>
@@ -11997,8 +13221,11 @@
       <c r="F534" s="1" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="535" spans="1:6">
+      <c r="G534" s="1">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" hidden="1">
       <c r="A535" s="1">
         <v>1</v>
       </c>
@@ -12014,8 +13241,11 @@
       <c r="F535" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="536" spans="1:6">
+      <c r="G535" s="1">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" hidden="1">
       <c r="A536" s="1">
         <v>1</v>
       </c>
@@ -12031,8 +13261,11 @@
       <c r="F536" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="537" spans="1:6">
+      <c r="G536" s="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" hidden="1">
       <c r="A537" s="1">
         <v>1</v>
       </c>
@@ -12048,8 +13281,11 @@
       <c r="F537" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="538" spans="1:6">
+      <c r="G537" s="1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" hidden="1">
       <c r="A538" s="1">
         <v>1</v>
       </c>
@@ -12065,8 +13301,11 @@
       <c r="F538" s="1" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="539" spans="1:6">
+      <c r="G538" s="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" hidden="1">
       <c r="A539" s="1">
         <v>1</v>
       </c>
@@ -12082,8 +13321,11 @@
       <c r="F539" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="540" spans="1:6">
+      <c r="G539" s="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" hidden="1">
       <c r="A540" s="1">
         <v>1</v>
       </c>
@@ -12099,8 +13341,11 @@
       <c r="F540" s="1" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="541" spans="1:6">
+      <c r="G540" s="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" hidden="1">
       <c r="A541" s="1">
         <v>1</v>
       </c>
@@ -12116,8 +13361,11 @@
       <c r="F541" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="542" spans="1:6">
+      <c r="G541" s="1">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" hidden="1">
       <c r="A542" s="1">
         <v>1</v>
       </c>
@@ -12133,8 +13381,11 @@
       <c r="F542" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="543" spans="1:6">
+      <c r="G542" s="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" hidden="1">
       <c r="A543" s="1">
         <v>1</v>
       </c>
@@ -12150,8 +13401,11 @@
       <c r="F543" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="544" spans="1:6">
+      <c r="G543" s="1">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" hidden="1">
       <c r="A544" s="1">
         <v>1</v>
       </c>
@@ -12167,8 +13421,11 @@
       <c r="F544" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="545" spans="1:6">
+      <c r="G544" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" hidden="1">
       <c r="A545" s="1">
         <v>1</v>
       </c>
@@ -12184,8 +13441,11 @@
       <c r="F545" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="546" spans="1:6">
+      <c r="G545" s="1">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" hidden="1">
       <c r="A546" s="1">
         <v>1</v>
       </c>
@@ -12201,8 +13461,11 @@
       <c r="F546" s="1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="547" spans="1:6">
+      <c r="G546" s="1">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" hidden="1">
       <c r="A547" s="1">
         <v>1</v>
       </c>
@@ -12218,8 +13481,11 @@
       <c r="F547" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="548" spans="1:6">
+      <c r="G547" s="1">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" hidden="1">
       <c r="A548" s="1">
         <v>1</v>
       </c>
@@ -12235,8 +13501,11 @@
       <c r="F548" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="549" spans="1:6">
+      <c r="G548" s="1">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" hidden="1">
       <c r="A549" s="1">
         <v>1</v>
       </c>
@@ -12252,8 +13521,11 @@
       <c r="F549" s="1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="550" spans="1:6">
+      <c r="G549" s="1">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" hidden="1">
       <c r="A550" s="1">
         <v>1</v>
       </c>
@@ -12269,8 +13541,11 @@
       <c r="F550" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="551" spans="1:6">
+      <c r="G550" s="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" hidden="1">
       <c r="A551" s="1">
         <v>1</v>
       </c>
@@ -12286,8 +13561,11 @@
       <c r="F551" s="1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="552" spans="1:6">
+      <c r="G551" s="1">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" hidden="1">
       <c r="A552" s="1">
         <v>1</v>
       </c>
@@ -12303,8 +13581,11 @@
       <c r="F552" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="553" spans="1:6">
+      <c r="G552" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" hidden="1">
       <c r="A553" s="1">
         <v>1</v>
       </c>
@@ -12320,8 +13601,11 @@
       <c r="F553" s="1" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="554" spans="1:6">
+      <c r="G553" s="1">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" hidden="1">
       <c r="A554" s="1">
         <v>1</v>
       </c>
@@ -12337,8 +13621,11 @@
       <c r="F554" s="1" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="555" spans="1:6">
+      <c r="G554" s="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" hidden="1">
       <c r="A555" s="1">
         <v>1</v>
       </c>
@@ -12354,8 +13641,11 @@
       <c r="F555" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="556" spans="1:6">
+      <c r="G555" s="1">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" hidden="1">
       <c r="A556" s="1">
         <v>1</v>
       </c>
@@ -12371,8 +13661,11 @@
       <c r="F556" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="557" spans="1:6">
+      <c r="G556" s="1">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" hidden="1">
       <c r="A557" s="1">
         <v>1</v>
       </c>
@@ -12388,8 +13681,11 @@
       <c r="F557" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="558" spans="1:6">
+      <c r="G557" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" hidden="1">
       <c r="A558" s="1">
         <v>1</v>
       </c>
@@ -12405,8 +13701,11 @@
       <c r="F558" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="559" spans="1:6">
+      <c r="G558" s="1">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" hidden="1">
       <c r="A559" s="1">
         <v>1</v>
       </c>
@@ -12422,8 +13721,11 @@
       <c r="F559" s="1" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="560" spans="1:6">
+      <c r="G559" s="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" hidden="1">
       <c r="A560" s="1">
         <v>1</v>
       </c>
@@ -12439,8 +13741,11 @@
       <c r="F560" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="561" spans="1:6">
+      <c r="G560" s="1">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" hidden="1">
       <c r="A561" s="1">
         <v>1</v>
       </c>
@@ -12456,8 +13761,11 @@
       <c r="F561" s="1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="562" spans="1:6">
+      <c r="G561" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" hidden="1">
       <c r="A562" s="1">
         <v>1</v>
       </c>
@@ -12473,8 +13781,11 @@
       <c r="F562" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="563" spans="1:6">
+      <c r="G562" s="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" hidden="1">
       <c r="A563" s="1">
         <v>1</v>
       </c>
@@ -12490,8 +13801,11 @@
       <c r="F563" s="1" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="564" spans="1:6">
+      <c r="G563" s="1">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" hidden="1">
       <c r="A564" s="1">
         <v>1</v>
       </c>
@@ -12507,8 +13821,11 @@
       <c r="F564" s="1" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="565" spans="1:6">
+      <c r="G564" s="1">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" hidden="1">
       <c r="A565" s="1">
         <v>1</v>
       </c>
@@ -12524,8 +13841,11 @@
       <c r="F565" s="1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="566" spans="1:6">
+      <c r="G565" s="1">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" hidden="1">
       <c r="A566" s="1">
         <v>1</v>
       </c>
@@ -12541,8 +13861,11 @@
       <c r="F566" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="567" spans="1:6">
+      <c r="G566" s="1">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" hidden="1">
       <c r="A567" s="1">
         <v>1</v>
       </c>
@@ -12558,8 +13881,11 @@
       <c r="F567" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="568" spans="1:6">
+      <c r="G567" s="1">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" hidden="1">
       <c r="A568" s="1">
         <v>1</v>
       </c>
@@ -12575,8 +13901,11 @@
       <c r="F568" s="1" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="569" spans="1:6">
+      <c r="G568" s="1">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" hidden="1">
       <c r="A569" s="1">
         <v>1</v>
       </c>
@@ -12592,8 +13921,11 @@
       <c r="F569" s="1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="570" spans="1:6">
+      <c r="G569" s="1">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" hidden="1">
       <c r="A570" s="1">
         <v>1</v>
       </c>
@@ -12609,8 +13941,11 @@
       <c r="F570" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="571" spans="1:6">
+      <c r="G570" s="1">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" hidden="1">
       <c r="A571" s="1">
         <v>1</v>
       </c>
@@ -12626,8 +13961,11 @@
       <c r="F571" s="1" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="572" spans="1:6">
+      <c r="G571" s="1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" hidden="1">
       <c r="A572" s="1">
         <v>1</v>
       </c>
@@ -12643,8 +13981,11 @@
       <c r="F572" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="573" spans="1:6">
+      <c r="G572" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" hidden="1">
       <c r="A573" s="1">
         <v>1</v>
       </c>
@@ -12660,8 +14001,11 @@
       <c r="F573" s="1" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="574" spans="1:6">
+      <c r="G573" s="1">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" hidden="1">
       <c r="A574" s="1">
         <v>1</v>
       </c>
@@ -12677,8 +14021,11 @@
       <c r="F574" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="575" spans="1:6">
+      <c r="G574" s="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" hidden="1">
       <c r="A575" s="1">
         <v>1</v>
       </c>
@@ -12694,8 +14041,11 @@
       <c r="F575" s="1" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="576" spans="1:6">
+      <c r="G575" s="1">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" hidden="1">
       <c r="A576" s="1">
         <v>1</v>
       </c>
@@ -12711,8 +14061,11 @@
       <c r="F576" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="577" spans="1:6">
+      <c r="G576" s="1">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" hidden="1">
       <c r="A577" s="1">
         <v>1</v>
       </c>
@@ -12728,8 +14081,11 @@
       <c r="F577" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="578" spans="1:6">
+      <c r="G577" s="1">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" hidden="1">
       <c r="A578" s="1">
         <v>1</v>
       </c>
@@ -12745,8 +14101,11 @@
       <c r="F578" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="579" spans="1:6">
+      <c r="G578" s="1">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" hidden="1">
       <c r="A579" s="1">
         <v>1</v>
       </c>
@@ -12762,8 +14121,11 @@
       <c r="F579" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="580" spans="1:6">
+      <c r="G579" s="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" hidden="1">
       <c r="A580" s="1">
         <v>1</v>
       </c>
@@ -12779,8 +14141,11 @@
       <c r="F580" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="581" spans="1:6">
+      <c r="G580" s="1">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" hidden="1">
       <c r="A581" s="1">
         <v>1</v>
       </c>
@@ -12796,8 +14161,11 @@
       <c r="F581" s="1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="582" spans="1:6">
+      <c r="G581" s="1">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" hidden="1">
       <c r="A582" s="1">
         <v>1</v>
       </c>
@@ -12813,8 +14181,11 @@
       <c r="F582" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="583" spans="1:6">
+      <c r="G582" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" hidden="1">
       <c r="A583" s="1">
         <v>1</v>
       </c>
@@ -12830,8 +14201,11 @@
       <c r="F583" s="1" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="584" spans="1:6">
+      <c r="G583" s="1">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" hidden="1">
       <c r="A584" s="1">
         <v>1</v>
       </c>
@@ -12847,8 +14221,11 @@
       <c r="F584" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="585" spans="1:6">
+      <c r="G584" s="1">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" hidden="1">
       <c r="A585" s="1">
         <v>1</v>
       </c>
@@ -12864,8 +14241,11 @@
       <c r="F585" s="1" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="586" spans="1:6">
+      <c r="G585" s="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" hidden="1">
       <c r="A586" s="1">
         <v>1</v>
       </c>
@@ -12881,8 +14261,11 @@
       <c r="F586" s="1" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="587" spans="1:6">
+      <c r="G586" s="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" hidden="1">
       <c r="A587" s="1">
         <v>1</v>
       </c>
@@ -12898,8 +14281,11 @@
       <c r="F587" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="588" spans="1:6">
+      <c r="G587" s="1">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" hidden="1">
       <c r="A588" s="1">
         <v>1</v>
       </c>
@@ -12915,8 +14301,11 @@
       <c r="F588" s="1" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="589" spans="1:6">
+      <c r="G588" s="1">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" hidden="1">
       <c r="A589" s="1">
         <v>1</v>
       </c>
@@ -12932,8 +14321,11 @@
       <c r="F589" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="590" spans="1:6">
+      <c r="G589" s="1">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" hidden="1">
       <c r="A590" s="1">
         <v>1</v>
       </c>
@@ -12949,8 +14341,11 @@
       <c r="F590" s="1" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="591" spans="1:6">
+      <c r="G590" s="1">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" hidden="1">
       <c r="A591" s="1">
         <v>1</v>
       </c>
@@ -12966,8 +14361,11 @@
       <c r="F591" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="592" spans="1:6">
+      <c r="G591" s="1">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" hidden="1">
       <c r="A592" s="1">
         <v>1</v>
       </c>
@@ -12983,8 +14381,11 @@
       <c r="F592" s="1" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="593" spans="1:6">
+      <c r="G592" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7" hidden="1">
       <c r="A593" s="1">
         <v>1</v>
       </c>
@@ -13000,8 +14401,11 @@
       <c r="F593" s="1" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="594" spans="1:6">
+      <c r="G593" s="1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7" hidden="1">
       <c r="A594" s="1">
         <v>1</v>
       </c>
@@ -13017,8 +14421,11 @@
       <c r="F594" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="595" spans="1:6">
+      <c r="G594" s="1">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7" hidden="1">
       <c r="A595" s="1">
         <v>1</v>
       </c>
@@ -13034,8 +14441,11 @@
       <c r="F595" s="1" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="596" spans="1:6">
+      <c r="G595" s="1">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7" hidden="1">
       <c r="A596" s="1">
         <v>1</v>
       </c>
@@ -13051,8 +14461,11 @@
       <c r="F596" s="1" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="597" spans="1:6">
+      <c r="G596" s="1">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7" hidden="1">
       <c r="A597" s="1">
         <v>1</v>
       </c>
@@ -13068,8 +14481,11 @@
       <c r="F597" s="1" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="598" spans="1:6">
+      <c r="G597" s="1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7" hidden="1">
       <c r="A598" s="1">
         <v>1</v>
       </c>
@@ -13085,8 +14501,11 @@
       <c r="F598" s="1" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="599" spans="1:6">
+      <c r="G598" s="1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7" hidden="1">
       <c r="A599" s="1">
         <v>1</v>
       </c>
@@ -13102,8 +14521,11 @@
       <c r="F599" s="1" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="600" spans="1:6">
+      <c r="G599" s="1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7" hidden="1">
       <c r="A600" s="1">
         <v>1</v>
       </c>
@@ -13119,8 +14541,11 @@
       <c r="F600" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="601" spans="1:6">
+      <c r="G600" s="1">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" hidden="1">
       <c r="A601" s="1">
         <v>1</v>
       </c>
@@ -13136,8 +14561,11 @@
       <c r="F601" s="1" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="602" spans="1:6">
+      <c r="G601" s="1">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7" hidden="1">
       <c r="A602" s="1">
         <v>1</v>
       </c>
@@ -13153,8 +14581,11 @@
       <c r="F602" s="1" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="603" spans="1:6">
+      <c r="G602" s="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7" hidden="1">
       <c r="A603" s="1">
         <v>1</v>
       </c>
@@ -13170,8 +14601,11 @@
       <c r="F603" s="1" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="604" spans="1:6">
+      <c r="G603" s="1">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" hidden="1">
       <c r="A604" s="1">
         <v>1</v>
       </c>
@@ -13187,8 +14621,11 @@
       <c r="F604" s="1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="605" spans="1:6">
+      <c r="G604" s="1">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7" hidden="1">
       <c r="A605" s="1">
         <v>1</v>
       </c>
@@ -13204,8 +14641,11 @@
       <c r="F605" s="1" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="606" spans="1:6">
+      <c r="G605" s="1">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7" hidden="1">
       <c r="A606" s="1">
         <v>1</v>
       </c>
@@ -13221,8 +14661,11 @@
       <c r="F606" s="1" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="607" spans="1:6">
+      <c r="G606" s="1">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7" hidden="1">
       <c r="A607" s="1">
         <v>1</v>
       </c>
@@ -13238,8 +14681,11 @@
       <c r="F607" s="1" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="608" spans="1:6">
+      <c r="G607" s="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7" hidden="1">
       <c r="A608" s="1">
         <v>1</v>
       </c>
@@ -13255,8 +14701,11 @@
       <c r="F608" s="1" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="609" spans="1:6">
+      <c r="G608" s="1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" hidden="1">
       <c r="A609" s="1">
         <v>1</v>
       </c>
@@ -13272,8 +14721,11 @@
       <c r="F609" s="1" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="610" spans="1:6">
+      <c r="G609" s="1">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" hidden="1">
       <c r="A610" s="1">
         <v>1</v>
       </c>
@@ -13289,8 +14741,11 @@
       <c r="F610" s="1" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="611" spans="1:6">
+      <c r="G610" s="1">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7" hidden="1">
       <c r="A611" s="1">
         <v>1</v>
       </c>
@@ -13306,8 +14761,11 @@
       <c r="F611" s="1" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="612" spans="1:6">
+      <c r="G611" s="1">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7" hidden="1">
       <c r="A612" s="1">
         <v>1</v>
       </c>
@@ -13323,8 +14781,11 @@
       <c r="F612" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="613" spans="1:6">
+      <c r="G612" s="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" hidden="1">
       <c r="A613" s="1">
         <v>1</v>
       </c>
@@ -13340,8 +14801,11 @@
       <c r="F613" s="1" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="614" spans="1:6">
+      <c r="G613" s="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7" hidden="1">
       <c r="A614" s="1">
         <v>1</v>
       </c>
@@ -13357,8 +14821,11 @@
       <c r="F614" s="1" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="615" spans="1:6">
+      <c r="G614" s="1">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7" hidden="1">
       <c r="A615" s="1">
         <v>1</v>
       </c>
@@ -13374,8 +14841,11 @@
       <c r="F615" s="1" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="616" spans="1:6">
+      <c r="G615" s="1">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7" hidden="1">
       <c r="A616" s="1">
         <v>1</v>
       </c>
@@ -13391,8 +14861,11 @@
       <c r="F616" s="1" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="617" spans="1:6">
+      <c r="G616" s="1">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7" hidden="1">
       <c r="A617" s="1">
         <v>1</v>
       </c>
@@ -13408,8 +14881,11 @@
       <c r="F617" s="1" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="618" spans="1:6">
+      <c r="G617" s="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7" hidden="1">
       <c r="A618" s="1">
         <v>1</v>
       </c>
@@ -13425,8 +14901,11 @@
       <c r="F618" s="1" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="619" spans="1:6">
+      <c r="G618" s="1">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7" hidden="1">
       <c r="A619" s="1">
         <v>1</v>
       </c>
@@ -13442,8 +14921,11 @@
       <c r="F619" s="1" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="620" spans="1:6">
+      <c r="G619" s="1">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7" hidden="1">
       <c r="A620" s="1">
         <v>1</v>
       </c>
@@ -13459,8 +14941,11 @@
       <c r="F620" s="1" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="621" spans="1:6">
+      <c r="G620" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7" hidden="1">
       <c r="A621" s="1">
         <v>1</v>
       </c>
@@ -13476,8 +14961,11 @@
       <c r="F621" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="622" spans="1:6">
+      <c r="G621" s="1">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7" hidden="1">
       <c r="A622" s="1">
         <v>1</v>
       </c>
@@ -13493,8 +14981,11 @@
       <c r="F622" s="1" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="623" spans="1:6">
+      <c r="G622" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7" hidden="1">
       <c r="A623" s="1">
         <v>1</v>
       </c>
@@ -13510,8 +15001,11 @@
       <c r="F623" s="1" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="624" spans="1:6">
+      <c r="G623" s="1">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7" hidden="1">
       <c r="A624" s="1">
         <v>1</v>
       </c>
@@ -13527,8 +15021,11 @@
       <c r="F624" s="1" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="625" spans="1:6">
+      <c r="G624" s="1">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7" hidden="1">
       <c r="A625" s="1">
         <v>1</v>
       </c>
@@ -13544,8 +15041,11 @@
       <c r="F625" s="1" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="626" spans="1:6">
+      <c r="G625" s="1">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7" hidden="1">
       <c r="A626" s="1">
         <v>1</v>
       </c>
@@ -13561,8 +15061,11 @@
       <c r="F626" s="1" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="627" spans="1:6">
+      <c r="G626" s="1">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7" hidden="1">
       <c r="A627" s="1">
         <v>1</v>
       </c>
@@ -13578,8 +15081,11 @@
       <c r="F627" s="1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="628" spans="1:6">
+      <c r="G627" s="1">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7" hidden="1">
       <c r="A628" s="1">
         <v>1</v>
       </c>
@@ -13595,8 +15101,11 @@
       <c r="F628" s="1" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="629" spans="1:6">
+      <c r="G628" s="1">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7" hidden="1">
       <c r="A629" s="1">
         <v>1</v>
       </c>
@@ -13612,8 +15121,11 @@
       <c r="F629" s="1" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="630" spans="1:6">
+      <c r="G629" s="1">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7" hidden="1">
       <c r="A630" s="1">
         <v>1</v>
       </c>
@@ -13629,8 +15141,11 @@
       <c r="F630" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="631" spans="1:6">
+      <c r="G630" s="1">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7" hidden="1">
       <c r="A631" s="1">
         <v>1</v>
       </c>
@@ -13646,8 +15161,11 @@
       <c r="F631" s="1" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="632" spans="1:6">
+      <c r="G631" s="1">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7" hidden="1">
       <c r="A632" s="1">
         <v>1</v>
       </c>
@@ -13663,8 +15181,11 @@
       <c r="F632" s="1" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="633" spans="1:6">
+      <c r="G632" s="1">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7" hidden="1">
       <c r="A633" s="1">
         <v>1</v>
       </c>
@@ -13680,8 +15201,11 @@
       <c r="F633" s="1" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="634" spans="1:6">
+      <c r="G633" s="1">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7" hidden="1">
       <c r="A634" s="1">
         <v>1</v>
       </c>
@@ -13697,8 +15221,11 @@
       <c r="F634" s="1" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="635" spans="1:6">
+      <c r="G634" s="1">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7" hidden="1">
       <c r="A635" s="1">
         <v>1</v>
       </c>
@@ -13714,8 +15241,11 @@
       <c r="F635" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="636" spans="1:6">
+      <c r="G635" s="1">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="636" spans="1:7" hidden="1">
       <c r="A636" s="1">
         <v>1</v>
       </c>
@@ -13731,8 +15261,11 @@
       <c r="F636" s="1" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="637" spans="1:6">
+      <c r="G636" s="1">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7" hidden="1">
       <c r="A637" s="1">
         <v>1</v>
       </c>
@@ -13748,8 +15281,11 @@
       <c r="F637" s="1" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="638" spans="1:6">
+      <c r="G637" s="1">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7" hidden="1">
       <c r="A638" s="1">
         <v>1</v>
       </c>
@@ -13765,8 +15301,11 @@
       <c r="F638" s="1" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="639" spans="1:6">
+      <c r="G638" s="1">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7" hidden="1">
       <c r="A639" s="1">
         <v>1</v>
       </c>
@@ -13782,8 +15321,11 @@
       <c r="F639" s="1" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="640" spans="1:6">
+      <c r="G639" s="1">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7" hidden="1">
       <c r="A640" s="1">
         <v>1</v>
       </c>
@@ -13799,8 +15341,11 @@
       <c r="F640" s="1" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="641" spans="1:6">
+      <c r="G640" s="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7" hidden="1">
       <c r="A641" s="1">
         <v>1</v>
       </c>
@@ -13816,8 +15361,11 @@
       <c r="F641" s="1" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="642" spans="1:6">
+      <c r="G641" s="1">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7" hidden="1">
       <c r="A642" s="1">
         <v>0</v>
       </c>
@@ -13830,8 +15378,11 @@
       <c r="F642" s="1" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="643" spans="1:6">
+      <c r="G642" s="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7" hidden="1">
       <c r="A643" s="1">
         <v>0</v>
       </c>
@@ -13844,8 +15395,11 @@
       <c r="F643" s="1" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="644" spans="1:6">
+      <c r="G643" s="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7" hidden="1">
       <c r="A644" s="1">
         <v>1</v>
       </c>
@@ -13861,8 +15415,11 @@
       <c r="F644" s="1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="645" spans="1:6">
+      <c r="G644" s="1">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7" hidden="1">
       <c r="A645" s="1">
         <v>1</v>
       </c>
@@ -13878,8 +15435,11 @@
       <c r="F645" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="646" spans="1:6">
+      <c r="G645" s="1">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7" hidden="1">
       <c r="A646" s="1">
         <v>1</v>
       </c>
@@ -13895,8 +15455,11 @@
       <c r="F646" s="1" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="647" spans="1:6">
+      <c r="G646" s="1">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="647" spans="1:7" hidden="1">
       <c r="A647" s="1">
         <v>1</v>
       </c>
@@ -13912,8 +15475,11 @@
       <c r="F647" s="1" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="648" spans="1:6">
+      <c r="G647" s="1">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7" hidden="1">
       <c r="A648" s="1">
         <v>1</v>
       </c>
@@ -13929,8 +15495,11 @@
       <c r="F648" s="1" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="649" spans="1:6">
+      <c r="G648" s="1">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7" hidden="1">
       <c r="A649" s="1">
         <v>1</v>
       </c>
@@ -13946,8 +15515,11 @@
       <c r="F649" s="1" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="650" spans="1:6">
+      <c r="G649" s="1">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7" hidden="1">
       <c r="A650" s="1">
         <v>1</v>
       </c>
@@ -13963,8 +15535,11 @@
       <c r="F650" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="651" spans="1:6">
+      <c r="G650" s="1">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="651" spans="1:7" hidden="1">
       <c r="A651" s="1">
         <v>1</v>
       </c>
@@ -13980,8 +15555,11 @@
       <c r="F651" s="1" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="652" spans="1:6">
+      <c r="G651" s="1">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="652" spans="1:7" hidden="1">
       <c r="A652" s="1">
         <v>1</v>
       </c>
@@ -13997,8 +15575,11 @@
       <c r="F652" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="653" spans="1:6">
+      <c r="G652" s="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7" hidden="1">
       <c r="A653" s="1">
         <v>1</v>
       </c>
@@ -14014,8 +15595,11 @@
       <c r="F653" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="654" spans="1:6">
+      <c r="G653" s="1">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7" hidden="1">
       <c r="A654" s="1">
         <v>1</v>
       </c>
@@ -14031,8 +15615,11 @@
       <c r="F654" s="1" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="655" spans="1:6">
+      <c r="G654" s="1">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7" hidden="1">
       <c r="A655" s="1">
         <v>1</v>
       </c>
@@ -14048,8 +15635,11 @@
       <c r="F655" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="656" spans="1:6">
+      <c r="G655" s="1">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="656" spans="1:7" hidden="1">
       <c r="A656" s="1">
         <v>1</v>
       </c>
@@ -14065,8 +15655,11 @@
       <c r="F656" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="657" spans="1:6">
+      <c r="G656" s="1">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="657" spans="1:7" hidden="1">
       <c r="A657" s="1">
         <v>1</v>
       </c>
@@ -14082,8 +15675,11 @@
       <c r="F657" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="658" spans="1:6">
+      <c r="G657" s="1">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="658" spans="1:7" hidden="1">
       <c r="A658" s="1">
         <v>1</v>
       </c>
@@ -14099,8 +15695,11 @@
       <c r="F658" s="1" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="659" spans="1:6">
+      <c r="G658" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7" hidden="1">
       <c r="A659" s="1">
         <v>1</v>
       </c>
@@ -14116,8 +15715,11 @@
       <c r="F659" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="660" spans="1:6">
+      <c r="G659" s="1">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7" hidden="1">
       <c r="A660" s="1">
         <v>1</v>
       </c>
@@ -14133,8 +15735,11 @@
       <c r="F660" s="1" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="661" spans="1:6">
+      <c r="G660" s="1">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7" hidden="1">
       <c r="A661" s="1">
         <v>1</v>
       </c>
@@ -14150,8 +15755,11 @@
       <c r="F661" s="1" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="662" spans="1:6">
+      <c r="G661" s="1">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="662" spans="1:7" hidden="1">
       <c r="A662" s="1">
         <v>1</v>
       </c>
@@ -14167,8 +15775,11 @@
       <c r="F662" s="1" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="663" spans="1:6">
+      <c r="G662" s="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7" hidden="1">
       <c r="A663" s="1">
         <v>1</v>
       </c>
@@ -14184,8 +15795,11 @@
       <c r="F663" s="1" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="664" spans="1:6">
+      <c r="G663" s="1">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7" hidden="1">
       <c r="A664" s="1">
         <v>1</v>
       </c>
@@ -14201,8 +15815,11 @@
       <c r="F664" s="1" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="665" spans="1:6">
+      <c r="G664" s="1">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7" hidden="1">
       <c r="A665" s="1">
         <v>1</v>
       </c>
@@ -14218,8 +15835,11 @@
       <c r="F665" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="666" spans="1:6">
+      <c r="G665" s="1">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7" hidden="1">
       <c r="A666" s="1">
         <v>1</v>
       </c>
@@ -14235,8 +15855,11 @@
       <c r="F666" s="1" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="667" spans="1:6">
+      <c r="G666" s="1">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7" hidden="1">
       <c r="A667" s="1">
         <v>1</v>
       </c>
@@ -14252,8 +15875,11 @@
       <c r="F667" s="1" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="668" spans="1:6">
+      <c r="G667" s="1">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7" hidden="1">
       <c r="A668" s="1">
         <v>1</v>
       </c>
@@ -14269,8 +15895,11 @@
       <c r="F668" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="669" spans="1:6">
+      <c r="G668" s="1">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7" hidden="1">
       <c r="A669" s="1">
         <v>1</v>
       </c>
@@ -14286,8 +15915,11 @@
       <c r="F669" s="1" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="670" spans="1:6">
+      <c r="G669" s="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7" hidden="1">
       <c r="A670" s="1">
         <v>1</v>
       </c>
@@ -14303,8 +15935,11 @@
       <c r="F670" s="1" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="671" spans="1:6">
+      <c r="G670" s="1">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7" hidden="1">
       <c r="A671" s="1">
         <v>1</v>
       </c>
@@ -14320,8 +15955,11 @@
       <c r="F671" s="1" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="672" spans="1:6">
+      <c r="G671" s="1">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7" hidden="1">
       <c r="A672" s="1">
         <v>1</v>
       </c>
@@ -14337,8 +15975,11 @@
       <c r="F672" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="673" spans="1:6">
+      <c r="G672" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7" hidden="1">
       <c r="A673" s="1">
         <v>1</v>
       </c>
@@ -14354,8 +15995,11 @@
       <c r="F673" s="1" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="674" spans="1:6">
+      <c r="G673" s="1">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" hidden="1">
       <c r="A674" s="1">
         <v>0</v>
       </c>
@@ -14368,8 +16012,11 @@
       <c r="F674" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="675" spans="1:6">
+      <c r="G674" s="1">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" hidden="1">
       <c r="A675" s="1">
         <v>0</v>
       </c>
@@ -14382,8 +16029,11 @@
       <c r="F675" s="1" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="676" spans="1:6">
+      <c r="G675" s="1">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7" hidden="1">
       <c r="A676" s="1">
         <v>0</v>
       </c>
@@ -14396,8 +16046,11 @@
       <c r="F676" s="1" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="677" spans="1:6">
+      <c r="G676" s="1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7" hidden="1">
       <c r="A677" s="1">
         <v>0</v>
       </c>
@@ -14410,8 +16063,11 @@
       <c r="F677" s="1" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="678" spans="1:6">
+      <c r="G677" s="1">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7" hidden="1">
       <c r="A678" s="1">
         <v>0</v>
       </c>
@@ -14424,8 +16080,11 @@
       <c r="F678" s="1" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="679" spans="1:6">
+      <c r="G678" s="1">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7" hidden="1">
       <c r="A679" s="1">
         <v>0</v>
       </c>
@@ -14438,8 +16097,11 @@
       <c r="F679" s="1" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="680" spans="1:6">
+      <c r="G679" s="1">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7" hidden="1">
       <c r="A680" s="1">
         <v>0</v>
       </c>
@@ -14452,8 +16114,11 @@
       <c r="F680" s="1" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="681" spans="1:6">
+      <c r="G680" s="1">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7" hidden="1">
       <c r="A681" s="1">
         <v>0</v>
       </c>
@@ -14466,8 +16131,11 @@
       <c r="F681" s="1" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="682" spans="1:6">
+      <c r="G681" s="1">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7" hidden="1">
       <c r="A682" s="1">
         <v>0</v>
       </c>
@@ -14480,8 +16148,11 @@
       <c r="F682" s="1" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="683" spans="1:6">
+      <c r="G682" s="1">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7" hidden="1">
       <c r="A683" s="1">
         <v>0</v>
       </c>
@@ -14494,8 +16165,11 @@
       <c r="F683" s="1" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="684" spans="1:6">
+      <c r="G683" s="1">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7" hidden="1">
       <c r="A684" s="1">
         <v>0</v>
       </c>
@@ -14508,8 +16182,11 @@
       <c r="F684" s="1" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="685" spans="1:6">
+      <c r="G684" s="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7" hidden="1">
       <c r="A685" s="1">
         <v>0</v>
       </c>
@@ -14522,8 +16199,11 @@
       <c r="F685" s="1" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="686" spans="1:6">
+      <c r="G685" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7" hidden="1">
       <c r="A686" s="1">
         <v>0</v>
       </c>
@@ -14536,8 +16216,11 @@
       <c r="F686" s="1" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="687" spans="1:6">
+      <c r="G686" s="1">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7" hidden="1">
       <c r="A687" s="1">
         <v>0</v>
       </c>
@@ -14550,8 +16233,11 @@
       <c r="F687" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="688" spans="1:6">
+      <c r="G687" s="1">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7" hidden="1">
       <c r="A688" s="1">
         <v>0</v>
       </c>
@@ -14564,8 +16250,11 @@
       <c r="F688" s="1" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="689" spans="1:6">
+      <c r="G688" s="1">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7" hidden="1">
       <c r="A689" s="1">
         <v>0</v>
       </c>
@@ -14578,8 +16267,11 @@
       <c r="F689" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="690" spans="1:6">
+      <c r="G689" s="1">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7" hidden="1">
       <c r="A690" s="1">
         <v>0</v>
       </c>
@@ -14592,8 +16284,11 @@
       <c r="F690" s="1" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="691" spans="1:6">
+      <c r="G690" s="1">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7" hidden="1">
       <c r="A691" s="1">
         <v>0</v>
       </c>
@@ -14606,8 +16301,11 @@
       <c r="F691" s="1" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="692" spans="1:6">
+      <c r="G691" s="1">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7" hidden="1">
       <c r="A692" s="1">
         <v>0</v>
       </c>
@@ -14620,8 +16318,11 @@
       <c r="F692" s="1" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="693" spans="1:6">
+      <c r="G692" s="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7" hidden="1">
       <c r="A693" s="1">
         <v>0</v>
       </c>
@@ -14634,8 +16335,11 @@
       <c r="F693" s="1" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="694" spans="1:6">
+      <c r="G693" s="1">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7" hidden="1">
       <c r="A694" s="1">
         <v>0</v>
       </c>
@@ -14648,8 +16352,11 @@
       <c r="F694" s="1" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="695" spans="1:6">
+      <c r="G694" s="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7" hidden="1">
       <c r="A695" s="1">
         <v>0</v>
       </c>
@@ -14662,8 +16369,11 @@
       <c r="F695" s="1" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="696" spans="1:6">
+      <c r="G695" s="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7" hidden="1">
       <c r="A696" s="1">
         <v>0</v>
       </c>
@@ -14676,8 +16386,11 @@
       <c r="F696" s="1" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="697" spans="1:6">
+      <c r="G696" s="1">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7" hidden="1">
       <c r="A697" s="1">
         <v>0</v>
       </c>
@@ -14690,8 +16403,11 @@
       <c r="F697" s="1" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="698" spans="1:6">
+      <c r="G697" s="1">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7" hidden="1">
       <c r="A698" s="1">
         <v>0</v>
       </c>
@@ -14704,8 +16420,11 @@
       <c r="F698" s="1" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="699" spans="1:6">
+      <c r="G698" s="1">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7" hidden="1">
       <c r="A699" s="1">
         <v>0</v>
       </c>
@@ -14718,8 +16437,11 @@
       <c r="F699" s="1" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="700" spans="1:6">
+      <c r="G699" s="1">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7" hidden="1">
       <c r="A700" s="1">
         <v>0</v>
       </c>
@@ -14732,8 +16454,11 @@
       <c r="F700" s="1" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="701" spans="1:6">
+      <c r="G700" s="1">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7" hidden="1">
       <c r="A701" s="1">
         <v>0</v>
       </c>
@@ -14746,8 +16471,11 @@
       <c r="F701" s="1" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="702" spans="1:6">
+      <c r="G701" s="1">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7" hidden="1">
       <c r="A702" s="1">
         <v>0</v>
       </c>
@@ -14760,8 +16488,11 @@
       <c r="F702" s="1" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="703" spans="1:6">
+      <c r="G702" s="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7" hidden="1">
       <c r="A703" s="1">
         <v>0</v>
       </c>
@@ -14774,8 +16505,11 @@
       <c r="F703" s="1" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="704" spans="1:6">
+      <c r="G703" s="1">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7" hidden="1">
       <c r="A704" s="1">
         <v>0</v>
       </c>
@@ -14788,8 +16522,11 @@
       <c r="F704" s="1" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="705" spans="1:6">
+      <c r="G704" s="1">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="705" spans="1:7" hidden="1">
       <c r="A705" s="1">
         <v>0</v>
       </c>
@@ -14802,8 +16539,11 @@
       <c r="F705" s="1" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="706" spans="1:6">
+      <c r="G705" s="1">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="706" spans="1:7" hidden="1">
       <c r="A706" s="1">
         <v>0</v>
       </c>
@@ -14816,8 +16556,11 @@
       <c r="F706" s="1" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="707" spans="1:6">
+      <c r="G706" s="1">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="707" spans="1:7" hidden="1">
       <c r="A707" s="1">
         <v>0</v>
       </c>
@@ -14830,8 +16573,11 @@
       <c r="F707" s="1" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="708" spans="1:6">
+      <c r="G707" s="1">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="708" spans="1:7" hidden="1">
       <c r="A708" s="1">
         <v>0</v>
       </c>
@@ -14844,8 +16590,11 @@
       <c r="F708" s="1" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="709" spans="1:6">
+      <c r="G708" s="1">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="709" spans="1:7" hidden="1">
       <c r="A709" s="1">
         <v>0</v>
       </c>
@@ -14858,8 +16607,11 @@
       <c r="F709" s="1" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="710" spans="1:6">
+      <c r="G709" s="1">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="710" spans="1:7" hidden="1">
       <c r="A710" s="1">
         <v>0</v>
       </c>
@@ -14872,8 +16624,11 @@
       <c r="F710" s="1" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="711" spans="1:6">
+      <c r="G710" s="1">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="711" spans="1:7" hidden="1">
       <c r="A711" s="1">
         <v>0</v>
       </c>
@@ -14886,8 +16641,11 @@
       <c r="F711" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="712" spans="1:6">
+      <c r="G711" s="1">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="712" spans="1:7" hidden="1">
       <c r="A712" s="1">
         <v>0</v>
       </c>
@@ -14900,8 +16658,11 @@
       <c r="F712" s="1" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="713" spans="1:6">
+      <c r="G712" s="1">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="713" spans="1:7" hidden="1">
       <c r="A713" s="1">
         <v>0</v>
       </c>
@@ -14914,8 +16675,11 @@
       <c r="F713" s="1" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="714" spans="1:6">
+      <c r="G713" s="1">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="714" spans="1:7" hidden="1">
       <c r="A714" s="1">
         <v>0</v>
       </c>
@@ -14928,8 +16692,11 @@
       <c r="F714" s="1" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="715" spans="1:6">
+      <c r="G714" s="1">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="715" spans="1:7" hidden="1">
       <c r="A715" s="1">
         <v>0</v>
       </c>
@@ -14942,8 +16709,11 @@
       <c r="F715" s="1" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="716" spans="1:6">
+      <c r="G715" s="1">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="716" spans="1:7" hidden="1">
       <c r="A716" s="1">
         <v>0</v>
       </c>
@@ -14956,8 +16726,11 @@
       <c r="F716" s="1" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="717" spans="1:6">
+      <c r="G716" s="1">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="717" spans="1:7" hidden="1">
       <c r="A717" s="1">
         <v>0</v>
       </c>
@@ -14970,8 +16743,11 @@
       <c r="F717" s="1" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="718" spans="1:6">
+      <c r="G717" s="1">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="718" spans="1:7" hidden="1">
       <c r="A718" s="1">
         <v>0</v>
       </c>
@@ -14984,8 +16760,11 @@
       <c r="F718" s="1" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="719" spans="1:6">
+      <c r="G718" s="1">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="719" spans="1:7" hidden="1">
       <c r="A719" s="1">
         <v>0</v>
       </c>
@@ -14998,8 +16777,11 @@
       <c r="F719" s="1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="720" spans="1:6">
+      <c r="G719" s="1">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="720" spans="1:7" hidden="1">
       <c r="A720" s="1">
         <v>0</v>
       </c>
@@ -15012,8 +16794,11 @@
       <c r="F720" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="721" spans="1:6">
+      <c r="G720" s="1">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="721" spans="1:7" hidden="1">
       <c r="A721" s="1">
         <v>0</v>
       </c>
@@ -15026,8 +16811,11 @@
       <c r="F721" s="1" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="722" spans="1:6">
+      <c r="G721" s="1">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="722" spans="1:7" hidden="1">
       <c r="A722" s="1">
         <v>0</v>
       </c>
@@ -15040,8 +16828,11 @@
       <c r="F722" s="1" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="723" spans="1:6">
+      <c r="G722" s="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7" hidden="1">
       <c r="A723" s="1">
         <v>0</v>
       </c>
@@ -15054,8 +16845,11 @@
       <c r="F723" s="1" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="724" spans="1:6">
+      <c r="G723" s="1">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7" hidden="1">
       <c r="A724" s="1">
         <v>0</v>
       </c>
@@ -15068,8 +16862,11 @@
       <c r="F724" s="1" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="725" spans="1:6">
+      <c r="G724" s="1">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="725" spans="1:7" hidden="1">
       <c r="A725" s="1">
         <v>0</v>
       </c>
@@ -15082,8 +16879,11 @@
       <c r="F725" s="1" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="726" spans="1:6">
+      <c r="G725" s="1">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="726" spans="1:7" hidden="1">
       <c r="A726" s="1">
         <v>0</v>
       </c>
@@ -15096,8 +16896,11 @@
       <c r="F726" s="1" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="727" spans="1:6">
+      <c r="G726" s="1">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="727" spans="1:7" hidden="1">
       <c r="A727" s="1">
         <v>0</v>
       </c>
@@ -15110,8 +16913,11 @@
       <c r="F727" s="1" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="728" spans="1:6">
+      <c r="G727" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="728" spans="1:7" hidden="1">
       <c r="A728" s="1">
         <v>0</v>
       </c>
@@ -15124,8 +16930,11 @@
       <c r="F728" s="1" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="729" spans="1:6">
+      <c r="G728" s="1">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="729" spans="1:7" hidden="1">
       <c r="A729" s="1">
         <v>0</v>
       </c>
@@ -15138,8 +16947,11 @@
       <c r="F729" s="1" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="730" spans="1:6">
+      <c r="G729" s="1">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7" hidden="1">
       <c r="A730" s="1">
         <v>0</v>
       </c>
@@ -15152,8 +16964,11 @@
       <c r="F730" s="1" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="731" spans="1:6">
+      <c r="G730" s="1">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="731" spans="1:7" hidden="1">
       <c r="A731" s="1">
         <v>0</v>
       </c>
@@ -15166,8 +16981,11 @@
       <c r="F731" s="1" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="732" spans="1:6">
+      <c r="G731" s="1">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="732" spans="1:7" hidden="1">
       <c r="A732" s="1">
         <v>0</v>
       </c>
@@ -15180,8 +16998,11 @@
       <c r="F732" s="1" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="733" spans="1:6">
+      <c r="G732" s="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="733" spans="1:7" hidden="1">
       <c r="A733" s="1">
         <v>0</v>
       </c>
@@ -15194,8 +17015,11 @@
       <c r="F733" s="1" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="734" spans="1:6">
+      <c r="G733" s="1">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="734" spans="1:7" hidden="1">
       <c r="A734" s="1">
         <v>0</v>
       </c>
@@ -15208,8 +17032,11 @@
       <c r="F734" s="1" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="735" spans="1:6">
+      <c r="G734" s="1">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="735" spans="1:7" hidden="1">
       <c r="A735" s="1">
         <v>0</v>
       </c>
@@ -15222,8 +17049,11 @@
       <c r="F735" s="1" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="736" spans="1:6">
+      <c r="G735" s="1">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="736" spans="1:7" hidden="1">
       <c r="A736" s="1">
         <v>0</v>
       </c>
@@ -15236,8 +17066,11 @@
       <c r="F736" s="1" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="737" spans="1:6">
+      <c r="G736" s="1">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="737" spans="1:7" hidden="1">
       <c r="A737" s="1">
         <v>0</v>
       </c>
@@ -15250,8 +17083,11 @@
       <c r="F737" s="1" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="738" spans="1:6">
+      <c r="G737" s="1">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="738" spans="1:7" hidden="1">
       <c r="A738" s="1">
         <v>0</v>
       </c>
@@ -15264,8 +17100,11 @@
       <c r="F738" s="1" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="739" spans="1:6">
+      <c r="G738" s="1">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="739" spans="1:7" hidden="1">
       <c r="A739" s="1">
         <v>0</v>
       </c>
@@ -15278,8 +17117,11 @@
       <c r="F739" s="1" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="740" spans="1:6">
+      <c r="G739" s="1">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="740" spans="1:7" hidden="1">
       <c r="A740" s="1">
         <v>0</v>
       </c>
@@ -15292,8 +17134,11 @@
       <c r="F740" s="1" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="741" spans="1:6">
+      <c r="G740" s="1">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="741" spans="1:7" hidden="1">
       <c r="A741" s="1">
         <v>0</v>
       </c>
@@ -15306,8 +17151,11 @@
       <c r="F741" s="1" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="742" spans="1:6">
+      <c r="G741" s="1">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="742" spans="1:7" hidden="1">
       <c r="A742" s="1">
         <v>0</v>
       </c>
@@ -15320,8 +17168,11 @@
       <c r="F742" s="1" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="743" spans="1:6">
+      <c r="G742" s="1">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7" hidden="1">
       <c r="A743" s="1">
         <v>0</v>
       </c>
@@ -15334,9 +17185,18 @@
       <c r="F743" s="1" t="s">
         <v>570</v>
       </c>
+      <c r="G743" s="1">
+        <v>571</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F743" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F743" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="藥草"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TTH2SP/database.xlsx
+++ b/TTH2SP/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Videos\TTH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916484C2-16E6-4F95-ACFE-03030FBF199D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64379062-ED0F-4F7D-96B9-11658F1E3078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3116" uniqueCount="690">
   <si>
     <t>0x0</t>
   </si>
@@ -2099,6 +2099,90 @@
   </si>
   <si>
     <t>百花朝露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮靴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍者草鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長靴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長筒護靴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神行百里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千里追風</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萬里流行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重鐵鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼靴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天蕩飄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神行靴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍神的寶鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靈隱飄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精工繡花鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧靴無影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五鬼縮地靴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧靴疾風</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>風火輪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧靴閃電</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊保留</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2468,11 +2552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G743"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C392" sqref="C392"/>
+    <sheetView tabSelected="1" topLeftCell="A589" workbookViewId="0">
+      <selection activeCell="C609" sqref="C609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2505,7 +2588,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2525,7 +2608,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2545,7 +2628,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2565,7 +2648,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2585,7 +2668,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -2605,7 +2688,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -2625,7 +2708,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -2645,7 +2728,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -2665,7 +2748,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -2685,7 +2768,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -2705,7 +2788,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -2725,7 +2808,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -2745,7 +2828,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -2765,7 +2848,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -2785,7 +2868,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -2805,7 +2888,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -2825,7 +2908,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -2845,7 +2928,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -2865,7 +2948,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -2885,7 +2968,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -2905,7 +2988,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -2925,7 +3008,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -2945,7 +3028,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -2965,7 +3048,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -2985,7 +3068,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -3005,7 +3088,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -3025,7 +3108,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -3045,7 +3128,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -3065,7 +3148,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -3085,7 +3168,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -3105,7 +3188,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -3125,7 +3208,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -3145,7 +3228,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -3165,7 +3248,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1">
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -3185,7 +3268,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -3205,7 +3288,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1">
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -3225,7 +3308,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1">
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -3245,7 +3328,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1">
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -3265,7 +3348,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -3285,7 +3368,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1">
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -3305,7 +3388,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1">
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -3325,7 +3408,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1">
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -3345,7 +3428,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1">
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -3365,7 +3448,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1">
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>1</v>
       </c>
@@ -3385,7 +3468,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1">
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>1</v>
       </c>
@@ -3405,7 +3488,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1">
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -3425,7 +3508,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1">
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -3445,7 +3528,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1">
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -3465,7 +3548,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1">
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -3485,7 +3568,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1">
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -3505,7 +3588,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1">
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -3525,7 +3608,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1">
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -3545,7 +3628,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1">
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>1</v>
       </c>
@@ -3565,7 +3648,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1">
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>1</v>
       </c>
@@ -3585,7 +3668,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1">
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -3605,7 +3688,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1">
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>1</v>
       </c>
@@ -3625,7 +3708,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1">
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>1</v>
       </c>
@@ -3645,7 +3728,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1">
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>1</v>
       </c>
@@ -3665,7 +3748,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1">
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>1</v>
       </c>
@@ -3685,7 +3768,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1">
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>1</v>
       </c>
@@ -3705,7 +3788,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1">
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>1</v>
       </c>
@@ -3725,7 +3808,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1">
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>1</v>
       </c>
@@ -3745,7 +3828,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1">
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>1</v>
       </c>
@@ -3765,7 +3848,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1">
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>1</v>
       </c>
@@ -3785,7 +3868,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1">
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>1</v>
       </c>
@@ -3805,7 +3888,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1">
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>1</v>
       </c>
@@ -3825,7 +3908,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1">
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>1</v>
       </c>
@@ -3845,7 +3928,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1">
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>1</v>
       </c>
@@ -3865,7 +3948,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1">
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>1</v>
       </c>
@@ -3885,7 +3968,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1">
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>1</v>
       </c>
@@ -3905,7 +3988,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1">
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>1</v>
       </c>
@@ -3925,7 +4008,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1">
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>1</v>
       </c>
@@ -3945,7 +4028,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1">
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>1</v>
       </c>
@@ -3965,7 +4048,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1">
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>1</v>
       </c>
@@ -3985,7 +4068,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1">
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>1</v>
       </c>
@@ -4005,7 +4088,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1">
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>1</v>
       </c>
@@ -4025,7 +4108,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1">
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>1</v>
       </c>
@@ -4045,7 +4128,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1">
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>1</v>
       </c>
@@ -4065,7 +4148,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1">
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>1</v>
       </c>
@@ -4085,7 +4168,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1">
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>1</v>
       </c>
@@ -4105,7 +4188,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1">
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>1</v>
       </c>
@@ -4125,7 +4208,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1">
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>1</v>
       </c>
@@ -4145,7 +4228,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1">
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>1</v>
       </c>
@@ -4165,7 +4248,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1">
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>1</v>
       </c>
@@ -4185,7 +4268,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1">
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>1</v>
       </c>
@@ -4205,7 +4288,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1">
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>1</v>
       </c>
@@ -4225,7 +4308,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1">
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>1</v>
       </c>
@@ -4245,7 +4328,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1">
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>1</v>
       </c>
@@ -4265,7 +4348,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1">
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>1</v>
       </c>
@@ -4285,7 +4368,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1">
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>1</v>
       </c>
@@ -4305,7 +4388,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1">
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>1</v>
       </c>
@@ -4325,7 +4408,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1">
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>1</v>
       </c>
@@ -4345,7 +4428,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1">
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>1</v>
       </c>
@@ -4365,7 +4448,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1">
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>1</v>
       </c>
@@ -4385,7 +4468,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1">
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>1</v>
       </c>
@@ -4405,7 +4488,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1">
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>1</v>
       </c>
@@ -4425,7 +4508,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1">
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>1</v>
       </c>
@@ -4445,7 +4528,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1">
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>1</v>
       </c>
@@ -4465,7 +4548,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1">
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -4485,7 +4568,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1">
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>1</v>
       </c>
@@ -4505,7 +4588,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1">
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>1</v>
       </c>
@@ -4525,7 +4608,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1">
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>1</v>
       </c>
@@ -4545,7 +4628,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1">
+    <row r="104" spans="1:6">
       <c r="A104" s="1">
         <v>1</v>
       </c>
@@ -4565,7 +4648,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1">
+    <row r="105" spans="1:6">
       <c r="A105" s="1">
         <v>1</v>
       </c>
@@ -4585,7 +4668,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1">
+    <row r="106" spans="1:6">
       <c r="A106" s="1">
         <v>1</v>
       </c>
@@ -4605,7 +4688,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1">
+    <row r="107" spans="1:6">
       <c r="A107" s="1">
         <v>1</v>
       </c>
@@ -4625,7 +4708,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1">
+    <row r="108" spans="1:6">
       <c r="A108" s="1">
         <v>1</v>
       </c>
@@ -4645,7 +4728,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1">
+    <row r="109" spans="1:6">
       <c r="A109" s="1">
         <v>1</v>
       </c>
@@ -4665,7 +4748,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1">
+    <row r="110" spans="1:6">
       <c r="A110" s="1">
         <v>1</v>
       </c>
@@ -4685,7 +4768,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1">
+    <row r="111" spans="1:6">
       <c r="A111" s="1">
         <v>1</v>
       </c>
@@ -4705,7 +4788,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1">
+    <row r="112" spans="1:6">
       <c r="A112" s="1">
         <v>1</v>
       </c>
@@ -4725,7 +4808,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1">
+    <row r="113" spans="1:6">
       <c r="A113" s="1">
         <v>1</v>
       </c>
@@ -4745,7 +4828,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1">
+    <row r="114" spans="1:6">
       <c r="A114" s="1">
         <v>1</v>
       </c>
@@ -4765,7 +4848,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1">
+    <row r="115" spans="1:6">
       <c r="A115" s="1">
         <v>1</v>
       </c>
@@ -4785,7 +4868,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1">
+    <row r="116" spans="1:6">
       <c r="A116" s="1">
         <v>1</v>
       </c>
@@ -4805,7 +4888,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1">
+    <row r="117" spans="1:6">
       <c r="A117" s="1">
         <v>1</v>
       </c>
@@ -4825,7 +4908,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1">
+    <row r="118" spans="1:6">
       <c r="A118" s="1">
         <v>1</v>
       </c>
@@ -4845,7 +4928,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1">
+    <row r="119" spans="1:6">
       <c r="A119" s="1">
         <v>1</v>
       </c>
@@ -4865,7 +4948,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1">
+    <row r="120" spans="1:6">
       <c r="A120" s="1">
         <v>1</v>
       </c>
@@ -4885,7 +4968,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1">
+    <row r="121" spans="1:6">
       <c r="A121" s="1">
         <v>1</v>
       </c>
@@ -4905,7 +4988,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1">
+    <row r="122" spans="1:6">
       <c r="A122" s="1">
         <v>1</v>
       </c>
@@ -4925,7 +5008,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1">
+    <row r="123" spans="1:6">
       <c r="A123" s="1">
         <v>1</v>
       </c>
@@ -4945,7 +5028,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1">
+    <row r="124" spans="1:6">
       <c r="A124" s="1">
         <v>1</v>
       </c>
@@ -4965,7 +5048,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1">
+    <row r="125" spans="1:6">
       <c r="A125" s="1">
         <v>1</v>
       </c>
@@ -4985,7 +5068,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1">
+    <row r="126" spans="1:6">
       <c r="A126" s="1">
         <v>1</v>
       </c>
@@ -5005,7 +5088,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1">
+    <row r="127" spans="1:6">
       <c r="A127" s="1">
         <v>1</v>
       </c>
@@ -5025,7 +5108,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1">
+    <row r="128" spans="1:6">
       <c r="A128" s="1">
         <v>1</v>
       </c>
@@ -5045,7 +5128,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1">
+    <row r="129" spans="1:6">
       <c r="A129" s="1">
         <v>1</v>
       </c>
@@ -5065,7 +5148,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1">
+    <row r="130" spans="1:6">
       <c r="A130" s="1">
         <v>1</v>
       </c>
@@ -5085,7 +5168,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1">
+    <row r="131" spans="1:6">
       <c r="A131" s="1">
         <v>1</v>
       </c>
@@ -5105,7 +5188,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1">
+    <row r="132" spans="1:6">
       <c r="A132" s="1">
         <v>1</v>
       </c>
@@ -5125,7 +5208,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1">
+    <row r="133" spans="1:6">
       <c r="A133" s="1">
         <v>1</v>
       </c>
@@ -5145,7 +5228,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1">
+    <row r="134" spans="1:6">
       <c r="A134" s="1">
         <v>1</v>
       </c>
@@ -5165,7 +5248,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1">
+    <row r="135" spans="1:6">
       <c r="A135" s="1">
         <v>1</v>
       </c>
@@ -5185,7 +5268,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1">
+    <row r="136" spans="1:6">
       <c r="A136" s="1">
         <v>1</v>
       </c>
@@ -5205,7 +5288,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1">
+    <row r="137" spans="1:6">
       <c r="A137" s="1">
         <v>1</v>
       </c>
@@ -5225,7 +5308,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1">
+    <row r="138" spans="1:6">
       <c r="A138" s="1">
         <v>1</v>
       </c>
@@ -5245,7 +5328,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1">
+    <row r="139" spans="1:6">
       <c r="A139" s="1">
         <v>1</v>
       </c>
@@ -5265,7 +5348,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1">
+    <row r="140" spans="1:6">
       <c r="A140" s="1">
         <v>1</v>
       </c>
@@ -5285,7 +5368,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1">
+    <row r="141" spans="1:6">
       <c r="A141" s="1">
         <v>1</v>
       </c>
@@ -5305,7 +5388,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1">
+    <row r="142" spans="1:6">
       <c r="A142" s="1">
         <v>1</v>
       </c>
@@ -5325,7 +5408,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1">
+    <row r="143" spans="1:6">
       <c r="A143" s="1">
         <v>1</v>
       </c>
@@ -5345,7 +5428,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1">
+    <row r="144" spans="1:6">
       <c r="A144" s="1">
         <v>1</v>
       </c>
@@ -5365,7 +5448,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1">
+    <row r="145" spans="1:6">
       <c r="A145" s="1">
         <v>1</v>
       </c>
@@ -5385,7 +5468,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1">
+    <row r="146" spans="1:6">
       <c r="A146" s="1">
         <v>1</v>
       </c>
@@ -5405,7 +5488,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1">
+    <row r="147" spans="1:6">
       <c r="A147" s="1">
         <v>1</v>
       </c>
@@ -5425,7 +5508,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1">
+    <row r="148" spans="1:6">
       <c r="A148" s="1">
         <v>1</v>
       </c>
@@ -5445,7 +5528,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1">
+    <row r="149" spans="1:6">
       <c r="A149" s="1">
         <v>1</v>
       </c>
@@ -5465,7 +5548,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1">
+    <row r="150" spans="1:6">
       <c r="A150" s="1">
         <v>1</v>
       </c>
@@ -5485,7 +5568,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1">
+    <row r="151" spans="1:6">
       <c r="A151" s="1">
         <v>1</v>
       </c>
@@ -5505,7 +5588,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1">
+    <row r="152" spans="1:6">
       <c r="A152" s="1">
         <v>1</v>
       </c>
@@ -5525,7 +5608,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1">
+    <row r="153" spans="1:6">
       <c r="A153" s="1">
         <v>1</v>
       </c>
@@ -5545,7 +5628,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1">
+    <row r="154" spans="1:6">
       <c r="A154" s="1">
         <v>1</v>
       </c>
@@ -5565,7 +5648,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1">
+    <row r="155" spans="1:6">
       <c r="A155" s="1">
         <v>1</v>
       </c>
@@ -5585,7 +5668,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1">
+    <row r="156" spans="1:6">
       <c r="A156" s="1">
         <v>1</v>
       </c>
@@ -5605,7 +5688,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1">
+    <row r="157" spans="1:6">
       <c r="A157" s="1">
         <v>1</v>
       </c>
@@ -5625,7 +5708,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1">
+    <row r="158" spans="1:6">
       <c r="A158" s="1">
         <v>1</v>
       </c>
@@ -5645,7 +5728,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1">
+    <row r="159" spans="1:6">
       <c r="A159" s="1">
         <v>1</v>
       </c>
@@ -5665,7 +5748,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1">
+    <row r="160" spans="1:6">
       <c r="A160" s="1">
         <v>1</v>
       </c>
@@ -5685,7 +5768,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1">
+    <row r="161" spans="1:7">
       <c r="A161" s="1">
         <v>1</v>
       </c>
@@ -5705,7 +5788,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1">
+    <row r="162" spans="1:7">
       <c r="A162" s="1">
         <v>1</v>
       </c>
@@ -5725,7 +5808,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1">
+    <row r="163" spans="1:7">
       <c r="A163" s="1">
         <v>1</v>
       </c>
@@ -5745,7 +5828,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1">
+    <row r="164" spans="1:7">
       <c r="A164" s="1">
         <v>1</v>
       </c>
@@ -5765,7 +5848,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1">
+    <row r="165" spans="1:7">
       <c r="A165" s="1">
         <v>1</v>
       </c>
@@ -5785,7 +5868,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1">
+    <row r="166" spans="1:7">
       <c r="A166" s="1">
         <v>1</v>
       </c>
@@ -5805,7 +5888,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1">
+    <row r="167" spans="1:7">
       <c r="A167" s="1">
         <v>1</v>
       </c>
@@ -5825,7 +5908,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1">
+    <row r="168" spans="1:7">
       <c r="A168" s="1">
         <v>1</v>
       </c>
@@ -5845,7 +5928,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1">
+    <row r="169" spans="1:7">
       <c r="A169" s="1">
         <v>1</v>
       </c>
@@ -5865,7 +5948,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1">
+    <row r="170" spans="1:7">
       <c r="A170" s="1">
         <v>1</v>
       </c>
@@ -5885,7 +5968,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1">
+    <row r="171" spans="1:7">
       <c r="A171" s="1">
         <v>1</v>
       </c>
@@ -5905,7 +5988,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1">
+    <row r="172" spans="1:7">
       <c r="A172" s="1">
         <v>1</v>
       </c>
@@ -5925,7 +6008,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1">
+    <row r="173" spans="1:7">
       <c r="A173" s="1">
         <v>1</v>
       </c>
@@ -5948,7 +6031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1">
+    <row r="174" spans="1:7">
       <c r="A174" s="1">
         <v>1</v>
       </c>
@@ -5968,7 +6051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1">
+    <row r="175" spans="1:7">
       <c r="A175" s="1">
         <v>1</v>
       </c>
@@ -5988,7 +6071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1">
+    <row r="176" spans="1:7">
       <c r="A176" s="1">
         <v>1</v>
       </c>
@@ -6008,7 +6091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1">
+    <row r="177" spans="1:7">
       <c r="A177" s="1">
         <v>1</v>
       </c>
@@ -6028,7 +6111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1">
+    <row r="178" spans="1:7">
       <c r="A178" s="1">
         <v>1</v>
       </c>
@@ -6048,7 +6131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1">
+    <row r="179" spans="1:7">
       <c r="A179" s="1">
         <v>1</v>
       </c>
@@ -6068,7 +6151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1">
+    <row r="180" spans="1:7">
       <c r="A180" s="1">
         <v>1</v>
       </c>
@@ -6088,7 +6171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1">
+    <row r="181" spans="1:7">
       <c r="A181" s="1">
         <v>1</v>
       </c>
@@ -6108,7 +6191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1">
+    <row r="182" spans="1:7">
       <c r="A182" s="1">
         <v>1</v>
       </c>
@@ -6128,7 +6211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1">
+    <row r="183" spans="1:7">
       <c r="A183" s="1">
         <v>1</v>
       </c>
@@ -6148,7 +6231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1">
+    <row r="184" spans="1:7">
       <c r="A184" s="1">
         <v>1</v>
       </c>
@@ -6168,7 +6251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1">
+    <row r="185" spans="1:7">
       <c r="A185" s="1">
         <v>1</v>
       </c>
@@ -6188,7 +6271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1">
+    <row r="186" spans="1:7">
       <c r="A186" s="1">
         <v>1</v>
       </c>
@@ -6208,7 +6291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1">
+    <row r="187" spans="1:7">
       <c r="A187" s="1">
         <v>1</v>
       </c>
@@ -6228,7 +6311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1">
+    <row r="188" spans="1:7">
       <c r="A188" s="1">
         <v>1</v>
       </c>
@@ -6248,7 +6331,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1">
+    <row r="189" spans="1:7">
       <c r="A189" s="1">
         <v>1</v>
       </c>
@@ -6268,7 +6351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1">
+    <row r="190" spans="1:7">
       <c r="A190" s="1">
         <v>1</v>
       </c>
@@ -6288,7 +6371,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1">
+    <row r="191" spans="1:7">
       <c r="A191" s="1">
         <v>1</v>
       </c>
@@ -6308,7 +6391,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1">
+    <row r="192" spans="1:7">
       <c r="A192" s="1">
         <v>1</v>
       </c>
@@ -6328,7 +6411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1">
+    <row r="193" spans="1:7">
       <c r="A193" s="1">
         <v>1</v>
       </c>
@@ -6348,7 +6431,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1">
+    <row r="194" spans="1:7">
       <c r="A194" s="1">
         <v>1</v>
       </c>
@@ -6368,7 +6451,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1">
+    <row r="195" spans="1:7">
       <c r="A195" s="1">
         <v>1</v>
       </c>
@@ -6388,7 +6471,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1">
+    <row r="196" spans="1:7">
       <c r="A196" s="1">
         <v>1</v>
       </c>
@@ -6408,7 +6491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1">
+    <row r="197" spans="1:7">
       <c r="A197" s="1">
         <v>1</v>
       </c>
@@ -6428,7 +6511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1">
+    <row r="198" spans="1:7">
       <c r="A198" s="1">
         <v>1</v>
       </c>
@@ -6448,7 +6531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1">
+    <row r="199" spans="1:7">
       <c r="A199" s="1">
         <v>1</v>
       </c>
@@ -6468,7 +6551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1">
+    <row r="200" spans="1:7">
       <c r="A200" s="1">
         <v>1</v>
       </c>
@@ -6488,7 +6571,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1">
+    <row r="201" spans="1:7">
       <c r="A201" s="1">
         <v>1</v>
       </c>
@@ -6508,7 +6591,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1">
+    <row r="202" spans="1:7">
       <c r="A202" s="1">
         <v>1</v>
       </c>
@@ -6528,7 +6611,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1">
+    <row r="203" spans="1:7">
       <c r="A203" s="1">
         <v>1</v>
       </c>
@@ -6548,7 +6631,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1">
+    <row r="204" spans="1:7">
       <c r="A204" s="1">
         <v>1</v>
       </c>
@@ -6568,7 +6651,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1">
+    <row r="205" spans="1:7">
       <c r="A205" s="1">
         <v>1</v>
       </c>
@@ -6588,7 +6671,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1">
+    <row r="206" spans="1:7">
       <c r="A206" s="1">
         <v>1</v>
       </c>
@@ -6608,7 +6691,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1">
+    <row r="207" spans="1:7">
       <c r="A207" s="1">
         <v>1</v>
       </c>
@@ -6628,7 +6711,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1">
+    <row r="208" spans="1:7">
       <c r="A208" s="1">
         <v>1</v>
       </c>
@@ -6648,7 +6731,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1">
+    <row r="209" spans="1:7">
       <c r="A209" s="1">
         <v>1</v>
       </c>
@@ -6668,7 +6751,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1">
+    <row r="210" spans="1:7">
       <c r="A210" s="1">
         <v>1</v>
       </c>
@@ -6688,7 +6771,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1">
+    <row r="211" spans="1:7">
       <c r="A211" s="1">
         <v>1</v>
       </c>
@@ -6708,7 +6791,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1">
+    <row r="212" spans="1:7">
       <c r="A212" s="1">
         <v>1</v>
       </c>
@@ -6728,7 +6811,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1">
+    <row r="213" spans="1:7">
       <c r="A213" s="1">
         <v>1</v>
       </c>
@@ -6748,7 +6831,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1">
+    <row r="214" spans="1:7">
       <c r="A214" s="1">
         <v>1</v>
       </c>
@@ -6768,7 +6851,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1">
+    <row r="215" spans="1:7">
       <c r="A215" s="1">
         <v>1</v>
       </c>
@@ -6788,7 +6871,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1">
+    <row r="216" spans="1:7">
       <c r="A216" s="1">
         <v>1</v>
       </c>
@@ -6808,7 +6891,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1">
+    <row r="217" spans="1:7">
       <c r="A217" s="1">
         <v>1</v>
       </c>
@@ -6828,7 +6911,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1">
+    <row r="218" spans="1:7">
       <c r="A218" s="1">
         <v>1</v>
       </c>
@@ -6848,7 +6931,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1">
+    <row r="219" spans="1:7">
       <c r="A219" s="1">
         <v>1</v>
       </c>
@@ -6868,7 +6951,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1">
+    <row r="220" spans="1:7">
       <c r="A220" s="1">
         <v>1</v>
       </c>
@@ -6888,7 +6971,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1">
+    <row r="221" spans="1:7">
       <c r="A221" s="1">
         <v>1</v>
       </c>
@@ -6908,7 +6991,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1">
+    <row r="222" spans="1:7">
       <c r="A222" s="1">
         <v>1</v>
       </c>
@@ -6928,7 +7011,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1">
+    <row r="223" spans="1:7">
       <c r="A223" s="1">
         <v>1</v>
       </c>
@@ -6948,7 +7031,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="224" spans="1:7" hidden="1">
+    <row r="224" spans="1:7">
       <c r="A224" s="1">
         <v>1</v>
       </c>
@@ -6968,7 +7051,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1">
+    <row r="225" spans="1:7">
       <c r="A225" s="1">
         <v>1</v>
       </c>
@@ -6988,7 +7071,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1">
+    <row r="226" spans="1:7">
       <c r="A226" s="1">
         <v>1</v>
       </c>
@@ -7008,7 +7091,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1">
+    <row r="227" spans="1:7">
       <c r="A227" s="1">
         <v>1</v>
       </c>
@@ -7028,7 +7111,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1">
+    <row r="228" spans="1:7">
       <c r="A228" s="1">
         <v>1</v>
       </c>
@@ -7048,7 +7131,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1">
+    <row r="229" spans="1:7">
       <c r="A229" s="1">
         <v>1</v>
       </c>
@@ -7068,7 +7151,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1">
+    <row r="230" spans="1:7">
       <c r="A230" s="1">
         <v>1</v>
       </c>
@@ -7088,7 +7171,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1">
+    <row r="231" spans="1:7">
       <c r="A231" s="1">
         <v>1</v>
       </c>
@@ -7108,7 +7191,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1">
+    <row r="232" spans="1:7">
       <c r="A232" s="1">
         <v>1</v>
       </c>
@@ -7128,7 +7211,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1">
+    <row r="233" spans="1:7">
       <c r="A233" s="1">
         <v>1</v>
       </c>
@@ -7148,7 +7231,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1">
+    <row r="234" spans="1:7">
       <c r="A234" s="1">
         <v>1</v>
       </c>
@@ -7168,7 +7251,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1">
+    <row r="235" spans="1:7">
       <c r="A235" s="1">
         <v>1</v>
       </c>
@@ -7188,7 +7271,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1">
+    <row r="236" spans="1:7">
       <c r="A236" s="1">
         <v>1</v>
       </c>
@@ -7208,7 +7291,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="237" spans="1:7" hidden="1">
+    <row r="237" spans="1:7">
       <c r="A237" s="1">
         <v>1</v>
       </c>
@@ -7228,7 +7311,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="238" spans="1:7" hidden="1">
+    <row r="238" spans="1:7">
       <c r="A238" s="1">
         <v>1</v>
       </c>
@@ -7248,7 +7331,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1">
+    <row r="239" spans="1:7">
       <c r="A239" s="1">
         <v>1</v>
       </c>
@@ -7268,7 +7351,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1">
+    <row r="240" spans="1:7">
       <c r="A240" s="1">
         <v>1</v>
       </c>
@@ -7288,7 +7371,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="241" spans="1:7" hidden="1">
+    <row r="241" spans="1:7">
       <c r="A241" s="1">
         <v>1</v>
       </c>
@@ -7308,7 +7391,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1">
+    <row r="242" spans="1:7">
       <c r="A242" s="1">
         <v>1</v>
       </c>
@@ -7328,7 +7411,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="243" spans="1:7" hidden="1">
+    <row r="243" spans="1:7">
       <c r="A243" s="1">
         <v>1</v>
       </c>
@@ -7348,7 +7431,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1">
+    <row r="244" spans="1:7">
       <c r="A244" s="1">
         <v>1</v>
       </c>
@@ -7368,7 +7451,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="245" spans="1:7" hidden="1">
+    <row r="245" spans="1:7">
       <c r="A245" s="1">
         <v>1</v>
       </c>
@@ -7388,7 +7471,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1">
+    <row r="246" spans="1:7">
       <c r="A246" s="1">
         <v>1</v>
       </c>
@@ -7408,7 +7491,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1">
+    <row r="247" spans="1:7">
       <c r="A247" s="1">
         <v>1</v>
       </c>
@@ -7428,7 +7511,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1">
+    <row r="248" spans="1:7">
       <c r="A248" s="1">
         <v>1</v>
       </c>
@@ -7448,7 +7531,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1">
+    <row r="249" spans="1:7">
       <c r="A249" s="1">
         <v>1</v>
       </c>
@@ -7468,7 +7551,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1">
+    <row r="250" spans="1:7">
       <c r="A250" s="1">
         <v>1</v>
       </c>
@@ -7488,7 +7571,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="251" spans="1:7" hidden="1">
+    <row r="251" spans="1:7">
       <c r="A251" s="1">
         <v>1</v>
       </c>
@@ -7508,7 +7591,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1">
+    <row r="252" spans="1:7">
       <c r="A252" s="1">
         <v>1</v>
       </c>
@@ -7528,7 +7611,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1">
+    <row r="253" spans="1:7">
       <c r="A253" s="1">
         <v>1</v>
       </c>
@@ -7548,7 +7631,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1">
+    <row r="254" spans="1:7">
       <c r="A254" s="1">
         <v>1</v>
       </c>
@@ -7568,7 +7651,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1">
+    <row r="255" spans="1:7">
       <c r="A255" s="1">
         <v>1</v>
       </c>
@@ -7588,7 +7671,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1">
+    <row r="256" spans="1:7">
       <c r="A256" s="1">
         <v>1</v>
       </c>
@@ -7608,7 +7691,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1">
+    <row r="257" spans="1:7">
       <c r="A257" s="1">
         <v>1</v>
       </c>
@@ -7628,7 +7711,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="258" spans="1:7" hidden="1">
+    <row r="258" spans="1:7">
       <c r="A258" s="1">
         <v>1</v>
       </c>
@@ -7648,7 +7731,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="259" spans="1:7" hidden="1">
+    <row r="259" spans="1:7">
       <c r="A259" s="1">
         <v>1</v>
       </c>
@@ -7668,7 +7751,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1">
+    <row r="260" spans="1:7">
       <c r="A260" s="1">
         <v>1</v>
       </c>
@@ -7688,7 +7771,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="261" spans="1:7" hidden="1">
+    <row r="261" spans="1:7">
       <c r="A261" s="1">
         <v>1</v>
       </c>
@@ -7708,7 +7791,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="262" spans="1:7" hidden="1">
+    <row r="262" spans="1:7">
       <c r="A262" s="1">
         <v>1</v>
       </c>
@@ -7728,7 +7811,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="263" spans="1:7" hidden="1">
+    <row r="263" spans="1:7">
       <c r="A263" s="1">
         <v>1</v>
       </c>
@@ -7748,7 +7831,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="264" spans="1:7" hidden="1">
+    <row r="264" spans="1:7">
       <c r="A264" s="1">
         <v>1</v>
       </c>
@@ -7768,7 +7851,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="265" spans="1:7" hidden="1">
+    <row r="265" spans="1:7">
       <c r="A265" s="1">
         <v>1</v>
       </c>
@@ -7788,7 +7871,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="266" spans="1:7" hidden="1">
+    <row r="266" spans="1:7">
       <c r="A266" s="1">
         <v>1</v>
       </c>
@@ -7808,7 +7891,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="267" spans="1:7" hidden="1">
+    <row r="267" spans="1:7">
       <c r="A267" s="1">
         <v>1</v>
       </c>
@@ -7828,7 +7911,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="268" spans="1:7" hidden="1">
+    <row r="268" spans="1:7">
       <c r="A268" s="1">
         <v>1</v>
       </c>
@@ -7848,7 +7931,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="269" spans="1:7" hidden="1">
+    <row r="269" spans="1:7">
       <c r="A269" s="1">
         <v>1</v>
       </c>
@@ -7868,7 +7951,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="270" spans="1:7" hidden="1">
+    <row r="270" spans="1:7">
       <c r="A270" s="1">
         <v>1</v>
       </c>
@@ -7888,7 +7971,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="271" spans="1:7" hidden="1">
+    <row r="271" spans="1:7">
       <c r="A271" s="1">
         <v>1</v>
       </c>
@@ -7908,7 +7991,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="272" spans="1:7" hidden="1">
+    <row r="272" spans="1:7">
       <c r="A272" s="1">
         <v>1</v>
       </c>
@@ -7928,7 +8011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="273" spans="1:7" hidden="1">
+    <row r="273" spans="1:7">
       <c r="A273" s="1">
         <v>1</v>
       </c>
@@ -7948,7 +8031,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="274" spans="1:7" hidden="1">
+    <row r="274" spans="1:7">
       <c r="A274" s="1">
         <v>1</v>
       </c>
@@ -7968,7 +8051,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="275" spans="1:7" hidden="1">
+    <row r="275" spans="1:7">
       <c r="A275" s="1">
         <v>1</v>
       </c>
@@ -7988,7 +8071,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="276" spans="1:7" hidden="1">
+    <row r="276" spans="1:7">
       <c r="A276" s="1">
         <v>1</v>
       </c>
@@ -8008,7 +8091,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="277" spans="1:7" hidden="1">
+    <row r="277" spans="1:7">
       <c r="A277" s="1">
         <v>1</v>
       </c>
@@ -8028,7 +8111,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="278" spans="1:7" hidden="1">
+    <row r="278" spans="1:7">
       <c r="A278" s="1">
         <v>1</v>
       </c>
@@ -8048,7 +8131,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="279" spans="1:7" hidden="1">
+    <row r="279" spans="1:7">
       <c r="A279" s="1">
         <v>1</v>
       </c>
@@ -8068,7 +8151,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="280" spans="1:7" hidden="1">
+    <row r="280" spans="1:7">
       <c r="A280" s="1">
         <v>1</v>
       </c>
@@ -8088,7 +8171,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="281" spans="1:7" hidden="1">
+    <row r="281" spans="1:7">
       <c r="A281" s="1">
         <v>1</v>
       </c>
@@ -8108,7 +8191,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="282" spans="1:7" hidden="1">
+    <row r="282" spans="1:7">
       <c r="A282" s="1">
         <v>1</v>
       </c>
@@ -8128,7 +8211,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="283" spans="1:7" hidden="1">
+    <row r="283" spans="1:7">
       <c r="A283" s="1">
         <v>1</v>
       </c>
@@ -8148,7 +8231,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="284" spans="1:7" hidden="1">
+    <row r="284" spans="1:7">
       <c r="A284" s="1">
         <v>1</v>
       </c>
@@ -8168,7 +8251,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="285" spans="1:7" hidden="1">
+    <row r="285" spans="1:7">
       <c r="A285" s="1">
         <v>1</v>
       </c>
@@ -8188,7 +8271,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="286" spans="1:7" hidden="1">
+    <row r="286" spans="1:7">
       <c r="A286" s="1">
         <v>1</v>
       </c>
@@ -8208,7 +8291,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="287" spans="1:7" hidden="1">
+    <row r="287" spans="1:7">
       <c r="A287" s="1">
         <v>1</v>
       </c>
@@ -8228,7 +8311,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="288" spans="1:7" hidden="1">
+    <row r="288" spans="1:7">
       <c r="A288" s="1">
         <v>1</v>
       </c>
@@ -8248,7 +8331,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="289" spans="1:7" hidden="1">
+    <row r="289" spans="1:7">
       <c r="A289" s="1">
         <v>1</v>
       </c>
@@ -8268,7 +8351,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1">
+    <row r="290" spans="1:7">
       <c r="A290" s="1">
         <v>1</v>
       </c>
@@ -8288,7 +8371,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="291" spans="1:7" hidden="1">
+    <row r="291" spans="1:7">
       <c r="A291" s="1">
         <v>1</v>
       </c>
@@ -8308,7 +8391,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="292" spans="1:7" hidden="1">
+    <row r="292" spans="1:7">
       <c r="A292" s="1">
         <v>1</v>
       </c>
@@ -8328,7 +8411,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="293" spans="1:7" hidden="1">
+    <row r="293" spans="1:7">
       <c r="A293" s="1">
         <v>1</v>
       </c>
@@ -8348,7 +8431,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="294" spans="1:7" hidden="1">
+    <row r="294" spans="1:7">
       <c r="A294" s="1">
         <v>1</v>
       </c>
@@ -8368,7 +8451,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="295" spans="1:7" hidden="1">
+    <row r="295" spans="1:7">
       <c r="A295" s="1">
         <v>1</v>
       </c>
@@ -8388,7 +8471,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="296" spans="1:7" hidden="1">
+    <row r="296" spans="1:7">
       <c r="A296" s="1">
         <v>1</v>
       </c>
@@ -8408,7 +8491,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="297" spans="1:7" hidden="1">
+    <row r="297" spans="1:7">
       <c r="A297" s="1">
         <v>1</v>
       </c>
@@ -8428,7 +8511,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="298" spans="1:7" hidden="1">
+    <row r="298" spans="1:7">
       <c r="A298" s="1">
         <v>1</v>
       </c>
@@ -8448,7 +8531,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="299" spans="1:7" hidden="1">
+    <row r="299" spans="1:7">
       <c r="A299" s="1">
         <v>1</v>
       </c>
@@ -8468,7 +8551,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="300" spans="1:7" hidden="1">
+    <row r="300" spans="1:7">
       <c r="A300" s="1">
         <v>1</v>
       </c>
@@ -8488,7 +8571,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="301" spans="1:7" hidden="1">
+    <row r="301" spans="1:7">
       <c r="A301" s="1">
         <v>1</v>
       </c>
@@ -8508,7 +8591,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="302" spans="1:7" hidden="1">
+    <row r="302" spans="1:7">
       <c r="A302" s="1">
         <v>1</v>
       </c>
@@ -8528,7 +8611,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="303" spans="1:7" hidden="1">
+    <row r="303" spans="1:7">
       <c r="A303" s="1">
         <v>1</v>
       </c>
@@ -8548,7 +8631,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="304" spans="1:7" hidden="1">
+    <row r="304" spans="1:7">
       <c r="A304" s="1">
         <v>1</v>
       </c>
@@ -8568,7 +8651,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="305" spans="1:7" hidden="1">
+    <row r="305" spans="1:7">
       <c r="A305" s="1">
         <v>1</v>
       </c>
@@ -8588,7 +8671,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="306" spans="1:7" hidden="1">
+    <row r="306" spans="1:7">
       <c r="A306" s="1">
         <v>1</v>
       </c>
@@ -8608,7 +8691,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="307" spans="1:7" hidden="1">
+    <row r="307" spans="1:7">
       <c r="A307" s="1">
         <v>1</v>
       </c>
@@ -8628,7 +8711,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="308" spans="1:7" hidden="1">
+    <row r="308" spans="1:7">
       <c r="A308" s="1">
         <v>1</v>
       </c>
@@ -8648,7 +8731,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="309" spans="1:7" hidden="1">
+    <row r="309" spans="1:7">
       <c r="A309" s="1">
         <v>1</v>
       </c>
@@ -8668,7 +8751,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="310" spans="1:7" hidden="1">
+    <row r="310" spans="1:7">
       <c r="A310" s="1">
         <v>1</v>
       </c>
@@ -8688,7 +8771,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="311" spans="1:7" hidden="1">
+    <row r="311" spans="1:7">
       <c r="A311" s="1">
         <v>1</v>
       </c>
@@ -8708,7 +8791,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="312" spans="1:7" hidden="1">
+    <row r="312" spans="1:7">
       <c r="A312" s="1">
         <v>1</v>
       </c>
@@ -8728,7 +8811,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="313" spans="1:7" hidden="1">
+    <row r="313" spans="1:7">
       <c r="A313" s="1">
         <v>1</v>
       </c>
@@ -8748,13 +8831,16 @@
         <v>141</v>
       </c>
     </row>
-    <row r="314" spans="1:7" hidden="1">
+    <row r="314" spans="1:7">
       <c r="A314" s="1">
         <v>1</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>648</v>
       </c>
+      <c r="C314" s="1" t="s">
+        <v>669</v>
+      </c>
       <c r="D314" s="1" t="s">
         <v>586</v>
       </c>
@@ -8768,13 +8854,16 @@
         <v>142</v>
       </c>
     </row>
-    <row r="315" spans="1:7" hidden="1">
+    <row r="315" spans="1:7">
       <c r="A315" s="1">
         <v>1</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>648</v>
       </c>
+      <c r="C315" s="1" t="s">
+        <v>670</v>
+      </c>
       <c r="D315" s="1" t="s">
         <v>586</v>
       </c>
@@ -8788,13 +8877,16 @@
         <v>143</v>
       </c>
     </row>
-    <row r="316" spans="1:7" hidden="1">
+    <row r="316" spans="1:7">
       <c r="A316" s="1">
         <v>1</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>648</v>
       </c>
+      <c r="C316" s="1" t="s">
+        <v>671</v>
+      </c>
       <c r="D316" s="1" t="s">
         <v>586</v>
       </c>
@@ -8808,13 +8900,16 @@
         <v>144</v>
       </c>
     </row>
-    <row r="317" spans="1:7" hidden="1">
+    <row r="317" spans="1:7">
       <c r="A317" s="1">
         <v>1</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>648</v>
       </c>
+      <c r="C317" s="1" t="s">
+        <v>672</v>
+      </c>
       <c r="D317" s="1" t="s">
         <v>586</v>
       </c>
@@ -8828,13 +8923,16 @@
         <v>145</v>
       </c>
     </row>
-    <row r="318" spans="1:7" hidden="1">
+    <row r="318" spans="1:7">
       <c r="A318" s="1">
         <v>1</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>648</v>
       </c>
+      <c r="C318" s="1" t="s">
+        <v>673</v>
+      </c>
       <c r="D318" s="1" t="s">
         <v>586</v>
       </c>
@@ -8848,13 +8946,16 @@
         <v>146</v>
       </c>
     </row>
-    <row r="319" spans="1:7" hidden="1">
+    <row r="319" spans="1:7">
       <c r="A319" s="1">
         <v>1</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>648</v>
       </c>
+      <c r="C319" s="1" t="s">
+        <v>674</v>
+      </c>
       <c r="D319" s="1" t="s">
         <v>586</v>
       </c>
@@ -8868,13 +8969,16 @@
         <v>147</v>
       </c>
     </row>
-    <row r="320" spans="1:7" hidden="1">
+    <row r="320" spans="1:7">
       <c r="A320" s="1">
         <v>1</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>648</v>
       </c>
+      <c r="C320" s="1" t="s">
+        <v>675</v>
+      </c>
       <c r="D320" s="1" t="s">
         <v>586</v>
       </c>
@@ -8888,13 +8992,16 @@
         <v>148</v>
       </c>
     </row>
-    <row r="321" spans="1:7" hidden="1">
+    <row r="321" spans="1:7">
       <c r="A321" s="1">
         <v>1</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>648</v>
       </c>
+      <c r="C321" s="1" t="s">
+        <v>676</v>
+      </c>
       <c r="D321" s="1" t="s">
         <v>586</v>
       </c>
@@ -8908,13 +9015,16 @@
         <v>149</v>
       </c>
     </row>
-    <row r="322" spans="1:7" hidden="1">
+    <row r="322" spans="1:7">
       <c r="A322" s="1">
         <v>1</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>648</v>
       </c>
+      <c r="C322" s="1" t="s">
+        <v>677</v>
+      </c>
       <c r="D322" s="1" t="s">
         <v>586</v>
       </c>
@@ -8928,13 +9038,16 @@
         <v>150</v>
       </c>
     </row>
-    <row r="323" spans="1:7" hidden="1">
+    <row r="323" spans="1:7">
       <c r="A323" s="1">
         <v>1</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>648</v>
       </c>
+      <c r="C323" s="1" t="s">
+        <v>678</v>
+      </c>
       <c r="D323" s="1" t="s">
         <v>586</v>
       </c>
@@ -8948,13 +9061,16 @@
         <v>151</v>
       </c>
     </row>
-    <row r="324" spans="1:7" hidden="1">
+    <row r="324" spans="1:7">
       <c r="A324" s="1">
         <v>1</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>648</v>
       </c>
+      <c r="C324" s="1" t="s">
+        <v>679</v>
+      </c>
       <c r="D324" s="1" t="s">
         <v>586</v>
       </c>
@@ -8968,13 +9084,16 @@
         <v>152</v>
       </c>
     </row>
-    <row r="325" spans="1:7" hidden="1">
+    <row r="325" spans="1:7">
       <c r="A325" s="1">
         <v>1</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>648</v>
       </c>
+      <c r="C325" s="1" t="s">
+        <v>680</v>
+      </c>
       <c r="D325" s="1" t="s">
         <v>586</v>
       </c>
@@ -8988,13 +9107,16 @@
         <v>153</v>
       </c>
     </row>
-    <row r="326" spans="1:7" hidden="1">
+    <row r="326" spans="1:7">
       <c r="A326" s="1">
         <v>1</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>648</v>
       </c>
+      <c r="C326" s="1" t="s">
+        <v>681</v>
+      </c>
       <c r="D326" s="1" t="s">
         <v>586</v>
       </c>
@@ -9008,13 +9130,16 @@
         <v>154</v>
       </c>
     </row>
-    <row r="327" spans="1:7" hidden="1">
+    <row r="327" spans="1:7">
       <c r="A327" s="1">
         <v>1</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>648</v>
       </c>
+      <c r="C327" s="1" t="s">
+        <v>682</v>
+      </c>
       <c r="D327" s="1" t="s">
         <v>586</v>
       </c>
@@ -9028,13 +9153,16 @@
         <v>155</v>
       </c>
     </row>
-    <row r="328" spans="1:7" hidden="1">
+    <row r="328" spans="1:7">
       <c r="A328" s="1">
         <v>1</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>648</v>
       </c>
+      <c r="C328" s="1" t="s">
+        <v>683</v>
+      </c>
       <c r="D328" s="1" t="s">
         <v>586</v>
       </c>
@@ -9048,13 +9176,16 @@
         <v>156</v>
       </c>
     </row>
-    <row r="329" spans="1:7" hidden="1">
+    <row r="329" spans="1:7">
       <c r="A329" s="1">
         <v>1</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>648</v>
       </c>
+      <c r="C329" s="1" t="s">
+        <v>684</v>
+      </c>
       <c r="D329" s="1" t="s">
         <v>586</v>
       </c>
@@ -9068,13 +9199,16 @@
         <v>157</v>
       </c>
     </row>
-    <row r="330" spans="1:7" hidden="1">
+    <row r="330" spans="1:7">
       <c r="A330" s="1">
         <v>1</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>648</v>
       </c>
+      <c r="C330" s="1" t="s">
+        <v>685</v>
+      </c>
       <c r="D330" s="1" t="s">
         <v>586</v>
       </c>
@@ -9088,13 +9222,16 @@
         <v>158</v>
       </c>
     </row>
-    <row r="331" spans="1:7" hidden="1">
+    <row r="331" spans="1:7">
       <c r="A331" s="1">
         <v>1</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>648</v>
       </c>
+      <c r="C331" s="1" t="s">
+        <v>686</v>
+      </c>
       <c r="D331" s="1" t="s">
         <v>586</v>
       </c>
@@ -9108,13 +9245,16 @@
         <v>159</v>
       </c>
     </row>
-    <row r="332" spans="1:7" hidden="1">
+    <row r="332" spans="1:7">
       <c r="A332" s="1">
         <v>1</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>648</v>
       </c>
+      <c r="C332" s="1" t="s">
+        <v>687</v>
+      </c>
       <c r="D332" s="1" t="s">
         <v>586</v>
       </c>
@@ -9128,13 +9268,16 @@
         <v>160</v>
       </c>
     </row>
-    <row r="333" spans="1:7" hidden="1">
+    <row r="333" spans="1:7">
       <c r="A333" s="1">
         <v>1</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>648</v>
       </c>
+      <c r="C333" s="1" t="s">
+        <v>688</v>
+      </c>
       <c r="D333" s="1" t="s">
         <v>586</v>
       </c>
@@ -9539,7 +9682,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="351" spans="1:7" hidden="1">
+    <row r="351" spans="1:7">
       <c r="A351" s="1">
         <v>0</v>
       </c>
@@ -9556,7 +9699,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="352" spans="1:7" hidden="1">
+    <row r="352" spans="1:7">
       <c r="A352" s="1">
         <v>1</v>
       </c>
@@ -9576,7 +9719,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="353" spans="1:7" hidden="1">
+    <row r="353" spans="1:7">
       <c r="A353" s="1">
         <v>1</v>
       </c>
@@ -9596,7 +9739,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="354" spans="1:7" hidden="1">
+    <row r="354" spans="1:7">
       <c r="A354" s="1">
         <v>1</v>
       </c>
@@ -9616,7 +9759,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="355" spans="1:7" hidden="1">
+    <row r="355" spans="1:7">
       <c r="A355" s="1">
         <v>1</v>
       </c>
@@ -9636,7 +9779,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="356" spans="1:7" hidden="1">
+    <row r="356" spans="1:7">
       <c r="A356" s="1">
         <v>1</v>
       </c>
@@ -9656,7 +9799,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="357" spans="1:7" hidden="1">
+    <row r="357" spans="1:7">
       <c r="A357" s="1">
         <v>1</v>
       </c>
@@ -9676,7 +9819,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="358" spans="1:7" hidden="1">
+    <row r="358" spans="1:7">
       <c r="A358" s="1">
         <v>1</v>
       </c>
@@ -9696,7 +9839,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="359" spans="1:7" hidden="1">
+    <row r="359" spans="1:7">
       <c r="A359" s="1">
         <v>1</v>
       </c>
@@ -9716,7 +9859,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="360" spans="1:7" hidden="1">
+    <row r="360" spans="1:7">
       <c r="A360" s="1">
         <v>1</v>
       </c>
@@ -9736,7 +9879,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="361" spans="1:7" hidden="1">
+    <row r="361" spans="1:7">
       <c r="A361" s="1">
         <v>1</v>
       </c>
@@ -9756,7 +9899,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="362" spans="1:7" hidden="1">
+    <row r="362" spans="1:7">
       <c r="A362" s="1">
         <v>1</v>
       </c>
@@ -9776,7 +9919,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="363" spans="1:7" hidden="1">
+    <row r="363" spans="1:7">
       <c r="A363" s="1">
         <v>1</v>
       </c>
@@ -9796,7 +9939,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="364" spans="1:7" hidden="1">
+    <row r="364" spans="1:7">
       <c r="A364" s="1">
         <v>1</v>
       </c>
@@ -9816,7 +9959,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="365" spans="1:7" hidden="1">
+    <row r="365" spans="1:7">
       <c r="A365" s="1">
         <v>1</v>
       </c>
@@ -9836,7 +9979,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="366" spans="1:7" hidden="1">
+    <row r="366" spans="1:7">
       <c r="A366" s="1">
         <v>1</v>
       </c>
@@ -9856,7 +9999,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="367" spans="1:7" hidden="1">
+    <row r="367" spans="1:7">
       <c r="A367" s="1">
         <v>1</v>
       </c>
@@ -9876,7 +10019,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="368" spans="1:7" hidden="1">
+    <row r="368" spans="1:7">
       <c r="A368" s="1">
         <v>1</v>
       </c>
@@ -9896,7 +10039,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="369" spans="1:7" hidden="1">
+    <row r="369" spans="1:7">
       <c r="A369" s="1">
         <v>1</v>
       </c>
@@ -9916,7 +10059,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="370" spans="1:7" hidden="1">
+    <row r="370" spans="1:7">
       <c r="A370" s="1">
         <v>1</v>
       </c>
@@ -9936,7 +10079,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="371" spans="1:7" hidden="1">
+    <row r="371" spans="1:7">
       <c r="A371" s="1">
         <v>1</v>
       </c>
@@ -9956,7 +10099,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="372" spans="1:7" hidden="1">
+    <row r="372" spans="1:7">
       <c r="A372" s="1">
         <v>1</v>
       </c>
@@ -9976,7 +10119,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="373" spans="1:7" hidden="1">
+    <row r="373" spans="1:7">
       <c r="A373" s="1">
         <v>1</v>
       </c>
@@ -9996,7 +10139,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="374" spans="1:7" hidden="1">
+    <row r="374" spans="1:7">
       <c r="A374" s="1">
         <v>1</v>
       </c>
@@ -10016,7 +10159,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="375" spans="1:7" hidden="1">
+    <row r="375" spans="1:7">
       <c r="A375" s="1">
         <v>1</v>
       </c>
@@ -10036,7 +10179,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="376" spans="1:7" hidden="1">
+    <row r="376" spans="1:7">
       <c r="A376" s="1">
         <v>1</v>
       </c>
@@ -10056,7 +10199,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="377" spans="1:7" hidden="1">
+    <row r="377" spans="1:7">
       <c r="A377" s="1">
         <v>1</v>
       </c>
@@ -10076,7 +10219,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="378" spans="1:7" hidden="1">
+    <row r="378" spans="1:7">
       <c r="A378" s="1">
         <v>1</v>
       </c>
@@ -10096,7 +10239,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="379" spans="1:7" hidden="1">
+    <row r="379" spans="1:7">
       <c r="A379" s="1">
         <v>1</v>
       </c>
@@ -10116,7 +10259,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="380" spans="1:7" hidden="1">
+    <row r="380" spans="1:7">
       <c r="A380" s="1">
         <v>1</v>
       </c>
@@ -10136,7 +10279,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="381" spans="1:7" hidden="1">
+    <row r="381" spans="1:7">
       <c r="A381" s="1">
         <v>1</v>
       </c>
@@ -10156,7 +10299,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="382" spans="1:7" hidden="1">
+    <row r="382" spans="1:7">
       <c r="A382" s="1">
         <v>1</v>
       </c>
@@ -10176,7 +10319,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="383" spans="1:7" hidden="1">
+    <row r="383" spans="1:7">
       <c r="A383" s="1">
         <v>1</v>
       </c>
@@ -10196,7 +10339,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="384" spans="1:7" hidden="1">
+    <row r="384" spans="1:7">
       <c r="A384" s="1">
         <v>1</v>
       </c>
@@ -10216,7 +10359,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="385" spans="1:7" hidden="1">
+    <row r="385" spans="1:7">
       <c r="A385" s="1">
         <v>1</v>
       </c>
@@ -10236,7 +10379,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="386" spans="1:7" hidden="1">
+    <row r="386" spans="1:7">
       <c r="A386" s="1">
         <v>1</v>
       </c>
@@ -10256,7 +10399,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="387" spans="1:7" hidden="1">
+    <row r="387" spans="1:7">
       <c r="A387" s="1">
         <v>1</v>
       </c>
@@ -10276,7 +10419,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="388" spans="1:7" hidden="1">
+    <row r="388" spans="1:7">
       <c r="A388" s="1">
         <v>1</v>
       </c>
@@ -10296,7 +10439,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="389" spans="1:7" hidden="1">
+    <row r="389" spans="1:7">
       <c r="A389" s="1">
         <v>1</v>
       </c>
@@ -10385,7 +10528,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="393" spans="1:7" hidden="1">
+    <row r="393" spans="1:7">
       <c r="A393" s="1">
         <v>1</v>
       </c>
@@ -10405,7 +10548,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="394" spans="1:7" hidden="1">
+    <row r="394" spans="1:7">
       <c r="A394" s="1">
         <v>1</v>
       </c>
@@ -10425,7 +10568,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="395" spans="1:7" hidden="1">
+    <row r="395" spans="1:7">
       <c r="A395" s="1">
         <v>1</v>
       </c>
@@ -10445,7 +10588,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="396" spans="1:7" hidden="1">
+    <row r="396" spans="1:7">
       <c r="A396" s="1">
         <v>1</v>
       </c>
@@ -10465,7 +10608,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="397" spans="1:7" hidden="1">
+    <row r="397" spans="1:7">
       <c r="A397" s="1">
         <v>1</v>
       </c>
@@ -10485,7 +10628,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="398" spans="1:7" hidden="1">
+    <row r="398" spans="1:7">
       <c r="A398" s="1">
         <v>1</v>
       </c>
@@ -10505,7 +10648,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="399" spans="1:7" hidden="1">
+    <row r="399" spans="1:7">
       <c r="A399" s="1">
         <v>1</v>
       </c>
@@ -10525,7 +10668,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="400" spans="1:7" hidden="1">
+    <row r="400" spans="1:7">
       <c r="A400" s="1">
         <v>1</v>
       </c>
@@ -10545,7 +10688,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="401" spans="1:7" hidden="1">
+    <row r="401" spans="1:7">
       <c r="A401" s="1">
         <v>1</v>
       </c>
@@ -10565,7 +10708,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="402" spans="1:7" hidden="1">
+    <row r="402" spans="1:7">
       <c r="A402" s="1">
         <v>1</v>
       </c>
@@ -10585,7 +10728,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="403" spans="1:7" hidden="1">
+    <row r="403" spans="1:7">
       <c r="A403" s="1">
         <v>1</v>
       </c>
@@ -10605,7 +10748,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="404" spans="1:7" hidden="1">
+    <row r="404" spans="1:7">
       <c r="A404" s="1">
         <v>1</v>
       </c>
@@ -10625,7 +10768,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="405" spans="1:7" hidden="1">
+    <row r="405" spans="1:7">
       <c r="A405" s="1">
         <v>1</v>
       </c>
@@ -10645,7 +10788,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="406" spans="1:7" hidden="1">
+    <row r="406" spans="1:7">
       <c r="A406" s="1">
         <v>1</v>
       </c>
@@ -10665,7 +10808,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="407" spans="1:7" hidden="1">
+    <row r="407" spans="1:7">
       <c r="A407" s="1">
         <v>1</v>
       </c>
@@ -10685,7 +10828,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="408" spans="1:7" hidden="1">
+    <row r="408" spans="1:7">
       <c r="A408" s="1">
         <v>1</v>
       </c>
@@ -10705,7 +10848,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="409" spans="1:7" hidden="1">
+    <row r="409" spans="1:7">
       <c r="A409" s="1">
         <v>1</v>
       </c>
@@ -10725,7 +10868,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="410" spans="1:7" hidden="1">
+    <row r="410" spans="1:7">
       <c r="A410" s="1">
         <v>1</v>
       </c>
@@ -10745,7 +10888,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="411" spans="1:7" hidden="1">
+    <row r="411" spans="1:7">
       <c r="A411" s="1">
         <v>1</v>
       </c>
@@ -10765,7 +10908,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="412" spans="1:7" hidden="1">
+    <row r="412" spans="1:7">
       <c r="A412" s="1">
         <v>1</v>
       </c>
@@ -10785,7 +10928,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="413" spans="1:7" hidden="1">
+    <row r="413" spans="1:7">
       <c r="A413" s="1">
         <v>1</v>
       </c>
@@ -10805,7 +10948,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="414" spans="1:7" hidden="1">
+    <row r="414" spans="1:7">
       <c r="A414" s="1">
         <v>1</v>
       </c>
@@ -10825,7 +10968,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="415" spans="1:7" hidden="1">
+    <row r="415" spans="1:7">
       <c r="A415" s="1">
         <v>1</v>
       </c>
@@ -10845,7 +10988,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="416" spans="1:7" hidden="1">
+    <row r="416" spans="1:7">
       <c r="A416" s="1">
         <v>1</v>
       </c>
@@ -10865,7 +11008,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="417" spans="1:7" hidden="1">
+    <row r="417" spans="1:7">
       <c r="A417" s="1">
         <v>1</v>
       </c>
@@ -10885,7 +11028,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="418" spans="1:7" hidden="1">
+    <row r="418" spans="1:7">
       <c r="A418" s="1">
         <v>1</v>
       </c>
@@ -10905,7 +11048,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="419" spans="1:7" hidden="1">
+    <row r="419" spans="1:7">
       <c r="A419" s="1">
         <v>1</v>
       </c>
@@ -10925,7 +11068,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="420" spans="1:7" hidden="1">
+    <row r="420" spans="1:7">
       <c r="A420" s="1">
         <v>1</v>
       </c>
@@ -10945,7 +11088,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="421" spans="1:7" hidden="1">
+    <row r="421" spans="1:7">
       <c r="A421" s="1">
         <v>1</v>
       </c>
@@ -10965,7 +11108,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="422" spans="1:7" hidden="1">
+    <row r="422" spans="1:7">
       <c r="A422" s="1">
         <v>1</v>
       </c>
@@ -10985,7 +11128,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="423" spans="1:7" hidden="1">
+    <row r="423" spans="1:7">
       <c r="A423" s="1">
         <v>1</v>
       </c>
@@ -11005,7 +11148,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="424" spans="1:7" hidden="1">
+    <row r="424" spans="1:7">
       <c r="A424" s="1">
         <v>1</v>
       </c>
@@ -11025,7 +11168,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="425" spans="1:7" hidden="1">
+    <row r="425" spans="1:7">
       <c r="A425" s="1">
         <v>1</v>
       </c>
@@ -11045,7 +11188,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="426" spans="1:7" hidden="1">
+    <row r="426" spans="1:7">
       <c r="A426" s="1">
         <v>1</v>
       </c>
@@ -11065,7 +11208,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="427" spans="1:7" hidden="1">
+    <row r="427" spans="1:7">
       <c r="A427" s="1">
         <v>1</v>
       </c>
@@ -11085,7 +11228,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="428" spans="1:7" hidden="1">
+    <row r="428" spans="1:7">
       <c r="A428" s="1">
         <v>1</v>
       </c>
@@ -11105,7 +11248,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="429" spans="1:7" hidden="1">
+    <row r="429" spans="1:7">
       <c r="A429" s="1">
         <v>1</v>
       </c>
@@ -11125,7 +11268,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="430" spans="1:7" hidden="1">
+    <row r="430" spans="1:7">
       <c r="A430" s="1">
         <v>1</v>
       </c>
@@ -11145,7 +11288,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="431" spans="1:7" hidden="1">
+    <row r="431" spans="1:7">
       <c r="A431" s="1">
         <v>1</v>
       </c>
@@ -11165,7 +11308,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="432" spans="1:7" hidden="1">
+    <row r="432" spans="1:7">
       <c r="A432" s="1">
         <v>1</v>
       </c>
@@ -11185,7 +11328,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="433" spans="1:7" hidden="1">
+    <row r="433" spans="1:7">
       <c r="A433" s="1">
         <v>1</v>
       </c>
@@ -11205,7 +11348,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="434" spans="1:7" hidden="1">
+    <row r="434" spans="1:7">
       <c r="A434" s="1">
         <v>1</v>
       </c>
@@ -11225,7 +11368,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="435" spans="1:7" hidden="1">
+    <row r="435" spans="1:7">
       <c r="A435" s="1">
         <v>1</v>
       </c>
@@ -11245,7 +11388,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="436" spans="1:7" hidden="1">
+    <row r="436" spans="1:7">
       <c r="A436" s="1">
         <v>1</v>
       </c>
@@ -11265,7 +11408,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="437" spans="1:7" hidden="1">
+    <row r="437" spans="1:7">
       <c r="A437" s="1">
         <v>1</v>
       </c>
@@ -11285,7 +11428,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="438" spans="1:7" hidden="1">
+    <row r="438" spans="1:7">
       <c r="A438" s="1">
         <v>1</v>
       </c>
@@ -11305,7 +11448,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="439" spans="1:7" hidden="1">
+    <row r="439" spans="1:7">
       <c r="A439" s="1">
         <v>1</v>
       </c>
@@ -11325,7 +11468,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="440" spans="1:7" hidden="1">
+    <row r="440" spans="1:7">
       <c r="A440" s="1">
         <v>1</v>
       </c>
@@ -11345,7 +11488,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="441" spans="1:7" hidden="1">
+    <row r="441" spans="1:7">
       <c r="A441" s="1">
         <v>1</v>
       </c>
@@ -11365,7 +11508,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="442" spans="1:7" hidden="1">
+    <row r="442" spans="1:7">
       <c r="A442" s="1">
         <v>1</v>
       </c>
@@ -11385,7 +11528,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="443" spans="1:7" hidden="1">
+    <row r="443" spans="1:7">
       <c r="A443" s="1">
         <v>1</v>
       </c>
@@ -11405,7 +11548,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="444" spans="1:7" hidden="1">
+    <row r="444" spans="1:7">
       <c r="A444" s="1">
         <v>1</v>
       </c>
@@ -11425,7 +11568,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="445" spans="1:7" hidden="1">
+    <row r="445" spans="1:7">
       <c r="A445" s="1">
         <v>1</v>
       </c>
@@ -11445,7 +11588,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="446" spans="1:7" hidden="1">
+    <row r="446" spans="1:7">
       <c r="A446" s="1">
         <v>1</v>
       </c>
@@ -11465,7 +11608,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="447" spans="1:7" hidden="1">
+    <row r="447" spans="1:7">
       <c r="A447" s="1">
         <v>1</v>
       </c>
@@ -11485,7 +11628,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="448" spans="1:7" hidden="1">
+    <row r="448" spans="1:7">
       <c r="A448" s="1">
         <v>1</v>
       </c>
@@ -11505,7 +11648,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="449" spans="1:7" hidden="1">
+    <row r="449" spans="1:7">
       <c r="A449" s="1">
         <v>1</v>
       </c>
@@ -11525,7 +11668,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="450" spans="1:7" hidden="1">
+    <row r="450" spans="1:7">
       <c r="A450" s="1">
         <v>1</v>
       </c>
@@ -11545,7 +11688,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="451" spans="1:7" hidden="1">
+    <row r="451" spans="1:7">
       <c r="A451" s="1">
         <v>1</v>
       </c>
@@ -11565,7 +11708,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="452" spans="1:7" hidden="1">
+    <row r="452" spans="1:7">
       <c r="A452" s="1">
         <v>1</v>
       </c>
@@ -11585,7 +11728,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="453" spans="1:7" hidden="1">
+    <row r="453" spans="1:7">
       <c r="A453" s="1">
         <v>1</v>
       </c>
@@ -11605,7 +11748,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="454" spans="1:7" hidden="1">
+    <row r="454" spans="1:7">
       <c r="A454" s="1">
         <v>1</v>
       </c>
@@ -11625,7 +11768,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="455" spans="1:7" hidden="1">
+    <row r="455" spans="1:7">
       <c r="A455" s="1">
         <v>1</v>
       </c>
@@ -11645,7 +11788,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="456" spans="1:7" hidden="1">
+    <row r="456" spans="1:7">
       <c r="A456" s="1">
         <v>1</v>
       </c>
@@ -11665,7 +11808,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="457" spans="1:7" hidden="1">
+    <row r="457" spans="1:7">
       <c r="A457" s="1">
         <v>1</v>
       </c>
@@ -11685,7 +11828,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="458" spans="1:7" hidden="1">
+    <row r="458" spans="1:7">
       <c r="A458" s="1">
         <v>1</v>
       </c>
@@ -11705,7 +11848,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="459" spans="1:7" hidden="1">
+    <row r="459" spans="1:7">
       <c r="A459" s="1">
         <v>1</v>
       </c>
@@ -11725,7 +11868,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="460" spans="1:7" hidden="1">
+    <row r="460" spans="1:7">
       <c r="A460" s="1">
         <v>1</v>
       </c>
@@ -11745,7 +11888,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="461" spans="1:7" hidden="1">
+    <row r="461" spans="1:7">
       <c r="A461" s="1">
         <v>1</v>
       </c>
@@ -11765,7 +11908,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="462" spans="1:7" hidden="1">
+    <row r="462" spans="1:7">
       <c r="A462" s="1">
         <v>1</v>
       </c>
@@ -11785,7 +11928,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="463" spans="1:7" hidden="1">
+    <row r="463" spans="1:7">
       <c r="A463" s="1">
         <v>1</v>
       </c>
@@ -11805,7 +11948,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="464" spans="1:7" hidden="1">
+    <row r="464" spans="1:7">
       <c r="A464" s="1">
         <v>1</v>
       </c>
@@ -11825,7 +11968,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="465" spans="1:7" hidden="1">
+    <row r="465" spans="1:7">
       <c r="A465" s="1">
         <v>1</v>
       </c>
@@ -11845,7 +11988,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="466" spans="1:7" hidden="1">
+    <row r="466" spans="1:7">
       <c r="A466" s="1">
         <v>1</v>
       </c>
@@ -11865,7 +12008,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="467" spans="1:7" hidden="1">
+    <row r="467" spans="1:7">
       <c r="A467" s="1">
         <v>1</v>
       </c>
@@ -11885,7 +12028,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="468" spans="1:7" hidden="1">
+    <row r="468" spans="1:7">
       <c r="A468" s="1">
         <v>1</v>
       </c>
@@ -11905,7 +12048,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="469" spans="1:7" hidden="1">
+    <row r="469" spans="1:7">
       <c r="A469" s="1">
         <v>1</v>
       </c>
@@ -11925,7 +12068,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="470" spans="1:7" hidden="1">
+    <row r="470" spans="1:7">
       <c r="A470" s="1">
         <v>1</v>
       </c>
@@ -11945,7 +12088,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="471" spans="1:7" hidden="1">
+    <row r="471" spans="1:7">
       <c r="A471" s="1">
         <v>1</v>
       </c>
@@ -11965,7 +12108,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="472" spans="1:7" hidden="1">
+    <row r="472" spans="1:7">
       <c r="A472" s="1">
         <v>1</v>
       </c>
@@ -11985,7 +12128,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="473" spans="1:7" hidden="1">
+    <row r="473" spans="1:7">
       <c r="A473" s="1">
         <v>1</v>
       </c>
@@ -12005,7 +12148,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="474" spans="1:7" hidden="1">
+    <row r="474" spans="1:7">
       <c r="A474" s="1">
         <v>1</v>
       </c>
@@ -12025,7 +12168,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="475" spans="1:7" hidden="1">
+    <row r="475" spans="1:7">
       <c r="A475" s="1">
         <v>1</v>
       </c>
@@ -12045,7 +12188,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="476" spans="1:7" hidden="1">
+    <row r="476" spans="1:7">
       <c r="A476" s="1">
         <v>1</v>
       </c>
@@ -12065,7 +12208,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="477" spans="1:7" hidden="1">
+    <row r="477" spans="1:7">
       <c r="A477" s="1">
         <v>1</v>
       </c>
@@ -12085,7 +12228,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="478" spans="1:7" hidden="1">
+    <row r="478" spans="1:7">
       <c r="A478" s="1">
         <v>1</v>
       </c>
@@ -12105,7 +12248,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="479" spans="1:7" hidden="1">
+    <row r="479" spans="1:7">
       <c r="A479" s="1">
         <v>1</v>
       </c>
@@ -12125,7 +12268,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="480" spans="1:7" hidden="1">
+    <row r="480" spans="1:7">
       <c r="A480" s="1">
         <v>1</v>
       </c>
@@ -12145,7 +12288,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="481" spans="1:7" hidden="1">
+    <row r="481" spans="1:7">
       <c r="A481" s="1">
         <v>1</v>
       </c>
@@ -12165,7 +12308,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="482" spans="1:7" hidden="1">
+    <row r="482" spans="1:7">
       <c r="A482" s="1">
         <v>1</v>
       </c>
@@ -12185,7 +12328,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="483" spans="1:7" hidden="1">
+    <row r="483" spans="1:7">
       <c r="A483" s="1">
         <v>1</v>
       </c>
@@ -12205,7 +12348,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="484" spans="1:7" hidden="1">
+    <row r="484" spans="1:7">
       <c r="A484" s="1">
         <v>1</v>
       </c>
@@ -12225,7 +12368,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="485" spans="1:7" hidden="1">
+    <row r="485" spans="1:7">
       <c r="A485" s="1">
         <v>1</v>
       </c>
@@ -12245,7 +12388,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="486" spans="1:7" hidden="1">
+    <row r="486" spans="1:7">
       <c r="A486" s="1">
         <v>1</v>
       </c>
@@ -12265,7 +12408,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="487" spans="1:7" hidden="1">
+    <row r="487" spans="1:7">
       <c r="A487" s="1">
         <v>1</v>
       </c>
@@ -12285,7 +12428,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="488" spans="1:7" hidden="1">
+    <row r="488" spans="1:7">
       <c r="A488" s="1">
         <v>1</v>
       </c>
@@ -12305,7 +12448,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="489" spans="1:7" hidden="1">
+    <row r="489" spans="1:7">
       <c r="A489" s="1">
         <v>1</v>
       </c>
@@ -12325,7 +12468,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="490" spans="1:7" hidden="1">
+    <row r="490" spans="1:7">
       <c r="A490" s="1">
         <v>1</v>
       </c>
@@ -12345,7 +12488,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="491" spans="1:7" hidden="1">
+    <row r="491" spans="1:7">
       <c r="A491" s="1">
         <v>1</v>
       </c>
@@ -12365,7 +12508,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="492" spans="1:7" hidden="1">
+    <row r="492" spans="1:7">
       <c r="A492" s="1">
         <v>1</v>
       </c>
@@ -12385,7 +12528,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="493" spans="1:7" hidden="1">
+    <row r="493" spans="1:7">
       <c r="A493" s="1">
         <v>1</v>
       </c>
@@ -12405,7 +12548,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="494" spans="1:7" hidden="1">
+    <row r="494" spans="1:7">
       <c r="A494" s="1">
         <v>1</v>
       </c>
@@ -12425,7 +12568,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="495" spans="1:7" hidden="1">
+    <row r="495" spans="1:7">
       <c r="A495" s="1">
         <v>1</v>
       </c>
@@ -12445,7 +12588,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="496" spans="1:7" hidden="1">
+    <row r="496" spans="1:7">
       <c r="A496" s="1">
         <v>1</v>
       </c>
@@ -12465,7 +12608,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="497" spans="1:7" hidden="1">
+    <row r="497" spans="1:7">
       <c r="A497" s="1">
         <v>1</v>
       </c>
@@ -12485,7 +12628,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="498" spans="1:7" hidden="1">
+    <row r="498" spans="1:7">
       <c r="A498" s="1">
         <v>1</v>
       </c>
@@ -12505,7 +12648,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="499" spans="1:7" hidden="1">
+    <row r="499" spans="1:7">
       <c r="A499" s="1">
         <v>1</v>
       </c>
@@ -12525,7 +12668,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="500" spans="1:7" hidden="1">
+    <row r="500" spans="1:7">
       <c r="A500" s="1">
         <v>1</v>
       </c>
@@ -12545,7 +12688,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="501" spans="1:7" hidden="1">
+    <row r="501" spans="1:7">
       <c r="A501" s="1">
         <v>1</v>
       </c>
@@ -12565,7 +12708,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="502" spans="1:7" hidden="1">
+    <row r="502" spans="1:7">
       <c r="A502" s="1">
         <v>1</v>
       </c>
@@ -12585,7 +12728,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="503" spans="1:7" hidden="1">
+    <row r="503" spans="1:7">
       <c r="A503" s="1">
         <v>1</v>
       </c>
@@ -12605,7 +12748,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="504" spans="1:7" hidden="1">
+    <row r="504" spans="1:7">
       <c r="A504" s="1">
         <v>1</v>
       </c>
@@ -12625,7 +12768,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="505" spans="1:7" hidden="1">
+    <row r="505" spans="1:7">
       <c r="A505" s="1">
         <v>1</v>
       </c>
@@ -12645,7 +12788,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="506" spans="1:7" hidden="1">
+    <row r="506" spans="1:7">
       <c r="A506" s="1">
         <v>1</v>
       </c>
@@ -12665,7 +12808,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="507" spans="1:7" hidden="1">
+    <row r="507" spans="1:7">
       <c r="A507" s="1">
         <v>1</v>
       </c>
@@ -12685,7 +12828,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="508" spans="1:7" hidden="1">
+    <row r="508" spans="1:7">
       <c r="A508" s="1">
         <v>1</v>
       </c>
@@ -12705,7 +12848,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="509" spans="1:7" hidden="1">
+    <row r="509" spans="1:7">
       <c r="A509" s="1">
         <v>1</v>
       </c>
@@ -12725,7 +12868,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="510" spans="1:7" hidden="1">
+    <row r="510" spans="1:7">
       <c r="A510" s="1">
         <v>1</v>
       </c>
@@ -12745,7 +12888,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="511" spans="1:7" hidden="1">
+    <row r="511" spans="1:7">
       <c r="A511" s="1">
         <v>1</v>
       </c>
@@ -12765,7 +12908,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="512" spans="1:7" hidden="1">
+    <row r="512" spans="1:7">
       <c r="A512" s="1">
         <v>1</v>
       </c>
@@ -12785,7 +12928,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="513" spans="1:7" hidden="1">
+    <row r="513" spans="1:7">
       <c r="A513" s="1">
         <v>1</v>
       </c>
@@ -12805,7 +12948,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="514" spans="1:7" hidden="1">
+    <row r="514" spans="1:7">
       <c r="A514" s="1">
         <v>1</v>
       </c>
@@ -12825,7 +12968,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="515" spans="1:7" hidden="1">
+    <row r="515" spans="1:7">
       <c r="A515" s="1">
         <v>1</v>
       </c>
@@ -12845,7 +12988,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="516" spans="1:7" hidden="1">
+    <row r="516" spans="1:7">
       <c r="A516" s="1">
         <v>1</v>
       </c>
@@ -12865,7 +13008,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="517" spans="1:7" hidden="1">
+    <row r="517" spans="1:7">
       <c r="A517" s="1">
         <v>1</v>
       </c>
@@ -12885,7 +13028,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="518" spans="1:7" hidden="1">
+    <row r="518" spans="1:7">
       <c r="A518" s="1">
         <v>1</v>
       </c>
@@ -12905,7 +13048,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="519" spans="1:7" hidden="1">
+    <row r="519" spans="1:7">
       <c r="A519" s="1">
         <v>1</v>
       </c>
@@ -12925,7 +13068,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="520" spans="1:7" hidden="1">
+    <row r="520" spans="1:7">
       <c r="A520" s="1">
         <v>1</v>
       </c>
@@ -12945,7 +13088,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="521" spans="1:7" hidden="1">
+    <row r="521" spans="1:7">
       <c r="A521" s="1">
         <v>1</v>
       </c>
@@ -12965,7 +13108,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="522" spans="1:7" hidden="1">
+    <row r="522" spans="1:7">
       <c r="A522" s="1">
         <v>1</v>
       </c>
@@ -12985,7 +13128,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="523" spans="1:7" hidden="1">
+    <row r="523" spans="1:7">
       <c r="A523" s="1">
         <v>1</v>
       </c>
@@ -13005,7 +13148,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="524" spans="1:7" hidden="1">
+    <row r="524" spans="1:7">
       <c r="A524" s="1">
         <v>1</v>
       </c>
@@ -13025,7 +13168,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="525" spans="1:7" hidden="1">
+    <row r="525" spans="1:7">
       <c r="A525" s="1">
         <v>1</v>
       </c>
@@ -13045,7 +13188,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="526" spans="1:7" hidden="1">
+    <row r="526" spans="1:7">
       <c r="A526" s="1">
         <v>1</v>
       </c>
@@ -13065,7 +13208,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="527" spans="1:7" hidden="1">
+    <row r="527" spans="1:7">
       <c r="A527" s="1">
         <v>1</v>
       </c>
@@ -13085,7 +13228,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="528" spans="1:7" hidden="1">
+    <row r="528" spans="1:7">
       <c r="A528" s="1">
         <v>1</v>
       </c>
@@ -13105,7 +13248,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="529" spans="1:7" hidden="1">
+    <row r="529" spans="1:7">
       <c r="A529" s="1">
         <v>1</v>
       </c>
@@ -13125,7 +13268,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="530" spans="1:7" hidden="1">
+    <row r="530" spans="1:7">
       <c r="A530" s="1">
         <v>1</v>
       </c>
@@ -13145,7 +13288,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="531" spans="1:7" hidden="1">
+    <row r="531" spans="1:7">
       <c r="A531" s="1">
         <v>1</v>
       </c>
@@ -13165,7 +13308,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="532" spans="1:7" hidden="1">
+    <row r="532" spans="1:7">
       <c r="A532" s="1">
         <v>1</v>
       </c>
@@ -13185,7 +13328,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="533" spans="1:7" hidden="1">
+    <row r="533" spans="1:7">
       <c r="A533" s="1">
         <v>1</v>
       </c>
@@ -13205,7 +13348,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="534" spans="1:7" hidden="1">
+    <row r="534" spans="1:7">
       <c r="A534" s="1">
         <v>1</v>
       </c>
@@ -13225,7 +13368,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="535" spans="1:7" hidden="1">
+    <row r="535" spans="1:7">
       <c r="A535" s="1">
         <v>1</v>
       </c>
@@ -13245,7 +13388,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="536" spans="1:7" hidden="1">
+    <row r="536" spans="1:7">
       <c r="A536" s="1">
         <v>1</v>
       </c>
@@ -13265,7 +13408,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="537" spans="1:7" hidden="1">
+    <row r="537" spans="1:7">
       <c r="A537" s="1">
         <v>1</v>
       </c>
@@ -13285,7 +13428,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="538" spans="1:7" hidden="1">
+    <row r="538" spans="1:7">
       <c r="A538" s="1">
         <v>1</v>
       </c>
@@ -13305,7 +13448,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="539" spans="1:7" hidden="1">
+    <row r="539" spans="1:7">
       <c r="A539" s="1">
         <v>1</v>
       </c>
@@ -13325,7 +13468,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="540" spans="1:7" hidden="1">
+    <row r="540" spans="1:7">
       <c r="A540" s="1">
         <v>1</v>
       </c>
@@ -13345,7 +13488,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="541" spans="1:7" hidden="1">
+    <row r="541" spans="1:7">
       <c r="A541" s="1">
         <v>1</v>
       </c>
@@ -13365,7 +13508,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="542" spans="1:7" hidden="1">
+    <row r="542" spans="1:7">
       <c r="A542" s="1">
         <v>1</v>
       </c>
@@ -13385,7 +13528,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="543" spans="1:7" hidden="1">
+    <row r="543" spans="1:7">
       <c r="A543" s="1">
         <v>1</v>
       </c>
@@ -13405,7 +13548,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="544" spans="1:7" hidden="1">
+    <row r="544" spans="1:7">
       <c r="A544" s="1">
         <v>1</v>
       </c>
@@ -13425,7 +13568,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="545" spans="1:7" hidden="1">
+    <row r="545" spans="1:7">
       <c r="A545" s="1">
         <v>1</v>
       </c>
@@ -13445,7 +13588,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="546" spans="1:7" hidden="1">
+    <row r="546" spans="1:7">
       <c r="A546" s="1">
         <v>1</v>
       </c>
@@ -13465,7 +13608,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="547" spans="1:7" hidden="1">
+    <row r="547" spans="1:7">
       <c r="A547" s="1">
         <v>1</v>
       </c>
@@ -13485,7 +13628,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="548" spans="1:7" hidden="1">
+    <row r="548" spans="1:7">
       <c r="A548" s="1">
         <v>1</v>
       </c>
@@ -13505,7 +13648,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="549" spans="1:7" hidden="1">
+    <row r="549" spans="1:7">
       <c r="A549" s="1">
         <v>1</v>
       </c>
@@ -13525,7 +13668,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="550" spans="1:7" hidden="1">
+    <row r="550" spans="1:7">
       <c r="A550" s="1">
         <v>1</v>
       </c>
@@ -13545,7 +13688,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="551" spans="1:7" hidden="1">
+    <row r="551" spans="1:7">
       <c r="A551" s="1">
         <v>1</v>
       </c>
@@ -13565,7 +13708,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="552" spans="1:7" hidden="1">
+    <row r="552" spans="1:7">
       <c r="A552" s="1">
         <v>1</v>
       </c>
@@ -13585,7 +13728,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="553" spans="1:7" hidden="1">
+    <row r="553" spans="1:7">
       <c r="A553" s="1">
         <v>1</v>
       </c>
@@ -13605,7 +13748,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="554" spans="1:7" hidden="1">
+    <row r="554" spans="1:7">
       <c r="A554" s="1">
         <v>1</v>
       </c>
@@ -13625,7 +13768,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="555" spans="1:7" hidden="1">
+    <row r="555" spans="1:7">
       <c r="A555" s="1">
         <v>1</v>
       </c>
@@ -13645,7 +13788,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="556" spans="1:7" hidden="1">
+    <row r="556" spans="1:7">
       <c r="A556" s="1">
         <v>1</v>
       </c>
@@ -13665,7 +13808,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="557" spans="1:7" hidden="1">
+    <row r="557" spans="1:7">
       <c r="A557" s="1">
         <v>1</v>
       </c>
@@ -13685,7 +13828,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="558" spans="1:7" hidden="1">
+    <row r="558" spans="1:7">
       <c r="A558" s="1">
         <v>1</v>
       </c>
@@ -13705,7 +13848,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="559" spans="1:7" hidden="1">
+    <row r="559" spans="1:7">
       <c r="A559" s="1">
         <v>1</v>
       </c>
@@ -13725,7 +13868,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="560" spans="1:7" hidden="1">
+    <row r="560" spans="1:7">
       <c r="A560" s="1">
         <v>1</v>
       </c>
@@ -13745,7 +13888,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="561" spans="1:7" hidden="1">
+    <row r="561" spans="1:7">
       <c r="A561" s="1">
         <v>1</v>
       </c>
@@ -13765,7 +13908,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="562" spans="1:7" hidden="1">
+    <row r="562" spans="1:7">
       <c r="A562" s="1">
         <v>1</v>
       </c>
@@ -13785,7 +13928,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="563" spans="1:7" hidden="1">
+    <row r="563" spans="1:7">
       <c r="A563" s="1">
         <v>1</v>
       </c>
@@ -13805,7 +13948,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="564" spans="1:7" hidden="1">
+    <row r="564" spans="1:7">
       <c r="A564" s="1">
         <v>1</v>
       </c>
@@ -13825,7 +13968,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="565" spans="1:7" hidden="1">
+    <row r="565" spans="1:7">
       <c r="A565" s="1">
         <v>1</v>
       </c>
@@ -13845,7 +13988,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="566" spans="1:7" hidden="1">
+    <row r="566" spans="1:7">
       <c r="A566" s="1">
         <v>1</v>
       </c>
@@ -13865,7 +14008,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="567" spans="1:7" hidden="1">
+    <row r="567" spans="1:7">
       <c r="A567" s="1">
         <v>1</v>
       </c>
@@ -13885,7 +14028,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="568" spans="1:7" hidden="1">
+    <row r="568" spans="1:7">
       <c r="A568" s="1">
         <v>1</v>
       </c>
@@ -13905,7 +14048,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="569" spans="1:7" hidden="1">
+    <row r="569" spans="1:7">
       <c r="A569" s="1">
         <v>1</v>
       </c>
@@ -13925,7 +14068,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="570" spans="1:7" hidden="1">
+    <row r="570" spans="1:7">
       <c r="A570" s="1">
         <v>1</v>
       </c>
@@ -13945,7 +14088,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="571" spans="1:7" hidden="1">
+    <row r="571" spans="1:7">
       <c r="A571" s="1">
         <v>1</v>
       </c>
@@ -13965,7 +14108,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="572" spans="1:7" hidden="1">
+    <row r="572" spans="1:7">
       <c r="A572" s="1">
         <v>1</v>
       </c>
@@ -13985,7 +14128,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="573" spans="1:7" hidden="1">
+    <row r="573" spans="1:7">
       <c r="A573" s="1">
         <v>1</v>
       </c>
@@ -14005,7 +14148,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="574" spans="1:7" hidden="1">
+    <row r="574" spans="1:7">
       <c r="A574" s="1">
         <v>1</v>
       </c>
@@ -14025,7 +14168,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="575" spans="1:7" hidden="1">
+    <row r="575" spans="1:7">
       <c r="A575" s="1">
         <v>1</v>
       </c>
@@ -14045,7 +14188,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="576" spans="1:7" hidden="1">
+    <row r="576" spans="1:7">
       <c r="A576" s="1">
         <v>1</v>
       </c>
@@ -14065,7 +14208,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="577" spans="1:7" hidden="1">
+    <row r="577" spans="1:7">
       <c r="A577" s="1">
         <v>1</v>
       </c>
@@ -14085,7 +14228,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="578" spans="1:7" hidden="1">
+    <row r="578" spans="1:7">
       <c r="A578" s="1">
         <v>1</v>
       </c>
@@ -14105,7 +14248,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="579" spans="1:7" hidden="1">
+    <row r="579" spans="1:7">
       <c r="A579" s="1">
         <v>1</v>
       </c>
@@ -14125,7 +14268,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="580" spans="1:7" hidden="1">
+    <row r="580" spans="1:7">
       <c r="A580" s="1">
         <v>1</v>
       </c>
@@ -14145,7 +14288,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="581" spans="1:7" hidden="1">
+    <row r="581" spans="1:7">
       <c r="A581" s="1">
         <v>1</v>
       </c>
@@ -14165,7 +14308,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="582" spans="1:7" hidden="1">
+    <row r="582" spans="1:7">
       <c r="A582" s="1">
         <v>1</v>
       </c>
@@ -14185,7 +14328,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="583" spans="1:7" hidden="1">
+    <row r="583" spans="1:7">
       <c r="A583" s="1">
         <v>1</v>
       </c>
@@ -14205,7 +14348,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="584" spans="1:7" hidden="1">
+    <row r="584" spans="1:7">
       <c r="A584" s="1">
         <v>1</v>
       </c>
@@ -14225,7 +14368,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="585" spans="1:7" hidden="1">
+    <row r="585" spans="1:7">
       <c r="A585" s="1">
         <v>1</v>
       </c>
@@ -14245,7 +14388,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="586" spans="1:7" hidden="1">
+    <row r="586" spans="1:7">
       <c r="A586" s="1">
         <v>1</v>
       </c>
@@ -14265,7 +14408,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="587" spans="1:7" hidden="1">
+    <row r="587" spans="1:7">
       <c r="A587" s="1">
         <v>1</v>
       </c>
@@ -14285,7 +14428,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="588" spans="1:7" hidden="1">
+    <row r="588" spans="1:7">
       <c r="A588" s="1">
         <v>1</v>
       </c>
@@ -14305,7 +14448,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="589" spans="1:7" hidden="1">
+    <row r="589" spans="1:7">
       <c r="A589" s="1">
         <v>1</v>
       </c>
@@ -14325,7 +14468,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="590" spans="1:7" hidden="1">
+    <row r="590" spans="1:7">
       <c r="A590" s="1">
         <v>1</v>
       </c>
@@ -14345,7 +14488,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="591" spans="1:7" hidden="1">
+    <row r="591" spans="1:7">
       <c r="A591" s="1">
         <v>1</v>
       </c>
@@ -14365,7 +14508,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="592" spans="1:7" hidden="1">
+    <row r="592" spans="1:7">
       <c r="A592" s="1">
         <v>1</v>
       </c>
@@ -14385,7 +14528,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="593" spans="1:7" hidden="1">
+    <row r="593" spans="1:7">
       <c r="A593" s="1">
         <v>1</v>
       </c>
@@ -14405,7 +14548,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="594" spans="1:7" hidden="1">
+    <row r="594" spans="1:7">
       <c r="A594" s="1">
         <v>1</v>
       </c>
@@ -14425,7 +14568,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="595" spans="1:7" hidden="1">
+    <row r="595" spans="1:7">
       <c r="A595" s="1">
         <v>1</v>
       </c>
@@ -14445,7 +14588,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="596" spans="1:7" hidden="1">
+    <row r="596" spans="1:7">
       <c r="A596" s="1">
         <v>1</v>
       </c>
@@ -14465,7 +14608,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="597" spans="1:7" hidden="1">
+    <row r="597" spans="1:7">
       <c r="A597" s="1">
         <v>1</v>
       </c>
@@ -14485,7 +14628,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="598" spans="1:7" hidden="1">
+    <row r="598" spans="1:7">
       <c r="A598" s="1">
         <v>1</v>
       </c>
@@ -14505,7 +14648,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="599" spans="1:7" hidden="1">
+    <row r="599" spans="1:7">
       <c r="A599" s="1">
         <v>1</v>
       </c>
@@ -14525,7 +14668,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="600" spans="1:7" hidden="1">
+    <row r="600" spans="1:7">
       <c r="A600" s="1">
         <v>1</v>
       </c>
@@ -14545,7 +14688,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="601" spans="1:7" hidden="1">
+    <row r="601" spans="1:7">
       <c r="A601" s="1">
         <v>1</v>
       </c>
@@ -14565,7 +14708,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="602" spans="1:7" hidden="1">
+    <row r="602" spans="1:7">
       <c r="A602" s="1">
         <v>1</v>
       </c>
@@ -14585,7 +14728,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="603" spans="1:7" hidden="1">
+    <row r="603" spans="1:7">
       <c r="A603" s="1">
         <v>1</v>
       </c>
@@ -14605,7 +14748,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="604" spans="1:7" hidden="1">
+    <row r="604" spans="1:7">
       <c r="A604" s="1">
         <v>1</v>
       </c>
@@ -14625,7 +14768,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="605" spans="1:7" hidden="1">
+    <row r="605" spans="1:7">
       <c r="A605" s="1">
         <v>1</v>
       </c>
@@ -14645,7 +14788,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="606" spans="1:7" hidden="1">
+    <row r="606" spans="1:7">
       <c r="A606" s="1">
         <v>1</v>
       </c>
@@ -14665,7 +14808,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="607" spans="1:7" hidden="1">
+    <row r="607" spans="1:7">
       <c r="A607" s="1">
         <v>1</v>
       </c>
@@ -14685,7 +14828,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="608" spans="1:7" hidden="1">
+    <row r="608" spans="1:7">
       <c r="A608" s="1">
         <v>1</v>
       </c>
@@ -14705,7 +14848,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="609" spans="1:7" hidden="1">
+    <row r="609" spans="1:7">
       <c r="A609" s="1">
         <v>1</v>
       </c>
@@ -14725,7 +14868,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="610" spans="1:7" hidden="1">
+    <row r="610" spans="1:7">
       <c r="A610" s="1">
         <v>1</v>
       </c>
@@ -14745,7 +14888,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="611" spans="1:7" hidden="1">
+    <row r="611" spans="1:7">
       <c r="A611" s="1">
         <v>1</v>
       </c>
@@ -14765,13 +14908,16 @@
         <v>439</v>
       </c>
     </row>
-    <row r="612" spans="1:7" hidden="1">
+    <row r="612" spans="1:7">
       <c r="A612" s="1">
         <v>1</v>
       </c>
       <c r="B612" s="1" t="s">
         <v>572</v>
       </c>
+      <c r="C612" s="1" t="s">
+        <v>689</v>
+      </c>
       <c r="D612" s="1" t="s">
         <v>586</v>
       </c>
@@ -14785,13 +14931,16 @@
         <v>440</v>
       </c>
     </row>
-    <row r="613" spans="1:7" hidden="1">
+    <row r="613" spans="1:7">
       <c r="A613" s="1">
         <v>1</v>
       </c>
       <c r="B613" s="1" t="s">
         <v>572</v>
       </c>
+      <c r="C613" s="1" t="s">
+        <v>689</v>
+      </c>
       <c r="D613" s="1" t="s">
         <v>586</v>
       </c>
@@ -14805,13 +14954,16 @@
         <v>441</v>
       </c>
     </row>
-    <row r="614" spans="1:7" hidden="1">
+    <row r="614" spans="1:7">
       <c r="A614" s="1">
         <v>1</v>
       </c>
       <c r="B614" s="1" t="s">
         <v>572</v>
       </c>
+      <c r="C614" s="1" t="s">
+        <v>689</v>
+      </c>
       <c r="D614" s="1" t="s">
         <v>586</v>
       </c>
@@ -14825,7 +14977,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="615" spans="1:7" hidden="1">
+    <row r="615" spans="1:7">
       <c r="A615" s="1">
         <v>1</v>
       </c>
@@ -14845,7 +14997,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="616" spans="1:7" hidden="1">
+    <row r="616" spans="1:7">
       <c r="A616" s="1">
         <v>1</v>
       </c>
@@ -14865,7 +15017,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="617" spans="1:7" hidden="1">
+    <row r="617" spans="1:7">
       <c r="A617" s="1">
         <v>1</v>
       </c>
@@ -14885,7 +15037,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="618" spans="1:7" hidden="1">
+    <row r="618" spans="1:7">
       <c r="A618" s="1">
         <v>1</v>
       </c>
@@ -14905,7 +15057,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="619" spans="1:7" hidden="1">
+    <row r="619" spans="1:7">
       <c r="A619" s="1">
         <v>1</v>
       </c>
@@ -14925,7 +15077,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="620" spans="1:7" hidden="1">
+    <row r="620" spans="1:7">
       <c r="A620" s="1">
         <v>1</v>
       </c>
@@ -14945,7 +15097,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="621" spans="1:7" hidden="1">
+    <row r="621" spans="1:7">
       <c r="A621" s="1">
         <v>1</v>
       </c>
@@ -14965,7 +15117,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="622" spans="1:7" hidden="1">
+    <row r="622" spans="1:7">
       <c r="A622" s="1">
         <v>1</v>
       </c>
@@ -14985,7 +15137,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="623" spans="1:7" hidden="1">
+    <row r="623" spans="1:7">
       <c r="A623" s="1">
         <v>1</v>
       </c>
@@ -15005,7 +15157,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="624" spans="1:7" hidden="1">
+    <row r="624" spans="1:7">
       <c r="A624" s="1">
         <v>1</v>
       </c>
@@ -15025,7 +15177,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="625" spans="1:7" hidden="1">
+    <row r="625" spans="1:7">
       <c r="A625" s="1">
         <v>1</v>
       </c>
@@ -15045,7 +15197,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="626" spans="1:7" hidden="1">
+    <row r="626" spans="1:7">
       <c r="A626" s="1">
         <v>1</v>
       </c>
@@ -15065,7 +15217,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="627" spans="1:7" hidden="1">
+    <row r="627" spans="1:7">
       <c r="A627" s="1">
         <v>1</v>
       </c>
@@ -15085,7 +15237,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="628" spans="1:7" hidden="1">
+    <row r="628" spans="1:7">
       <c r="A628" s="1">
         <v>1</v>
       </c>
@@ -15105,7 +15257,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="629" spans="1:7" hidden="1">
+    <row r="629" spans="1:7">
       <c r="A629" s="1">
         <v>1</v>
       </c>
@@ -15125,7 +15277,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="630" spans="1:7" hidden="1">
+    <row r="630" spans="1:7">
       <c r="A630" s="1">
         <v>1</v>
       </c>
@@ -15145,7 +15297,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="631" spans="1:7" hidden="1">
+    <row r="631" spans="1:7">
       <c r="A631" s="1">
         <v>1</v>
       </c>
@@ -15165,7 +15317,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="632" spans="1:7" hidden="1">
+    <row r="632" spans="1:7">
       <c r="A632" s="1">
         <v>1</v>
       </c>
@@ -15185,7 +15337,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="633" spans="1:7" hidden="1">
+    <row r="633" spans="1:7">
       <c r="A633" s="1">
         <v>1</v>
       </c>
@@ -15205,7 +15357,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="634" spans="1:7" hidden="1">
+    <row r="634" spans="1:7">
       <c r="A634" s="1">
         <v>1</v>
       </c>
@@ -15225,7 +15377,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="635" spans="1:7" hidden="1">
+    <row r="635" spans="1:7">
       <c r="A635" s="1">
         <v>1</v>
       </c>
@@ -15245,7 +15397,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="636" spans="1:7" hidden="1">
+    <row r="636" spans="1:7">
       <c r="A636" s="1">
         <v>1</v>
       </c>
@@ -15265,7 +15417,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="637" spans="1:7" hidden="1">
+    <row r="637" spans="1:7">
       <c r="A637" s="1">
         <v>1</v>
       </c>
@@ -15285,7 +15437,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="638" spans="1:7" hidden="1">
+    <row r="638" spans="1:7">
       <c r="A638" s="1">
         <v>1</v>
       </c>
@@ -15305,7 +15457,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="639" spans="1:7" hidden="1">
+    <row r="639" spans="1:7">
       <c r="A639" s="1">
         <v>1</v>
       </c>
@@ -15325,7 +15477,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="640" spans="1:7" hidden="1">
+    <row r="640" spans="1:7">
       <c r="A640" s="1">
         <v>1</v>
       </c>
@@ -15345,7 +15497,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="641" spans="1:7" hidden="1">
+    <row r="641" spans="1:7">
       <c r="A641" s="1">
         <v>1</v>
       </c>
@@ -15365,7 +15517,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="642" spans="1:7" hidden="1">
+    <row r="642" spans="1:7">
       <c r="A642" s="1">
         <v>0</v>
       </c>
@@ -15382,7 +15534,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="643" spans="1:7" hidden="1">
+    <row r="643" spans="1:7">
       <c r="A643" s="1">
         <v>0</v>
       </c>
@@ -15399,7 +15551,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="644" spans="1:7" hidden="1">
+    <row r="644" spans="1:7">
       <c r="A644" s="1">
         <v>1</v>
       </c>
@@ -15419,7 +15571,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="645" spans="1:7" hidden="1">
+    <row r="645" spans="1:7">
       <c r="A645" s="1">
         <v>1</v>
       </c>
@@ -15439,7 +15591,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="646" spans="1:7" hidden="1">
+    <row r="646" spans="1:7">
       <c r="A646" s="1">
         <v>1</v>
       </c>
@@ -15459,7 +15611,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="647" spans="1:7" hidden="1">
+    <row r="647" spans="1:7">
       <c r="A647" s="1">
         <v>1</v>
       </c>
@@ -15479,7 +15631,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="648" spans="1:7" hidden="1">
+    <row r="648" spans="1:7">
       <c r="A648" s="1">
         <v>1</v>
       </c>
@@ -15499,7 +15651,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="649" spans="1:7" hidden="1">
+    <row r="649" spans="1:7">
       <c r="A649" s="1">
         <v>1</v>
       </c>
@@ -15519,7 +15671,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="650" spans="1:7" hidden="1">
+    <row r="650" spans="1:7">
       <c r="A650" s="1">
         <v>1</v>
       </c>
@@ -15539,7 +15691,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="651" spans="1:7" hidden="1">
+    <row r="651" spans="1:7">
       <c r="A651" s="1">
         <v>1</v>
       </c>
@@ -15559,7 +15711,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="652" spans="1:7" hidden="1">
+    <row r="652" spans="1:7">
       <c r="A652" s="1">
         <v>1</v>
       </c>
@@ -15579,7 +15731,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="653" spans="1:7" hidden="1">
+    <row r="653" spans="1:7">
       <c r="A653" s="1">
         <v>1</v>
       </c>
@@ -15599,7 +15751,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="654" spans="1:7" hidden="1">
+    <row r="654" spans="1:7">
       <c r="A654" s="1">
         <v>1</v>
       </c>
@@ -15619,7 +15771,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="655" spans="1:7" hidden="1">
+    <row r="655" spans="1:7">
       <c r="A655" s="1">
         <v>1</v>
       </c>
@@ -15639,7 +15791,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="656" spans="1:7" hidden="1">
+    <row r="656" spans="1:7">
       <c r="A656" s="1">
         <v>1</v>
       </c>
@@ -15659,7 +15811,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="657" spans="1:7" hidden="1">
+    <row r="657" spans="1:7">
       <c r="A657" s="1">
         <v>1</v>
       </c>
@@ -15679,7 +15831,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="658" spans="1:7" hidden="1">
+    <row r="658" spans="1:7">
       <c r="A658" s="1">
         <v>1</v>
       </c>
@@ -15699,7 +15851,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="659" spans="1:7" hidden="1">
+    <row r="659" spans="1:7">
       <c r="A659" s="1">
         <v>1</v>
       </c>
@@ -15719,7 +15871,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="660" spans="1:7" hidden="1">
+    <row r="660" spans="1:7">
       <c r="A660" s="1">
         <v>1</v>
       </c>
@@ -15739,7 +15891,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="661" spans="1:7" hidden="1">
+    <row r="661" spans="1:7">
       <c r="A661" s="1">
         <v>1</v>
       </c>
@@ -15759,7 +15911,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="662" spans="1:7" hidden="1">
+    <row r="662" spans="1:7">
       <c r="A662" s="1">
         <v>1</v>
       </c>
@@ -15779,7 +15931,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="663" spans="1:7" hidden="1">
+    <row r="663" spans="1:7">
       <c r="A663" s="1">
         <v>1</v>
       </c>
@@ -15799,7 +15951,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="664" spans="1:7" hidden="1">
+    <row r="664" spans="1:7">
       <c r="A664" s="1">
         <v>1</v>
       </c>
@@ -15819,7 +15971,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="665" spans="1:7" hidden="1">
+    <row r="665" spans="1:7">
       <c r="A665" s="1">
         <v>1</v>
       </c>
@@ -15839,7 +15991,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="666" spans="1:7" hidden="1">
+    <row r="666" spans="1:7">
       <c r="A666" s="1">
         <v>1</v>
       </c>
@@ -15859,7 +16011,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="667" spans="1:7" hidden="1">
+    <row r="667" spans="1:7">
       <c r="A667" s="1">
         <v>1</v>
       </c>
@@ -15879,7 +16031,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="668" spans="1:7" hidden="1">
+    <row r="668" spans="1:7">
       <c r="A668" s="1">
         <v>1</v>
       </c>
@@ -15899,7 +16051,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="669" spans="1:7" hidden="1">
+    <row r="669" spans="1:7">
       <c r="A669" s="1">
         <v>1</v>
       </c>
@@ -15919,7 +16071,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="670" spans="1:7" hidden="1">
+    <row r="670" spans="1:7">
       <c r="A670" s="1">
         <v>1</v>
       </c>
@@ -15939,7 +16091,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="671" spans="1:7" hidden="1">
+    <row r="671" spans="1:7">
       <c r="A671" s="1">
         <v>1</v>
       </c>
@@ -15959,7 +16111,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="672" spans="1:7" hidden="1">
+    <row r="672" spans="1:7">
       <c r="A672" s="1">
         <v>1</v>
       </c>
@@ -15979,7 +16131,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="673" spans="1:7" hidden="1">
+    <row r="673" spans="1:7">
       <c r="A673" s="1">
         <v>1</v>
       </c>
@@ -15999,7 +16151,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="674" spans="1:7" hidden="1">
+    <row r="674" spans="1:7">
       <c r="A674" s="1">
         <v>0</v>
       </c>
@@ -16016,7 +16168,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="675" spans="1:7" hidden="1">
+    <row r="675" spans="1:7">
       <c r="A675" s="1">
         <v>0</v>
       </c>
@@ -16033,7 +16185,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="676" spans="1:7" hidden="1">
+    <row r="676" spans="1:7">
       <c r="A676" s="1">
         <v>0</v>
       </c>
@@ -16050,7 +16202,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="677" spans="1:7" hidden="1">
+    <row r="677" spans="1:7">
       <c r="A677" s="1">
         <v>0</v>
       </c>
@@ -16067,7 +16219,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="678" spans="1:7" hidden="1">
+    <row r="678" spans="1:7">
       <c r="A678" s="1">
         <v>0</v>
       </c>
@@ -16084,7 +16236,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="679" spans="1:7" hidden="1">
+    <row r="679" spans="1:7">
       <c r="A679" s="1">
         <v>0</v>
       </c>
@@ -16101,7 +16253,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="680" spans="1:7" hidden="1">
+    <row r="680" spans="1:7">
       <c r="A680" s="1">
         <v>0</v>
       </c>
@@ -16118,7 +16270,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="681" spans="1:7" hidden="1">
+    <row r="681" spans="1:7">
       <c r="A681" s="1">
         <v>0</v>
       </c>
@@ -16135,7 +16287,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="682" spans="1:7" hidden="1">
+    <row r="682" spans="1:7">
       <c r="A682" s="1">
         <v>0</v>
       </c>
@@ -16152,7 +16304,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="683" spans="1:7" hidden="1">
+    <row r="683" spans="1:7">
       <c r="A683" s="1">
         <v>0</v>
       </c>
@@ -16169,7 +16321,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="684" spans="1:7" hidden="1">
+    <row r="684" spans="1:7">
       <c r="A684" s="1">
         <v>0</v>
       </c>
@@ -16186,7 +16338,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="685" spans="1:7" hidden="1">
+    <row r="685" spans="1:7">
       <c r="A685" s="1">
         <v>0</v>
       </c>
@@ -16203,7 +16355,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="686" spans="1:7" hidden="1">
+    <row r="686" spans="1:7">
       <c r="A686" s="1">
         <v>0</v>
       </c>
@@ -16220,7 +16372,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="687" spans="1:7" hidden="1">
+    <row r="687" spans="1:7">
       <c r="A687" s="1">
         <v>0</v>
       </c>
@@ -16237,7 +16389,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="688" spans="1:7" hidden="1">
+    <row r="688" spans="1:7">
       <c r="A688" s="1">
         <v>0</v>
       </c>
@@ -16254,7 +16406,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="689" spans="1:7" hidden="1">
+    <row r="689" spans="1:7">
       <c r="A689" s="1">
         <v>0</v>
       </c>
@@ -16271,7 +16423,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="690" spans="1:7" hidden="1">
+    <row r="690" spans="1:7">
       <c r="A690" s="1">
         <v>0</v>
       </c>
@@ -16288,7 +16440,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="691" spans="1:7" hidden="1">
+    <row r="691" spans="1:7">
       <c r="A691" s="1">
         <v>0</v>
       </c>
@@ -16305,7 +16457,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="692" spans="1:7" hidden="1">
+    <row r="692" spans="1:7">
       <c r="A692" s="1">
         <v>0</v>
       </c>
@@ -16322,7 +16474,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="693" spans="1:7" hidden="1">
+    <row r="693" spans="1:7">
       <c r="A693" s="1">
         <v>0</v>
       </c>
@@ -16339,7 +16491,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="694" spans="1:7" hidden="1">
+    <row r="694" spans="1:7">
       <c r="A694" s="1">
         <v>0</v>
       </c>
@@ -16356,7 +16508,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="695" spans="1:7" hidden="1">
+    <row r="695" spans="1:7">
       <c r="A695" s="1">
         <v>0</v>
       </c>
@@ -16373,7 +16525,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="696" spans="1:7" hidden="1">
+    <row r="696" spans="1:7">
       <c r="A696" s="1">
         <v>0</v>
       </c>
@@ -16390,7 +16542,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="697" spans="1:7" hidden="1">
+    <row r="697" spans="1:7">
       <c r="A697" s="1">
         <v>0</v>
       </c>
@@ -16407,7 +16559,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="698" spans="1:7" hidden="1">
+    <row r="698" spans="1:7">
       <c r="A698" s="1">
         <v>0</v>
       </c>
@@ -16424,7 +16576,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="699" spans="1:7" hidden="1">
+    <row r="699" spans="1:7">
       <c r="A699" s="1">
         <v>0</v>
       </c>
@@ -16441,7 +16593,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="700" spans="1:7" hidden="1">
+    <row r="700" spans="1:7">
       <c r="A700" s="1">
         <v>0</v>
       </c>
@@ -16458,7 +16610,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="701" spans="1:7" hidden="1">
+    <row r="701" spans="1:7">
       <c r="A701" s="1">
         <v>0</v>
       </c>
@@ -16475,7 +16627,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="702" spans="1:7" hidden="1">
+    <row r="702" spans="1:7">
       <c r="A702" s="1">
         <v>0</v>
       </c>
@@ -16492,7 +16644,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="703" spans="1:7" hidden="1">
+    <row r="703" spans="1:7">
       <c r="A703" s="1">
         <v>0</v>
       </c>
@@ -16509,7 +16661,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="704" spans="1:7" hidden="1">
+    <row r="704" spans="1:7">
       <c r="A704" s="1">
         <v>0</v>
       </c>
@@ -16526,7 +16678,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="705" spans="1:7" hidden="1">
+    <row r="705" spans="1:7">
       <c r="A705" s="1">
         <v>0</v>
       </c>
@@ -16543,7 +16695,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="706" spans="1:7" hidden="1">
+    <row r="706" spans="1:7">
       <c r="A706" s="1">
         <v>0</v>
       </c>
@@ -16560,7 +16712,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="707" spans="1:7" hidden="1">
+    <row r="707" spans="1:7">
       <c r="A707" s="1">
         <v>0</v>
       </c>
@@ -16577,7 +16729,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="708" spans="1:7" hidden="1">
+    <row r="708" spans="1:7">
       <c r="A708" s="1">
         <v>0</v>
       </c>
@@ -16594,7 +16746,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="709" spans="1:7" hidden="1">
+    <row r="709" spans="1:7">
       <c r="A709" s="1">
         <v>0</v>
       </c>
@@ -16611,7 +16763,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="710" spans="1:7" hidden="1">
+    <row r="710" spans="1:7">
       <c r="A710" s="1">
         <v>0</v>
       </c>
@@ -16628,7 +16780,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="711" spans="1:7" hidden="1">
+    <row r="711" spans="1:7">
       <c r="A711" s="1">
         <v>0</v>
       </c>
@@ -16645,7 +16797,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="712" spans="1:7" hidden="1">
+    <row r="712" spans="1:7">
       <c r="A712" s="1">
         <v>0</v>
       </c>
@@ -16662,7 +16814,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="713" spans="1:7" hidden="1">
+    <row r="713" spans="1:7">
       <c r="A713" s="1">
         <v>0</v>
       </c>
@@ -16679,7 +16831,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="714" spans="1:7" hidden="1">
+    <row r="714" spans="1:7">
       <c r="A714" s="1">
         <v>0</v>
       </c>
@@ -16696,7 +16848,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="715" spans="1:7" hidden="1">
+    <row r="715" spans="1:7">
       <c r="A715" s="1">
         <v>0</v>
       </c>
@@ -16713,7 +16865,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="716" spans="1:7" hidden="1">
+    <row r="716" spans="1:7">
       <c r="A716" s="1">
         <v>0</v>
       </c>
@@ -16730,7 +16882,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="717" spans="1:7" hidden="1">
+    <row r="717" spans="1:7">
       <c r="A717" s="1">
         <v>0</v>
       </c>
@@ -16747,7 +16899,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="718" spans="1:7" hidden="1">
+    <row r="718" spans="1:7">
       <c r="A718" s="1">
         <v>0</v>
       </c>
@@ -16764,7 +16916,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="719" spans="1:7" hidden="1">
+    <row r="719" spans="1:7">
       <c r="A719" s="1">
         <v>0</v>
       </c>
@@ -16781,7 +16933,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="720" spans="1:7" hidden="1">
+    <row r="720" spans="1:7">
       <c r="A720" s="1">
         <v>0</v>
       </c>
@@ -16798,7 +16950,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="721" spans="1:7" hidden="1">
+    <row r="721" spans="1:7">
       <c r="A721" s="1">
         <v>0</v>
       </c>
@@ -16815,7 +16967,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="722" spans="1:7" hidden="1">
+    <row r="722" spans="1:7">
       <c r="A722" s="1">
         <v>0</v>
       </c>
@@ -16832,7 +16984,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="723" spans="1:7" hidden="1">
+    <row r="723" spans="1:7">
       <c r="A723" s="1">
         <v>0</v>
       </c>
@@ -16849,7 +17001,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="724" spans="1:7" hidden="1">
+    <row r="724" spans="1:7">
       <c r="A724" s="1">
         <v>0</v>
       </c>
@@ -16866,7 +17018,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="725" spans="1:7" hidden="1">
+    <row r="725" spans="1:7">
       <c r="A725" s="1">
         <v>0</v>
       </c>
@@ -16883,7 +17035,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="726" spans="1:7" hidden="1">
+    <row r="726" spans="1:7">
       <c r="A726" s="1">
         <v>0</v>
       </c>
@@ -16900,7 +17052,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="727" spans="1:7" hidden="1">
+    <row r="727" spans="1:7">
       <c r="A727" s="1">
         <v>0</v>
       </c>
@@ -16917,7 +17069,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="728" spans="1:7" hidden="1">
+    <row r="728" spans="1:7">
       <c r="A728" s="1">
         <v>0</v>
       </c>
@@ -16934,7 +17086,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="729" spans="1:7" hidden="1">
+    <row r="729" spans="1:7">
       <c r="A729" s="1">
         <v>0</v>
       </c>
@@ -16951,7 +17103,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="730" spans="1:7" hidden="1">
+    <row r="730" spans="1:7">
       <c r="A730" s="1">
         <v>0</v>
       </c>
@@ -16968,7 +17120,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="731" spans="1:7" hidden="1">
+    <row r="731" spans="1:7">
       <c r="A731" s="1">
         <v>0</v>
       </c>
@@ -16985,7 +17137,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="732" spans="1:7" hidden="1">
+    <row r="732" spans="1:7">
       <c r="A732" s="1">
         <v>0</v>
       </c>
@@ -17002,7 +17154,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="733" spans="1:7" hidden="1">
+    <row r="733" spans="1:7">
       <c r="A733" s="1">
         <v>0</v>
       </c>
@@ -17019,7 +17171,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="734" spans="1:7" hidden="1">
+    <row r="734" spans="1:7">
       <c r="A734" s="1">
         <v>0</v>
       </c>
@@ -17036,7 +17188,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="735" spans="1:7" hidden="1">
+    <row r="735" spans="1:7">
       <c r="A735" s="1">
         <v>0</v>
       </c>
@@ -17053,7 +17205,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="736" spans="1:7" hidden="1">
+    <row r="736" spans="1:7">
       <c r="A736" s="1">
         <v>0</v>
       </c>
@@ -17070,7 +17222,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="737" spans="1:7" hidden="1">
+    <row r="737" spans="1:7">
       <c r="A737" s="1">
         <v>0</v>
       </c>
@@ -17087,7 +17239,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="738" spans="1:7" hidden="1">
+    <row r="738" spans="1:7">
       <c r="A738" s="1">
         <v>0</v>
       </c>
@@ -17104,7 +17256,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="739" spans="1:7" hidden="1">
+    <row r="739" spans="1:7">
       <c r="A739" s="1">
         <v>0</v>
       </c>
@@ -17121,7 +17273,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="740" spans="1:7" hidden="1">
+    <row r="740" spans="1:7">
       <c r="A740" s="1">
         <v>0</v>
       </c>
@@ -17138,7 +17290,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="741" spans="1:7" hidden="1">
+    <row r="741" spans="1:7">
       <c r="A741" s="1">
         <v>0</v>
       </c>
@@ -17155,7 +17307,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="742" spans="1:7" hidden="1">
+    <row r="742" spans="1:7">
       <c r="A742" s="1">
         <v>0</v>
       </c>
@@ -17172,7 +17324,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="743" spans="1:7" hidden="1">
+    <row r="743" spans="1:7">
       <c r="A743" s="1">
         <v>0</v>
       </c>
@@ -17190,13 +17342,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F743" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="藥草"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F743" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
